--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29964794-2875-42C8-B06B-E5C0DDA5620B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B14CA-B5B2-49E2-81FC-842A64F51060}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1560" windowWidth="26025" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1264">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3817,6 +3817,18 @@
   </si>
   <si>
     <t>11.7.2.6.5</t>
+  </si>
+  <si>
+    <t>PKIX.27</t>
+  </si>
+  <si>
+    <t>PKIX_Test_27</t>
+  </si>
+  <si>
+    <t>PKIX.28</t>
+  </si>
+  <si>
+    <t>PKIX_Test_28</t>
   </si>
 </sst>
 </file>
@@ -4056,7 +4068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4254,6 +4266,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8339,10 +8357,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:XFD426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -14057,36 +14075,36 @@
       <c r="E347" s="39"/>
       <c r="F347" s="39"/>
     </row>
-    <row r="348" spans="1:6" ht="90">
+    <row r="348" spans="1:6" ht="60">
       <c r="A348" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C348" s="41" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>582</v>
+        <v>1260</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="60">
+    <row r="349" spans="1:6" ht="45">
       <c r="A349" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C349" s="41" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
@@ -14098,49 +14116,45 @@
         <v>56</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C350" s="38" t="s">
-        <v>588</v>
+        <v>592</v>
+      </c>
+      <c r="C350" s="41" t="s">
+        <v>593</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>1159</v>
+        <v>594</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="45">
+    <row r="351" spans="1:6">
       <c r="A351" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C351" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="D351" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E351" s="38"/>
-      <c r="F351" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="30">
+        <v>595</v>
+      </c>
+      <c r="C351" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D351" s="39"/>
+      <c r="E351" s="39"/>
+      <c r="F351" s="39"/>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C352" s="41" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D352" s="38" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="E352" s="38"/>
       <c r="F352" s="38" t="s">
@@ -14152,97 +14166,101 @@
         <v>56</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C353" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D353" s="39"/>
-      <c r="E353" s="39"/>
-      <c r="F353" s="39"/>
+        <v>599</v>
+      </c>
+      <c r="C353" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D353" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E353" s="38"/>
+      <c r="F353" s="38" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="C354" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D354" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E354" s="38"/>
-      <c r="F354" s="38" t="s">
-        <v>1119</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C354" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D354" s="39"/>
+      <c r="E354" s="39"/>
+      <c r="F354" s="39"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="C355" s="38" t="s">
-        <v>600</v>
+        <v>603</v>
+      </c>
+      <c r="C355" s="41" t="s">
+        <v>566</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>1059</v>
+        <v>567</v>
       </c>
       <c r="E355" s="38"/>
       <c r="F355" s="38" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" ht="30">
       <c r="A356" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C356" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D356" s="39"/>
-      <c r="E356" s="39"/>
-      <c r="F356" s="39"/>
-    </row>
-    <row r="357" spans="1:6">
+        <v>604</v>
+      </c>
+      <c r="C356" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D356" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E356" s="42"/>
+      <c r="F356" s="38" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="30">
       <c r="A357" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C357" s="41" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D357" s="38" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E357" s="38"/>
       <c r="F357" s="38" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="30">
+    <row r="358" spans="1:6">
       <c r="A358" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C358" s="41" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D358" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E358" s="42"/>
+        <v>1062</v>
+      </c>
+      <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
         <v>1119</v>
       </c>
@@ -14252,13 +14270,13 @@
         <v>56</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>606</v>
-      </c>
-      <c r="C359" s="41" t="s">
-        <v>607</v>
+        <v>610</v>
+      </c>
+      <c r="C359" s="38" t="s">
+        <v>611</v>
       </c>
       <c r="D359" s="38" t="s">
-        <v>573</v>
+        <v>1060</v>
       </c>
       <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
@@ -14269,196 +14287,196 @@
       <c r="A360" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B360" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C360" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D360" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E360" s="38"/>
-      <c r="F360" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" ht="30">
+      <c r="B360" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C360" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D360" s="39"/>
+      <c r="E360" s="39"/>
+      <c r="F360" s="39"/>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C361" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D361" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E361" s="38"/>
-      <c r="F361" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
+        <v>612</v>
+      </c>
+      <c r="C361" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D361" s="39"/>
+      <c r="E361" s="39"/>
+      <c r="F361" s="39"/>
+    </row>
+    <row r="362" spans="1:6" ht="120">
       <c r="A362" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B362" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C362" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D362" s="39"/>
-      <c r="E362" s="39"/>
-      <c r="F362" s="39"/>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="B362" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C362" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="D362" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="E362" s="38"/>
+      <c r="F362" s="38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="30">
       <c r="A363" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C363" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D363" s="39"/>
-      <c r="E363" s="39"/>
-      <c r="F363" s="39"/>
-    </row>
-    <row r="364" spans="1:6" ht="120">
+        <v>614</v>
+      </c>
+      <c r="C363" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="D363" s="38" t="s">
+        <v>993</v>
+      </c>
+      <c r="E363" s="38"/>
+      <c r="F363" s="38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="30">
       <c r="A364" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C364" s="41" t="s">
-        <v>545</v>
-      </c>
-      <c r="D364" s="38" t="s">
-        <v>998</v>
+        <v>549</v>
+      </c>
+      <c r="D364" s="38">
+        <v>78.099999999999994</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="30">
+    <row r="365" spans="1:6">
       <c r="A365" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="C365" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="D365" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E365" s="38"/>
-      <c r="F365" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="30">
+        <v>617</v>
+      </c>
+      <c r="C365" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D365" s="39"/>
+      <c r="E365" s="39"/>
+      <c r="F365" s="39"/>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="C366" s="41" t="s">
-        <v>549</v>
-      </c>
-      <c r="D366" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E366" s="38"/>
-      <c r="F366" s="38" t="s">
-        <v>1137</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C366" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D366" s="39"/>
+      <c r="E366" s="39"/>
+      <c r="F366" s="39"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="C367" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D367" s="39"/>
-      <c r="E367" s="39"/>
-      <c r="F367" s="39"/>
-    </row>
-    <row r="368" spans="1:6">
+        <v>620</v>
+      </c>
+      <c r="C367" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D367" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E367" s="38"/>
+      <c r="F367" s="38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="30">
       <c r="A368" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="C368" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="D368" s="39"/>
-      <c r="E368" s="39"/>
-      <c r="F368" s="39"/>
-    </row>
-    <row r="369" spans="1:6">
+        <v>623</v>
+      </c>
+      <c r="C368" s="41" t="s">
+        <v>624</v>
+      </c>
+      <c r="D368" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="E368" s="38"/>
+      <c r="F368" s="38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="45">
       <c r="A369" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="C369" s="38" t="s">
-        <v>621</v>
+        <v>626</v>
+      </c>
+      <c r="C369" s="41" t="s">
+        <v>627</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="E369" s="38"/>
       <c r="F369" s="38" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="30">
+    <row r="370" spans="1:6" ht="45">
       <c r="A370" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="E370" s="38"/>
       <c r="F370" s="38" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="45">
+    <row r="371" spans="1:6" ht="30">
       <c r="A371" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E371" s="38"/>
       <c r="F371" s="38" t="s">
@@ -14470,49 +14488,45 @@
         <v>56</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D372" s="38" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="E372" s="38"/>
       <c r="F372" s="38" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30">
+    <row r="373" spans="1:6">
       <c r="A373" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="C373" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="D373" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E373" s="38"/>
-      <c r="F373" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" ht="45">
+        <v>634</v>
+      </c>
+      <c r="C373" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D373" s="39"/>
+      <c r="E373" s="39"/>
+      <c r="F373" s="39"/>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C374" s="41" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="D374" s="38" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
@@ -14524,97 +14538,101 @@
         <v>56</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C375" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D375" s="39"/>
-      <c r="E375" s="39"/>
-      <c r="F375" s="39"/>
+        <v>636</v>
+      </c>
+      <c r="C375" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D375" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E375" s="38"/>
+      <c r="F375" s="38" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C376" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D376" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E376" s="38"/>
-      <c r="F376" s="38" t="s">
-        <v>1137</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C376" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D376" s="39"/>
+      <c r="E376" s="39"/>
+      <c r="F376" s="39"/>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C377" s="38" t="s">
-        <v>600</v>
+        <v>638</v>
+      </c>
+      <c r="C377" s="41" t="s">
+        <v>566</v>
       </c>
       <c r="D377" s="38" t="s">
-        <v>1059</v>
+        <v>567</v>
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" ht="30">
       <c r="A378" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C378" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D378" s="39"/>
-      <c r="E378" s="39"/>
-      <c r="F378" s="39"/>
-    </row>
-    <row r="379" spans="1:6">
+        <v>639</v>
+      </c>
+      <c r="C378" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="D378" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E378" s="42"/>
+      <c r="F378" s="38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="30">
       <c r="A379" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C379" s="41" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D379" s="38" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E379" s="38"/>
       <c r="F379" s="38" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30">
+    <row r="380" spans="1:6">
       <c r="A380" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C380" s="41" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E380" s="42"/>
+        <v>1062</v>
+      </c>
+      <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
         <v>1137</v>
       </c>
@@ -14624,13 +14642,13 @@
         <v>56</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="C381" s="41" t="s">
-        <v>607</v>
+        <v>643</v>
+      </c>
+      <c r="C381" s="38" t="s">
+        <v>611</v>
       </c>
       <c r="D381" s="38" t="s">
-        <v>573</v>
+        <v>1060</v>
       </c>
       <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
@@ -14641,160 +14659,160 @@
       <c r="A382" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B382" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C382" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D382" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E382" s="38"/>
-      <c r="F382" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="30">
+      <c r="B382" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C382" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382" s="39"/>
+      <c r="E382" s="39"/>
+      <c r="F382" s="39"/>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="C383" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D383" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E383" s="38"/>
-      <c r="F383" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
+        <v>644</v>
+      </c>
+      <c r="C383" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D383" s="39"/>
+      <c r="E383" s="39"/>
+      <c r="F383" s="39"/>
+    </row>
+    <row r="384" spans="1:6" ht="105">
       <c r="A384" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B384" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C384" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D384" s="39"/>
-      <c r="E384" s="39"/>
-      <c r="F384" s="39"/>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="B384" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="C384" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="D384" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E384" s="38"/>
+      <c r="F384" s="38" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="30">
       <c r="A385" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C385" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D385" s="39"/>
-      <c r="E385" s="39"/>
-      <c r="F385" s="39"/>
-    </row>
-    <row r="386" spans="1:6" ht="105">
+        <v>647</v>
+      </c>
+      <c r="C385" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="D385" s="38" t="s">
+        <v>993</v>
+      </c>
+      <c r="E385" s="38"/>
+      <c r="F385" s="38" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="30">
       <c r="A386" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C386" s="41" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D386" s="38">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="30">
+    <row r="387" spans="1:6">
       <c r="A387" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C387" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="D387" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E387" s="38"/>
-      <c r="F387" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="C387" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D387" s="39"/>
+      <c r="E387" s="39"/>
+      <c r="F387" s="39"/>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B388" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C388" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D388" s="39"/>
+      <c r="E388" s="39"/>
+      <c r="F388" s="39"/>
+    </row>
+    <row r="389" spans="1:6" ht="45">
+      <c r="A389" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B389" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="C389" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="D389" s="38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E389" s="38"/>
+      <c r="F389" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="30">
-      <c r="A388" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B388" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C388" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="D388" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E388" s="38"/>
-      <c r="F388" s="38" t="s">
+    <row r="390" spans="1:6" ht="45">
+      <c r="A390" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B390" s="38" t="s">
+        <v>655</v>
+      </c>
+      <c r="C390" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="D390" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="E390" s="38"/>
+      <c r="F390" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B389" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="C389" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D389" s="39"/>
-      <c r="E389" s="39"/>
-      <c r="F389" s="39"/>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B390" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C390" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="D390" s="39"/>
-      <c r="E390" s="39"/>
-      <c r="F390" s="39"/>
-    </row>
-    <row r="391" spans="1:6" ht="45">
+    <row r="391" spans="1:6">
       <c r="A391" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C391" s="41" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1031</v>
+        <v>556</v>
       </c>
       <c r="E391" s="38"/>
       <c r="F391" s="38" t="s">
@@ -14806,31 +14824,31 @@
         <v>56</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>657</v>
+        <v>579</v>
       </c>
       <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" ht="30">
       <c r="A393" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="38" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D393" s="38" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="E393" s="38"/>
       <c r="F393" s="38" t="s">
@@ -14842,49 +14860,45 @@
         <v>56</v>
       </c>
       <c r="B394" s="38" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C394" s="41" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="D394" s="38" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="E394" s="38"/>
       <c r="F394" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30">
+    <row r="395" spans="1:6">
       <c r="A395" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="C395" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="D395" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="E395" s="38"/>
-      <c r="F395" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="45">
+        <v>665</v>
+      </c>
+      <c r="C395" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D395" s="39"/>
+      <c r="E395" s="39"/>
+      <c r="F395" s="39"/>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C396" s="41" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="D396" s="38" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
@@ -14896,97 +14910,101 @@
         <v>56</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C397" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D397" s="39"/>
-      <c r="E397" s="39"/>
-      <c r="F397" s="39"/>
+        <v>667</v>
+      </c>
+      <c r="C397" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D397" s="38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E397" s="38"/>
+      <c r="F397" s="38" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C398" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D398" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E398" s="38"/>
-      <c r="F398" s="38" t="s">
-        <v>1140</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C398" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D398" s="39"/>
+      <c r="E398" s="39"/>
+      <c r="F398" s="39"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C399" s="38" t="s">
-        <v>600</v>
+        <v>669</v>
+      </c>
+      <c r="C399" s="41" t="s">
+        <v>566</v>
       </c>
       <c r="D399" s="38" t="s">
-        <v>1059</v>
+        <v>567</v>
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" ht="30">
       <c r="A400" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C400" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D400" s="39"/>
-      <c r="E400" s="39"/>
-      <c r="F400" s="39"/>
-    </row>
-    <row r="401" spans="1:6">
+        <v>670</v>
+      </c>
+      <c r="C400" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="D400" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E400" s="42"/>
+      <c r="F400" s="38" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="30">
       <c r="A401" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C401" s="41" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E401" s="38"/>
       <c r="F401" s="38" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30">
+    <row r="402" spans="1:6">
       <c r="A402" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C402" s="41" t="s">
-        <v>640</v>
+        <v>672</v>
+      </c>
+      <c r="C402" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E402" s="42"/>
+        <v>1062</v>
+      </c>
+      <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
         <v>1140</v>
       </c>
@@ -14996,13 +15014,13 @@
         <v>56</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="C403" s="41" t="s">
-        <v>607</v>
+        <v>673</v>
+      </c>
+      <c r="C403" s="38" t="s">
+        <v>611</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>573</v>
+        <v>1060</v>
       </c>
       <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
@@ -15013,178 +15031,178 @@
       <c r="A404" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B404" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C404" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="D404" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E404" s="38"/>
-      <c r="F404" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" ht="30">
+      <c r="B404" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C404" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D404" s="39"/>
+      <c r="E404" s="39"/>
+      <c r="F404" s="39"/>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C405" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D405" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E405" s="38"/>
-      <c r="F405" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
+        <v>674</v>
+      </c>
+      <c r="C405" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D405" s="39"/>
+      <c r="E405" s="39"/>
+      <c r="F405" s="39"/>
+    </row>
+    <row r="406" spans="1:6" ht="105">
       <c r="A406" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B406" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C406" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D406" s="39"/>
-      <c r="E406" s="39"/>
-      <c r="F406" s="39"/>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="B406" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C406" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="D406" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E406" s="6"/>
+      <c r="F406" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="30">
       <c r="A407" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="C407" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D407" s="39"/>
-      <c r="E407" s="39"/>
-      <c r="F407" s="39"/>
-    </row>
-    <row r="408" spans="1:6" ht="105">
+        <v>676</v>
+      </c>
+      <c r="C407" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="D407" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E407" s="38"/>
+      <c r="F407" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="30">
       <c r="A408" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C408" s="41" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D408" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E408" s="6"/>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30">
+    <row r="409" spans="1:6">
       <c r="A409" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="C409" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="D409" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E409" s="38"/>
-      <c r="F409" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" ht="30">
+        <v>679</v>
+      </c>
+      <c r="C409" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D409" s="39"/>
+      <c r="E409" s="39"/>
+      <c r="F409" s="39"/>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>678</v>
-      </c>
-      <c r="C410" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="D410" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E410" s="38"/>
-      <c r="F410" s="38" t="s">
-        <v>1143</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C410" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D410" s="39"/>
+      <c r="E410" s="39"/>
+      <c r="F410" s="39"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C411" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D411" s="39"/>
-      <c r="E411" s="39"/>
-      <c r="F411" s="39"/>
+        <v>681</v>
+      </c>
+      <c r="C411" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="D411" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E411" s="38"/>
+      <c r="F411" s="38" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="C412" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="D412" s="39"/>
-      <c r="E412" s="39"/>
-      <c r="F412" s="39"/>
+        <v>682</v>
+      </c>
+      <c r="C412" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="D412" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E412" s="38"/>
+      <c r="F412" s="38" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C413" s="38" t="s">
-        <v>621</v>
+        <v>684</v>
+      </c>
+      <c r="C413" s="41" t="s">
+        <v>685</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="E413" s="38"/>
       <c r="F413" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" ht="30">
       <c r="A414" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="C414" s="41" t="s">
-        <v>683</v>
+        <v>686</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>687</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
@@ -15196,99 +15214,95 @@
         <v>56</v>
       </c>
       <c r="B415" s="38" t="s">
-        <v>684</v>
-      </c>
-      <c r="C415" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="D415" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E415" s="38"/>
-      <c r="F415" s="38" t="s">
-        <v>1143</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C415" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="D415" s="39"/>
+      <c r="E415" s="39"/>
+      <c r="F415" s="39"/>
     </row>
     <row r="416" spans="1:6" ht="30">
       <c r="A416" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C416" s="38" t="s">
-        <v>687</v>
+        <v>1239</v>
       </c>
       <c r="D416" s="38" t="s">
-        <v>562</v>
+        <v>692</v>
       </c>
       <c r="E416" s="38"/>
       <c r="F416" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" ht="30">
       <c r="A417" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="C417" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="D417" s="39"/>
-      <c r="E417" s="39"/>
-      <c r="F417" s="39"/>
+        <v>693</v>
+      </c>
+      <c r="C417" s="38" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D417" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="E417" s="38"/>
+      <c r="F417" s="38" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="418" spans="1:6" ht="30">
       <c r="A418" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C418" s="38" t="s">
-        <v>1239</v>
+        <v>697</v>
       </c>
       <c r="D418" s="38" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="30">
+    <row r="419" spans="1:6">
       <c r="A419" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="C419" s="38" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D419" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="E419" s="38"/>
-      <c r="F419" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" ht="30">
+        <v>698</v>
+      </c>
+      <c r="C419" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D419" s="39"/>
+      <c r="E419" s="39"/>
+      <c r="F419" s="39"/>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="C420" s="38" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="C420" s="41" t="s">
+        <v>566</v>
       </c>
       <c r="D420" s="38" t="s">
-        <v>695</v>
+        <v>567</v>
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
@@ -15300,27 +15314,31 @@
         <v>56</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="C421" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D421" s="39"/>
-      <c r="E421" s="39"/>
-      <c r="F421" s="39"/>
-    </row>
-    <row r="422" spans="1:6">
+        <v>700</v>
+      </c>
+      <c r="C421" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="D421" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="E421" s="38"/>
+      <c r="F421" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="30">
       <c r="A422" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C422" s="41" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
@@ -15332,31 +15350,31 @@
         <v>56</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="C423" s="41" t="s">
-        <v>701</v>
+        <v>703</v>
+      </c>
+      <c r="C423" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30">
+    <row r="424" spans="1:6" ht="45">
       <c r="A424" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C424" s="41" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E424" s="38"/>
       <c r="F424" s="38" t="s">
@@ -15368,117 +15386,113 @@
         <v>56</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C425" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="D425" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E425" s="38"/>
-      <c r="F425" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" ht="45">
+        <v>706</v>
+      </c>
+      <c r="C425" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="D425" s="39"/>
+      <c r="E425" s="39"/>
+      <c r="F425" s="39"/>
+    </row>
+    <row r="426" spans="1:6" ht="60">
       <c r="A426" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C426" s="41" t="s">
-        <v>661</v>
+        <v>586</v>
       </c>
       <c r="D426" s="38" t="s">
-        <v>579</v>
+        <v>1260</v>
       </c>
       <c r="E426" s="38"/>
       <c r="F426" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" ht="30">
       <c r="A427" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C427" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="D427" s="39"/>
-      <c r="E427" s="39"/>
-      <c r="F427" s="39"/>
-    </row>
-    <row r="428" spans="1:6" ht="90">
+        <v>709</v>
+      </c>
+      <c r="C427" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="D427" s="38" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E427" s="38"/>
+      <c r="F427" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="30">
       <c r="A428" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C428" s="41" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="D428" s="38" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E428" s="38"/>
       <c r="F428" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="60">
+    <row r="429" spans="1:6">
       <c r="A429" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="C429" s="41" t="s">
-        <v>586</v>
-      </c>
-      <c r="D429" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="E429" s="38"/>
-      <c r="F429" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" ht="30">
+        <v>712</v>
+      </c>
+      <c r="C429" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D429" s="39"/>
+      <c r="E429" s="39"/>
+      <c r="F429" s="39"/>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C430" s="41" t="s">
-        <v>710</v>
+        <v>598</v>
       </c>
       <c r="D430" s="38" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E430" s="38"/>
       <c r="F430" s="38" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="30">
+    <row r="431" spans="1:6">
       <c r="A431" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="C431" s="41" t="s">
-        <v>663</v>
+        <v>714</v>
+      </c>
+      <c r="C431" s="38" t="s">
+        <v>600</v>
       </c>
       <c r="D431" s="38" t="s">
-        <v>594</v>
+        <v>1059</v>
       </c>
       <c r="E431" s="38"/>
       <c r="F431" s="38" t="s">
@@ -15490,27 +15504,27 @@
         <v>56</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C432" s="39" t="s">
-        <v>596</v>
+        <v>1069</v>
       </c>
       <c r="D432" s="39"/>
       <c r="E432" s="39"/>
       <c r="F432" s="39"/>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" ht="30">
       <c r="A433" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="C433" s="41" t="s">
-        <v>598</v>
+        <v>720</v>
+      </c>
+      <c r="C433" s="38" t="s">
+        <v>611</v>
       </c>
       <c r="D433" s="38" t="s">
-        <v>573</v>
+        <v>1060</v>
       </c>
       <c r="E433" s="38"/>
       <c r="F433" s="38" t="s">
@@ -15521,48 +15535,44 @@
       <c r="A434" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B434" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C434" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="D434" s="38" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E434" s="38"/>
-      <c r="F434" s="38" t="s">
-        <v>1143</v>
-      </c>
+      <c r="B434" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C434" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D434" s="39"/>
+      <c r="E434" s="39"/>
+      <c r="F434" s="39"/>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="C435" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D435" s="39"/>
-      <c r="E435" s="39"/>
-      <c r="F435" s="39"/>
-    </row>
-    <row r="436" spans="1:6" ht="30">
+        <v>721</v>
+      </c>
+      <c r="C435" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D435" s="38"/>
+      <c r="E435" s="41"/>
+      <c r="F435" s="38" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>720</v>
-      </c>
-      <c r="C436" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D436" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E436" s="38"/>
+        <v>722</v>
+      </c>
+      <c r="C436" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D436" s="38"/>
+      <c r="E436" s="41"/>
       <c r="F436" s="38" t="s">
         <v>1143</v>
       </c>
@@ -15571,41 +15581,41 @@
       <c r="A437" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B437" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C437" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D437" s="39"/>
-      <c r="E437" s="39"/>
-      <c r="F437" s="39"/>
+      <c r="B437" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="C437" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D437" s="38"/>
+      <c r="E437" s="41"/>
+      <c r="F437" s="38" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B438" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="C438" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D438" s="38"/>
-      <c r="E438" s="41"/>
-      <c r="F438" s="38" t="s">
-        <v>1143</v>
-      </c>
+      <c r="B438" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C438" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D438" s="39"/>
+      <c r="E438" s="37"/>
+      <c r="F438" s="39"/>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C439" s="41" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D439" s="38"/>
       <c r="E439" s="41"/>
@@ -15618,10 +15628,10 @@
         <v>56</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D440" s="38"/>
       <c r="E440" s="41"/>
@@ -15634,13 +15644,13 @@
         <v>56</v>
       </c>
       <c r="B441" s="38">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C441" s="37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D441" s="39"/>
-      <c r="E441" s="37"/>
+      <c r="E441" s="39"/>
       <c r="F441" s="39"/>
     </row>
     <row r="442" spans="1:6">
@@ -15648,109 +15658,109 @@
         <v>56</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="C442" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D442" s="38"/>
-      <c r="E442" s="41"/>
-      <c r="F442" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
+        <v>726</v>
+      </c>
+      <c r="C442" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D442" s="39"/>
+      <c r="E442" s="39"/>
+      <c r="F442" s="39"/>
+    </row>
+    <row r="443" spans="1:6" ht="105">
       <c r="A443" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C443" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D443" s="38"/>
-      <c r="E443" s="41"/>
+        <v>646</v>
+      </c>
+      <c r="D443" s="38">
+        <v>78.3</v>
+      </c>
+      <c r="E443" s="38"/>
       <c r="F443" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="30">
       <c r="A444" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B444" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C444" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D444" s="39"/>
-      <c r="E444" s="39"/>
-      <c r="F444" s="39"/>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="B444" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="C444" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="D444" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E444" s="38"/>
+      <c r="F444" s="38" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="30">
       <c r="A445" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="C445" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D445" s="39"/>
-      <c r="E445" s="39"/>
-      <c r="F445" s="39"/>
-    </row>
-    <row r="446" spans="1:6" ht="105">
+        <v>729</v>
+      </c>
+      <c r="C445" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="D445" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E445" s="38"/>
+      <c r="F445" s="38" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="C446" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="D446" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E446" s="38"/>
-      <c r="F446" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" ht="30">
+        <v>730</v>
+      </c>
+      <c r="C446" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D446" s="39"/>
+      <c r="E446" s="39"/>
+      <c r="F446" s="39"/>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="C447" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="D447" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E447" s="38"/>
-      <c r="F447" s="38" t="s">
-        <v>1087</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="C447" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D447" s="39"/>
+      <c r="E447" s="39"/>
+      <c r="F447" s="39"/>
     </row>
     <row r="448" spans="1:6" ht="30">
       <c r="A448" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C448" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="D448" s="38">
-        <v>78.099999999999994</v>
+        <v>733</v>
+      </c>
+      <c r="D448" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="E448" s="38"/>
       <c r="F448" s="38" t="s">
@@ -15762,41 +15772,49 @@
         <v>56</v>
       </c>
       <c r="B449" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="C449" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D449" s="39"/>
-      <c r="E449" s="39"/>
-      <c r="F449" s="39"/>
-    </row>
-    <row r="450" spans="1:6">
+        <v>734</v>
+      </c>
+      <c r="C449" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="D449" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="E449" s="38"/>
+      <c r="F449" s="38" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="30">
       <c r="A450" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>731</v>
-      </c>
-      <c r="C450" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="D450" s="39"/>
-      <c r="E450" s="39"/>
-      <c r="F450" s="39"/>
-    </row>
-    <row r="451" spans="1:6" ht="30">
+        <v>735</v>
+      </c>
+      <c r="C450" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="D450" s="38" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E450" s="38"/>
+      <c r="F450" s="38" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="45">
       <c r="A451" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="C451" s="41" t="s">
-        <v>733</v>
+        <v>737</v>
+      </c>
+      <c r="C451" s="38" t="s">
+        <v>738</v>
       </c>
       <c r="D451" s="38" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
@@ -15808,49 +15826,47 @@
         <v>56</v>
       </c>
       <c r="B452" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="C452" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="D452" s="38" t="s">
-        <v>556</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="C452" s="38" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D452" s="38"/>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="30">
+    <row r="453" spans="1:6" ht="60">
       <c r="A453" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>735</v>
+        <v>1077</v>
       </c>
       <c r="C453" s="38" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D453" s="38" t="s">
-        <v>1061</v>
+        <v>562</v>
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="45">
+    <row r="454" spans="1:6" ht="30">
       <c r="A454" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>737</v>
+        <v>1078</v>
       </c>
       <c r="C454" s="38" t="s">
-        <v>738</v>
+        <v>1075</v>
       </c>
       <c r="D454" s="38" t="s">
-        <v>594</v>
+        <v>695</v>
       </c>
       <c r="E454" s="38"/>
       <c r="F454" s="38" t="s">
@@ -15862,47 +15878,45 @@
         <v>56</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>739</v>
-      </c>
-      <c r="C455" s="38" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D455" s="38"/>
-      <c r="E455" s="38"/>
-      <c r="F455" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" ht="60">
+        <v>742</v>
+      </c>
+      <c r="C455" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D455" s="39"/>
+      <c r="E455" s="39"/>
+      <c r="F455" s="39"/>
+    </row>
+    <row r="456" spans="1:6">
       <c r="A456" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C456" s="38" t="s">
-        <v>740</v>
+        <v>743</v>
+      </c>
+      <c r="C456" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="D456" s="38" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="30">
+    <row r="457" spans="1:6">
       <c r="A457" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>1078</v>
+        <v>744</v>
       </c>
       <c r="C457" s="38" t="s">
-        <v>1075</v>
+        <v>600</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>695</v>
+        <v>1059</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
@@ -15914,10 +15928,10 @@
         <v>56</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C458" s="39" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D458" s="39"/>
       <c r="E458" s="39"/>
@@ -15928,63 +15942,67 @@
         <v>56</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C459" s="41" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" ht="30">
       <c r="A460" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C460" s="38" t="s">
-        <v>600</v>
+        <v>747</v>
+      </c>
+      <c r="C460" s="41" t="s">
+        <v>640</v>
       </c>
       <c r="D460" s="38" t="s">
-        <v>1059</v>
+        <v>570</v>
       </c>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" ht="30">
       <c r="A461" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C461" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D461" s="39"/>
-      <c r="E461" s="39"/>
-      <c r="F461" s="39"/>
+        <v>748</v>
+      </c>
+      <c r="C461" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="D461" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="E461" s="38"/>
+      <c r="F461" s="38" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="C462" s="41" t="s">
-        <v>566</v>
+        <v>749</v>
+      </c>
+      <c r="C462" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D462" s="38" t="s">
-        <v>567</v>
+        <v>1062</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
@@ -15996,70 +16014,16 @@
         <v>56</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>747</v>
-      </c>
-      <c r="C463" s="41" t="s">
-        <v>640</v>
+        <v>1259</v>
+      </c>
+      <c r="C463" s="38" t="s">
+        <v>611</v>
       </c>
       <c r="D463" s="38" t="s">
-        <v>570</v>
+        <v>1060</v>
       </c>
       <c r="E463" s="38"/>
       <c r="F463" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" ht="30">
-      <c r="A464" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B464" s="38" t="s">
-        <v>748</v>
-      </c>
-      <c r="C464" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="D464" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E464" s="38"/>
-      <c r="F464" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6">
-      <c r="A465" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B465" s="38" t="s">
-        <v>749</v>
-      </c>
-      <c r="C465" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="D465" s="38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E465" s="38"/>
-      <c r="F465" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" ht="30">
-      <c r="A466" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B466" s="38" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C466" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E466" s="38"/>
-      <c r="F466" s="38" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -19475,10 +19439,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21520,6 +21484,40 @@
       <c r="IU27" s="31"/>
       <c r="IV27" s="31"/>
     </row>
+    <row r="28" spans="1:256" ht="60">
+      <c r="A28" s="67" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="1:256" ht="30">
+      <c r="A29" s="53" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B14CA-B5B2-49E2-81FC-842A64F51060}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA333414-BFB0-4ADE-B530-4DD8195575B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="960" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="1265">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3074,9 +3074,6 @@
     <t>PKIX_Test_6</t>
   </si>
   <si>
-    <t>Confirm that id- fpki-common-authentication OID is asserted in certificate policies</t>
-  </si>
-  <si>
     <t>PKIX_Test_7</t>
   </si>
   <si>
@@ -3164,9 +3161,6 @@
     <t>Confirm id-PIV-cardAuth exists in extendedKeyUsage extension and does not assert any other OIDs</t>
   </si>
   <si>
-    <t>2.16.840.1.101.3.6.8</t>
-  </si>
-  <si>
     <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
   </si>
   <si>
@@ -3782,15 +3776,6 @@
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
   <si>
-    <t>Need to see if sunset date still applies</t>
-  </si>
-  <si>
-    <t>EKU KPID OID for id-PIV-ContentSigning</t>
-  </si>
-  <si>
-    <t>OIDs for piv-FASC-N, OID for entryUUID</t>
-  </si>
-  <si>
     <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
   </si>
   <si>
@@ -3798,12 +3783,6 @@
   </si>
   <si>
     <t>These policies would only work for directly-asserted OIDs.  PIV-I are normally mapped.  Use the Override feature to configure PCI OIDs.</t>
-  </si>
-  <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
-X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3:1.3.6.1.4.1.45606.3.1.4:1.3.6.1.4.1.45606.3.1.9:1.3.6.1.4.1.45606.3.1.10,
-CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
   </si>
   <si>
     <t>1.3.6.1.4.1.45606.3.1.22</t>
@@ -3829,6 +3808,28 @@
   </si>
   <si>
     <t>PKIX_Test_28</t>
+  </si>
+  <si>
+    <t>10.2.1.8</t>
+  </si>
+  <si>
+    <t>Verify Digest Algorithm in SignerInfo</t>
+  </si>
+  <si>
+    <t>OOID for entryUUID</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>EKU KPID OID for id-fpki-pivi-content-signing</t>
+  </si>
+  <si>
+    <t>Confirm that one of appropriate directly-asserted certificate policy OID is found in certificate policies in specified certificate</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;1.3.6.1.4.1.45606.3.1.3,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3,
+X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.21,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
   </si>
 </sst>
 </file>
@@ -8357,10 +8358,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:XFD426"/>
+    <sheetView topLeftCell="A364" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C372" sqref="C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8389,10 +8390,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8400,7 +8401,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8428,10 +8429,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8452,7 +8453,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8470,7 +8471,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8488,7 +8489,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8506,7 +8507,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8524,7 +8525,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8542,7 +8543,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45">
@@ -8560,7 +8561,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
@@ -8578,7 +8579,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8596,7 +8597,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8614,7 +8615,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8632,7 +8633,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8654,10 +8655,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8678,7 +8679,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -8696,7 +8697,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8714,7 +8715,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
@@ -8732,7 +8733,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8750,7 +8751,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8761,14 +8762,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="32" customFormat="1" ht="30">
@@ -8779,14 +8780,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E24" s="63"/>
       <c r="F24" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="32" customFormat="1" ht="30">
@@ -8804,7 +8805,7 @@
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="32" customFormat="1">
@@ -8815,14 +8816,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D26" s="64" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1">
@@ -8833,14 +8834,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E27" s="63"/>
       <c r="F27" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1">
@@ -8851,14 +8852,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="32" customFormat="1">
@@ -8866,33 +8867,33 @@
         <v>56</v>
       </c>
       <c r="B29" s="63" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D29" s="63" t="s">
         <v>1095</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>1097</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="32" customFormat="1">
       <c r="A30" s="63"/>
       <c r="B30" s="63" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D30" s="63" t="s">
         <v>1098</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>1100</v>
       </c>
       <c r="E30" s="63"/>
       <c r="F30" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="30">
@@ -8900,17 +8901,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D31" s="64" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="32" customFormat="1" ht="45">
@@ -8918,7 +8919,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>111</v>
@@ -8928,7 +8929,7 @@
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="32" customFormat="1">
@@ -8936,17 +8937,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="63" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D33" s="63" t="s">
         <v>1104</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>1106</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="32" customFormat="1">
@@ -8954,17 +8955,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="63" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>1107</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>1109</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="32" customFormat="1">
@@ -8972,17 +8973,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="63" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D35" s="63" t="s">
         <v>1110</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>1112</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="32" customFormat="1">
@@ -8990,17 +8991,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D36" s="63" t="s">
         <v>1113</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>1115</v>
       </c>
       <c r="E36" s="63"/>
       <c r="F36" s="63" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="32" customFormat="1" ht="30">
@@ -9008,7 +9009,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>114</v>
@@ -9018,7 +9019,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9036,7 +9037,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9054,7 +9055,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="45">
@@ -9072,7 +9073,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9090,7 +9091,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9098,7 +9099,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>129</v>
@@ -9108,7 +9109,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9130,10 +9131,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9154,7 +9155,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30">
@@ -9172,7 +9173,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9190,7 +9191,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30">
@@ -9208,7 +9209,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
@@ -9222,11 +9223,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9244,7 +9245,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30">
@@ -9262,7 +9263,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30">
@@ -9280,7 +9281,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30">
@@ -9298,7 +9299,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9306,7 +9307,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>129</v>
@@ -9316,7 +9317,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9338,10 +9339,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9362,7 +9363,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="30">
@@ -9380,7 +9381,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9398,7 +9399,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30">
@@ -9416,7 +9417,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9434,7 +9435,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30">
@@ -9452,7 +9453,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="30">
@@ -9470,7 +9471,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30">
@@ -9488,7 +9489,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9506,7 +9507,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9528,10 +9529,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9552,7 +9553,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30">
@@ -9570,7 +9571,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9588,7 +9589,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="30">
@@ -9606,7 +9607,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30">
@@ -9624,7 +9625,7 @@
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30">
@@ -9642,7 +9643,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="32" customFormat="1">
@@ -9653,14 +9654,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D74" s="63" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E74" s="63"/>
       <c r="F74" s="63" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="32" customFormat="1">
@@ -9671,14 +9672,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D75" s="63" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E75" s="63"/>
       <c r="F75" s="63" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="32" customFormat="1" ht="30">
@@ -9696,7 +9697,7 @@
       </c>
       <c r="E76" s="64"/>
       <c r="F76" s="64" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30">
@@ -9704,7 +9705,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>176</v>
@@ -9714,7 +9715,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30">
@@ -9722,7 +9723,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>179</v>
@@ -9732,7 +9733,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9740,7 +9741,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>129</v>
@@ -9750,7 +9751,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9758,7 +9759,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9772,10 +9773,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9796,7 +9797,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
@@ -9814,7 +9815,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9832,7 +9833,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30">
@@ -9850,7 +9851,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30">
@@ -9868,7 +9869,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30">
@@ -9886,7 +9887,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -9904,7 +9905,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9912,7 +9913,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>129</v>
@@ -9922,7 +9923,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9944,10 +9945,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -9968,7 +9969,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
@@ -9986,7 +9987,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10004,7 +10005,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
@@ -10022,7 +10023,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -10036,11 +10037,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10058,7 +10059,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="30">
@@ -10076,7 +10077,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="30">
@@ -10094,7 +10095,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="30">
@@ -10112,7 +10113,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10120,7 +10121,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>129</v>
@@ -10130,7 +10131,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10152,10 +10153,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30">
@@ -10194,7 +10195,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10212,7 +10213,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30">
@@ -10230,7 +10231,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30">
@@ -10244,11 +10245,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10266,7 +10267,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30">
@@ -10284,7 +10285,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="30">
@@ -10302,7 +10303,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="30">
@@ -10320,7 +10321,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10328,7 +10329,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>129</v>
@@ -10338,7 +10339,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10360,10 +10361,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10384,7 +10385,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30">
@@ -10402,7 +10403,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10420,7 +10421,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="30">
@@ -10438,7 +10439,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30">
@@ -10452,11 +10453,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10474,7 +10475,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30">
@@ -10492,7 +10493,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="30">
@@ -10510,7 +10511,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="30">
@@ -10528,7 +10529,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10536,7 +10537,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>129</v>
@@ -10546,7 +10547,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10554,7 +10555,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10568,10 +10569,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10592,7 +10593,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30">
@@ -10610,7 +10611,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10628,7 +10629,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30">
@@ -10646,7 +10647,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -10664,7 +10665,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -10675,14 +10676,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="32" customFormat="1">
@@ -10693,14 +10694,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="63" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D134" s="63" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E134" s="63"/>
       <c r="F134" s="63" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="30">
@@ -10718,7 +10719,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="45">
@@ -10726,7 +10727,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>245</v>
@@ -10736,7 +10737,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -10758,10 +10759,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -10782,7 +10783,7 @@
       </c>
       <c r="E139" s="38"/>
       <c r="F139" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30">
@@ -10800,7 +10801,7 @@
       </c>
       <c r="E140" s="38"/>
       <c r="F140" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -10818,7 +10819,7 @@
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="30">
@@ -10836,7 +10837,7 @@
       </c>
       <c r="E142" s="38"/>
       <c r="F142" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -10847,14 +10848,14 @@
         <v>255</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>257</v>
       </c>
       <c r="E143" s="38"/>
       <c r="F143" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -10865,14 +10866,14 @@
         <v>258</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>254</v>
       </c>
       <c r="E144" s="38"/>
       <c r="F144" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="32" customFormat="1" ht="30">
@@ -10883,14 +10884,14 @@
         <v>260</v>
       </c>
       <c r="C145" s="63" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D145" s="63" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E145" s="63"/>
       <c r="F145" s="63" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30">
@@ -10898,17 +10899,17 @@
         <v>56</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>259</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E146" s="38"/>
       <c r="F146" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="90">
@@ -10916,7 +10917,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>261</v>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30">
@@ -10934,17 +10935,17 @@
         <v>127</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -10952,7 +10953,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>265</v>
@@ -10962,7 +10963,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11004,7 +11005,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
@@ -11020,7 +11021,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
@@ -11036,7 +11037,7 @@
         <v>269</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
@@ -11135,7 +11136,7 @@
         <v>273</v>
       </c>
       <c r="C161" s="55" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D161" s="55">
         <v>76.2</v>
@@ -11167,10 +11168,10 @@
         <v>277</v>
       </c>
       <c r="C163" s="55" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D163" s="55" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
@@ -11180,7 +11181,7 @@
         <v>56</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>281</v>
@@ -11213,7 +11214,7 @@
         <v>280</v>
       </c>
       <c r="C166" s="55" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D166" s="55" t="s">
         <v>837</v>
@@ -11261,7 +11262,7 @@
         <v>286</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D169" s="38" t="s">
         <v>918</v>
@@ -11543,7 +11544,7 @@
         <v>313</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D187" s="38" t="s">
         <v>918</v>
@@ -11838,7 +11839,7 @@
         <v>56</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C206" s="38" t="s">
         <v>289</v>
@@ -12093,10 +12094,10 @@
         <v>364</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E222" s="38"/>
       <c r="F222" s="38"/>
@@ -12112,7 +12113,7 @@
         <v>367</v>
       </c>
       <c r="D223" s="38" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E223" s="38"/>
       <c r="F223" s="38"/>
@@ -12125,7 +12126,7 @@
         <v>368</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D224" s="38">
         <v>76.16</v>
@@ -12518,7 +12519,7 @@
         <v>56</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C250" s="36" t="s">
         <v>35</v>
@@ -12675,7 +12676,7 @@
         <v>434</v>
       </c>
       <c r="C260" s="41" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D260" s="38" t="s">
         <v>436</v>
@@ -12688,13 +12689,13 @@
         <v>56</v>
       </c>
       <c r="B261" s="38" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C261" s="41" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D261" s="38" t="s">
         <v>1165</v>
-      </c>
-      <c r="C261" s="41" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D261" s="38" t="s">
-        <v>1167</v>
       </c>
       <c r="E261" s="38"/>
       <c r="F261" s="38"/>
@@ -12752,7 +12753,7 @@
         <v>56</v>
       </c>
       <c r="B265" s="38" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C265" s="41" t="s">
         <v>447</v>
@@ -12919,98 +12920,96 @@
       <c r="E275" s="38"/>
       <c r="F275" s="38"/>
     </row>
-    <row r="276" spans="1:6" ht="30">
+    <row r="276" spans="1:6">
       <c r="A276" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B276" s="38" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C276" s="39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D276" s="39"/>
+      <c r="E276" s="39"/>
+      <c r="F276" s="39"/>
+    </row>
+    <row r="277" spans="1:6" ht="30">
+      <c r="A277" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B277" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="C276" s="41" t="s">
+      <c r="C277" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="D276" s="38" t="s">
+      <c r="D277" s="38" t="s">
         <v>467</v>
-      </c>
-      <c r="E276" s="38"/>
-      <c r="F276" s="38"/>
-    </row>
-    <row r="277" spans="1:6" ht="45">
-      <c r="A277" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B277" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="C277" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="D277" s="38" t="s">
-        <v>1167</v>
       </c>
       <c r="E277" s="38"/>
       <c r="F277" s="38"/>
     </row>
-    <row r="278" spans="1:6" ht="60">
+    <row r="278" spans="1:6" ht="45">
       <c r="A278" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B278" s="38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C278" s="41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D278" s="38" t="s">
-        <v>472</v>
+        <v>1165</v>
       </c>
       <c r="E278" s="38"/>
       <c r="F278" s="38"/>
     </row>
-    <row r="279" spans="1:6" ht="75">
+    <row r="279" spans="1:6" ht="60">
       <c r="A279" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C279" s="38" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="C279" s="41" t="s">
+        <v>471</v>
       </c>
       <c r="D279" s="38" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E279" s="38"/>
       <c r="F279" s="38"/>
     </row>
-    <row r="280" spans="1:6" ht="90">
+    <row r="280" spans="1:6" ht="75">
       <c r="A280" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B280" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="C280" s="41" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="C280" s="38" t="s">
+        <v>474</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
     </row>
-    <row r="281" spans="1:6" ht="105">
+    <row r="281" spans="1:6" ht="90">
       <c r="A281" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B281" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="C281" s="38" t="s">
-        <v>478</v>
+        <v>475</v>
+      </c>
+      <c r="C281" s="41" t="s">
+        <v>476</v>
       </c>
       <c r="D281" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E281" s="38"/>
       <c r="F281" s="38"/>
@@ -13020,153 +13019,157 @@
         <v>56</v>
       </c>
       <c r="B282" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C282" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="D282" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E282" s="38"/>
+      <c r="F282" s="38"/>
+    </row>
+    <row r="283" spans="1:6" ht="105">
+      <c r="A283" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B283" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="C282" s="41" t="s">
+      <c r="C283" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="D282" s="38" t="s">
+      <c r="D283" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="E282" s="38"/>
-      <c r="F282" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="75">
-      <c r="A283" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B283" s="38" t="s">
+      <c r="E283" s="38"/>
+      <c r="F283" s="38" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="75">
+      <c r="A284" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B284" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="C283" s="41" t="s">
+      <c r="C284" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="D283" s="38"/>
-      <c r="E283" s="38"/>
-      <c r="F283" s="38"/>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B284" s="38">
-        <v>10.3</v>
-      </c>
-      <c r="C284" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D284" s="39"/>
-      <c r="E284" s="39"/>
-      <c r="F284" s="39"/>
+      <c r="D284" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="E284" s="38"/>
+      <c r="F284" s="38" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B285" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="C285" s="39" t="s">
-        <v>36</v>
+      <c r="B285" s="38">
+        <v>10.3</v>
+      </c>
+      <c r="C285" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D285" s="39"/>
       <c r="E285" s="39"/>
       <c r="F285" s="39"/>
     </row>
-    <row r="286" spans="1:6" ht="75">
+    <row r="286" spans="1:6">
       <c r="A286" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B286" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C286" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286" s="39"/>
+      <c r="E286" s="39"/>
+      <c r="F286" s="39"/>
+    </row>
+    <row r="287" spans="1:6" ht="75">
+      <c r="A287" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B287" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="C286" s="41" t="s">
+      <c r="C287" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D287" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="E286" s="38"/>
-      <c r="F286" s="38"/>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B287" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="C287" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="D287" s="38" t="s">
-        <v>418</v>
       </c>
       <c r="E287" s="38"/>
       <c r="F287" s="38"/>
     </row>
-    <row r="288" spans="1:6" ht="30">
+    <row r="288" spans="1:6">
       <c r="A288" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B288" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C288" s="41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D288" s="38" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E288" s="38"/>
       <c r="F288" s="38"/>
     </row>
-    <row r="289" spans="1:6" ht="45">
+    <row r="289" spans="1:6" ht="30">
       <c r="A289" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B289" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C289" s="41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D289" s="38" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E289" s="38"/>
       <c r="F289" s="38"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" ht="45">
       <c r="A290" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B290" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C290" s="41" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D290" s="38" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E290" s="38"/>
       <c r="F290" s="38"/>
     </row>
-    <row r="291" spans="1:6" ht="30">
+    <row r="291" spans="1:6">
       <c r="A291" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B291" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C291" s="41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D291" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E291" s="38"/>
       <c r="F291" s="38"/>
@@ -13176,125 +13179,125 @@
         <v>56</v>
       </c>
       <c r="B292" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C292" s="41" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D292" s="38" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E292" s="38"/>
       <c r="F292" s="38"/>
     </row>
-    <row r="293" spans="1:6" ht="45">
+    <row r="293" spans="1:6" ht="30">
       <c r="A293" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C293" s="41" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E293" s="38"/>
       <c r="F293" s="38"/>
     </row>
-    <row r="294" spans="1:6" ht="30">
+    <row r="294" spans="1:6" ht="45">
       <c r="A294" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C294" s="41" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D294" s="38" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E294" s="38"/>
       <c r="F294" s="38"/>
     </row>
-    <row r="295" spans="1:6" ht="45">
+    <row r="295" spans="1:6" ht="30">
       <c r="A295" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B295" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C295" s="41" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D295" s="38" t="s">
-        <v>1167</v>
+        <v>467</v>
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="38"/>
     </row>
-    <row r="296" spans="1:6" ht="60">
+    <row r="296" spans="1:6" ht="45">
       <c r="A296" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B296" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C296" s="41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D296" s="38" t="s">
-        <v>472</v>
+        <v>1165</v>
       </c>
       <c r="E296" s="38"/>
       <c r="F296" s="38"/>
     </row>
-    <row r="297" spans="1:6" ht="75">
+    <row r="297" spans="1:6" ht="60">
       <c r="A297" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B297" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="C297" s="38" t="s">
-        <v>474</v>
+        <v>496</v>
+      </c>
+      <c r="C297" s="41" t="s">
+        <v>471</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E297" s="38"/>
       <c r="F297" s="38"/>
     </row>
-    <row r="298" spans="1:6" ht="90">
+    <row r="298" spans="1:6" ht="75">
       <c r="A298" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B298" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="C298" s="41" t="s">
-        <v>476</v>
+        <v>497</v>
+      </c>
+      <c r="C298" s="38" t="s">
+        <v>474</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
     </row>
-    <row r="299" spans="1:6" ht="105">
+    <row r="299" spans="1:6" ht="90">
       <c r="A299" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>499</v>
-      </c>
-      <c r="C299" s="38" t="s">
-        <v>478</v>
+        <v>498</v>
+      </c>
+      <c r="C299" s="41" t="s">
+        <v>476</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E299" s="38"/>
       <c r="F299" s="38"/>
@@ -13304,327 +13307,327 @@
         <v>56</v>
       </c>
       <c r="B300" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="C300" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E300" s="38"/>
+      <c r="F300" s="38"/>
+    </row>
+    <row r="301" spans="1:6" ht="105">
+      <c r="A301" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B301" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="C300" s="41" t="s">
+      <c r="C301" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="D300" s="38" t="s">
+      <c r="D301" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="E300" s="38"/>
-      <c r="F300" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="75">
-      <c r="A301" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B301" s="38" t="s">
+      <c r="E301" s="38"/>
+      <c r="F301" s="38" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="75">
+      <c r="A302" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B302" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="C301" s="41" t="s">
+      <c r="C302" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="D301" s="38" t="s">
+      <c r="D302" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="E301" s="38"/>
-      <c r="F301" s="55" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B302" s="38">
-        <v>10.4</v>
-      </c>
-      <c r="C302" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D302" s="39"/>
-      <c r="E302" s="39"/>
-      <c r="F302" s="39"/>
+      <c r="E302" s="38"/>
+      <c r="F302" s="55" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B303" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="C303" s="39" t="s">
-        <v>38</v>
+      <c r="B303" s="38">
+        <v>10.4</v>
+      </c>
+      <c r="C303" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="D303" s="39"/>
       <c r="E303" s="39"/>
       <c r="F303" s="39"/>
     </row>
-    <row r="304" spans="1:6" ht="45">
+    <row r="304" spans="1:6">
       <c r="A304" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B304" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C304" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D304" s="39"/>
+      <c r="E304" s="39"/>
+      <c r="F304" s="39"/>
+    </row>
+    <row r="305" spans="1:6" ht="45">
+      <c r="A305" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B305" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="C304" s="41" t="s">
+      <c r="C305" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="D304" s="38" t="s">
+      <c r="D305" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="E304" s="38"/>
-      <c r="F304" s="38"/>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B305" s="38" t="s">
+      <c r="E305" s="38"/>
+      <c r="F305" s="38"/>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B306" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="C305" s="39" t="s">
+      <c r="C306" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D305" s="39"/>
-      <c r="E305" s="39"/>
-      <c r="F305" s="39"/>
-    </row>
-    <row r="306" spans="1:6" ht="45">
-      <c r="A306" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B306" s="38" t="s">
+      <c r="D306" s="39"/>
+      <c r="E306" s="39"/>
+      <c r="F306" s="39"/>
+    </row>
+    <row r="307" spans="1:6" ht="45">
+      <c r="A307" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B307" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="C306" s="38" t="s">
+      <c r="C307" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="D306" s="38" t="s">
+      <c r="D307" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="E306" s="42"/>
-      <c r="F306" s="42"/>
-    </row>
-    <row r="307" spans="1:6" ht="30">
-      <c r="A307" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B307" s="38" t="s">
+      <c r="E307" s="42"/>
+      <c r="F307" s="42"/>
+    </row>
+    <row r="308" spans="1:6" ht="30">
+      <c r="A308" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B308" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="C307" s="41" t="s">
+      <c r="C308" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="D307" s="38" t="s">
+      <c r="D308" s="38" t="s">
         <v>511</v>
-      </c>
-      <c r="E307" s="38"/>
-      <c r="F307" s="38"/>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B308" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="C308" s="41" t="s">
-        <v>513</v>
-      </c>
-      <c r="D308" s="38" t="s">
-        <v>514</v>
       </c>
       <c r="E308" s="38"/>
       <c r="F308" s="38"/>
     </row>
-    <row r="309" spans="1:6" ht="60">
+    <row r="309" spans="1:6">
       <c r="A309" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B309" s="38" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C309" s="41" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D309" s="38" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E309" s="38"/>
       <c r="F309" s="38"/>
     </row>
-    <row r="310" spans="1:6" ht="30">
+    <row r="310" spans="1:6" ht="60">
       <c r="A310" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B310" s="38" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C310" s="41" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D310" s="38" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E310" s="38"/>
       <c r="F310" s="38"/>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" ht="30">
       <c r="A311" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B311" s="38" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C311" s="41" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D311" s="38" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="E311" s="38"/>
       <c r="F311" s="38"/>
     </row>
-    <row r="312" spans="1:6" ht="105">
+    <row r="312" spans="1:6">
       <c r="A312" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C312" s="41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D312" s="38" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="E312" s="38"/>
       <c r="F312" s="38"/>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" ht="105">
       <c r="A313" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B313" s="38">
-        <v>10.5</v>
-      </c>
-      <c r="C313" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D313" s="39"/>
-      <c r="E313" s="39"/>
-      <c r="F313" s="39"/>
+      <c r="B313" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C313" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="D313" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="E313" s="38"/>
+      <c r="F313" s="38"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B314" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="C314" s="44" t="s">
-        <v>36</v>
+      <c r="B314" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="C314" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="D314" s="39"/>
       <c r="E314" s="39"/>
       <c r="F314" s="39"/>
     </row>
-    <row r="315" spans="1:6" ht="75">
+    <row r="315" spans="1:6">
       <c r="A315" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B315" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C315" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D315" s="39"/>
+      <c r="E315" s="39"/>
+      <c r="F315" s="39"/>
+    </row>
+    <row r="316" spans="1:6" ht="75">
+      <c r="A316" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B316" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="C315" s="38" t="s">
+      <c r="C316" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="D315" s="38" t="s">
+      <c r="D316" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="E315" s="38"/>
-      <c r="F315" s="38"/>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="A316" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B316" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="C316" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="D316" s="38" t="s">
-        <v>418</v>
       </c>
       <c r="E316" s="38"/>
       <c r="F316" s="38"/>
     </row>
-    <row r="317" spans="1:6" ht="30">
+    <row r="317" spans="1:6">
       <c r="A317" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B317" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C317" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D317" s="38" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E317" s="38"/>
       <c r="F317" s="38"/>
     </row>
-    <row r="318" spans="1:6" ht="45">
+    <row r="318" spans="1:6" ht="30">
       <c r="A318" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B318" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C318" s="38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D318" s="38" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E318" s="38"/>
       <c r="F318" s="38"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" ht="45">
       <c r="A319" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C319" s="38" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D319" s="38" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E319" s="38"/>
       <c r="F319" s="38"/>
     </row>
-    <row r="320" spans="1:6" ht="30">
+    <row r="320" spans="1:6">
       <c r="A320" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B320" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C320" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D320" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E320" s="38"/>
       <c r="F320" s="38"/>
@@ -13634,125 +13637,125 @@
         <v>56</v>
       </c>
       <c r="B321" s="38" t="s">
-        <v>1169</v>
+        <v>532</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D321" s="38" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E321" s="38"/>
       <c r="F321" s="38"/>
     </row>
-    <row r="322" spans="1:6" ht="45">
+    <row r="322" spans="1:6" ht="30">
       <c r="A322" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B322" s="38" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C322" s="38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D322" s="38" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E322" s="38"/>
       <c r="F322" s="38"/>
     </row>
-    <row r="323" spans="1:6" ht="30">
+    <row r="323" spans="1:6" ht="45">
       <c r="A323" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>537</v>
+        <v>1168</v>
       </c>
       <c r="C323" s="38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D323" s="38" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E323" s="38"/>
       <c r="F323" s="38"/>
     </row>
-    <row r="324" spans="1:6" ht="45">
+    <row r="324" spans="1:6" ht="30">
       <c r="A324" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C324" s="38" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D324" s="38" t="s">
-        <v>1167</v>
+        <v>467</v>
       </c>
       <c r="E324" s="38"/>
       <c r="F324" s="38"/>
     </row>
-    <row r="325" spans="1:6" ht="60">
+    <row r="325" spans="1:6" ht="45">
       <c r="A325" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C325" s="38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>472</v>
+        <v>1165</v>
       </c>
       <c r="E325" s="38"/>
       <c r="F325" s="38"/>
     </row>
-    <row r="326" spans="1:6" ht="75">
+    <row r="326" spans="1:6" ht="60">
       <c r="A326" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B326" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C326" s="38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D326" s="38" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E326" s="38"/>
       <c r="F326" s="38"/>
     </row>
-    <row r="327" spans="1:6" ht="90">
+    <row r="327" spans="1:6" ht="75">
       <c r="A327" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C327" s="38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
     </row>
-    <row r="328" spans="1:6" ht="105">
+    <row r="328" spans="1:6" ht="90">
       <c r="A328" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C328" s="38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D328" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E328" s="38"/>
       <c r="F328" s="38"/>
@@ -13762,60 +13765,62 @@
         <v>56</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>1171</v>
+        <v>542</v>
       </c>
       <c r="C329" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="D329" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E329" s="38"/>
+      <c r="F329" s="38"/>
+    </row>
+    <row r="330" spans="1:6" ht="105">
+      <c r="A330" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B330" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C330" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="D329" s="38" t="s">
+      <c r="D330" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="E329" s="38"/>
-      <c r="F329" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" ht="75">
-      <c r="A330" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B330" s="38" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C330" s="38" t="s">
+      <c r="E330" s="38"/>
+      <c r="F330" s="38" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="75">
+      <c r="A331" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B331" s="38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C331" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="D330" s="38" t="s">
+      <c r="D331" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="E330" s="38"/>
-      <c r="F330" s="55" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B331" s="35" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C331" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D331" s="39"/>
-      <c r="E331" s="39"/>
-      <c r="F331" s="39"/>
+      <c r="E331" s="38"/>
+      <c r="F331" s="55" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B332" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C332" s="43" t="s">
-        <v>41</v>
+      <c r="B332" s="35" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C332" s="45" t="s">
+        <v>40</v>
       </c>
       <c r="D332" s="39"/>
       <c r="E332" s="39"/>
@@ -13825,50 +13830,46 @@
       <c r="A333" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B333" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="C333" s="44" t="s">
-        <v>42</v>
+      <c r="B333" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C333" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="D333" s="39"/>
       <c r="E333" s="39"/>
       <c r="F333" s="39"/>
     </row>
-    <row r="334" spans="1:6" ht="120">
+    <row r="334" spans="1:6">
       <c r="A334" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B334" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C334" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D334" s="39"/>
+      <c r="E334" s="39"/>
+      <c r="F334" s="39"/>
+    </row>
+    <row r="335" spans="1:6" ht="120">
+      <c r="A335" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B335" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C334" s="41" t="s">
+      <c r="C335" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="D334" s="38">
+      <c r="D335" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="30">
-      <c r="A335" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B335" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="C335" s="41" t="s">
-        <v>547</v>
-      </c>
-      <c r="D335" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E335" s="38"/>
       <c r="F335" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="30">
@@ -13876,67 +13877,67 @@
         <v>56</v>
       </c>
       <c r="B336" s="38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C336" s="41" t="s">
-        <v>1174</v>
+        <v>547</v>
       </c>
       <c r="D336" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E336" s="38"/>
       <c r="F336" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="30">
       <c r="A337" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B337" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C337" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D337" s="39"/>
-      <c r="E337" s="39"/>
-      <c r="F337" s="39"/>
+        <v>548</v>
+      </c>
+      <c r="C337" s="41" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D337" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E337" s="38"/>
+      <c r="F337" s="38" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B338" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="C338" s="41" t="s">
-        <v>552</v>
-      </c>
-      <c r="D338" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="E338" s="38"/>
-      <c r="F338" s="38" t="s">
-        <v>1119</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C338" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D338" s="39"/>
+      <c r="E338" s="39"/>
+      <c r="F338" s="39"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C339" s="41" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D339" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13944,239 +13945,239 @@
         <v>56</v>
       </c>
       <c r="B340" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="C340" s="38" t="s">
-        <v>558</v>
+        <v>554</v>
+      </c>
+      <c r="C340" s="41" t="s">
+        <v>555</v>
       </c>
       <c r="D340" s="38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E340" s="38"/>
       <c r="F340" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="45">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="C341" s="41" t="s">
-        <v>561</v>
+        <v>557</v>
+      </c>
+      <c r="C341" s="38" t="s">
+        <v>558</v>
       </c>
       <c r="D341" s="38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="45">
       <c r="A342" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="C342" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="D342" s="39"/>
-      <c r="E342" s="39"/>
-      <c r="F342" s="39"/>
+        <v>560</v>
+      </c>
+      <c r="C342" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="D342" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E342" s="38"/>
+      <c r="F342" s="38" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B343" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="C343" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="D343" s="39"/>
+      <c r="E343" s="39"/>
+      <c r="F343" s="39"/>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B344" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="C343" s="41" t="s">
+      <c r="C344" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="D343" s="38" t="s">
+      <c r="D344" s="38" t="s">
         <v>567</v>
-      </c>
-      <c r="E343" s="38"/>
-      <c r="F343" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="30">
-      <c r="A344" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B344" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="C344" s="41" t="s">
-        <v>569</v>
-      </c>
-      <c r="D344" s="38" t="s">
-        <v>570</v>
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="30">
       <c r="A345" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C345" s="41" t="s">
-        <v>1063</v>
+        <v>569</v>
       </c>
       <c r="D345" s="38" t="s">
-        <v>1062</v>
+        <v>570</v>
       </c>
       <c r="E345" s="38"/>
       <c r="F345" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="45">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C346" s="41" t="s">
-        <v>578</v>
+        <v>1061</v>
       </c>
       <c r="D346" s="38" t="s">
-        <v>579</v>
+        <v>1060</v>
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="45">
       <c r="A347" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B347" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="C347" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="D347" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="E347" s="38"/>
+      <c r="F347" s="38" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B348" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="C347" s="39" t="s">
+      <c r="C348" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="D347" s="39"/>
-      <c r="E347" s="39"/>
-      <c r="F347" s="39"/>
-    </row>
-    <row r="348" spans="1:6" ht="60">
-      <c r="A348" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B348" s="38" t="s">
+      <c r="D348" s="39"/>
+      <c r="E348" s="39"/>
+      <c r="F348" s="39"/>
+    </row>
+    <row r="349" spans="1:6" ht="60">
+      <c r="A349" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B349" s="38" t="s">
         <v>585</v>
       </c>
-      <c r="C348" s="41" t="s">
+      <c r="C349" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D348" s="38" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E348" s="38"/>
-      <c r="F348" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" ht="45">
-      <c r="A349" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B349" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C349" s="41" t="s">
-        <v>590</v>
-      </c>
       <c r="D349" s="38" t="s">
-        <v>591</v>
+        <v>1254</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="30">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="45">
       <c r="A350" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C350" s="41" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="30">
       <c r="A351" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="C351" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D351" s="39"/>
-      <c r="E351" s="39"/>
-      <c r="F351" s="39"/>
+        <v>592</v>
+      </c>
+      <c r="C351" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="D351" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="E351" s="38"/>
+      <c r="F351" s="38" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="C352" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D352" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E352" s="38"/>
-      <c r="F352" s="38" t="s">
-        <v>1119</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C352" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D352" s="39"/>
+      <c r="E352" s="39"/>
+      <c r="F352" s="39"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="C353" s="38" t="s">
-        <v>600</v>
+        <v>597</v>
+      </c>
+      <c r="C353" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="D353" s="38" t="s">
-        <v>1059</v>
+        <v>573</v>
       </c>
       <c r="E353" s="38"/>
       <c r="F353" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -14184,49 +14185,49 @@
         <v>56</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C354" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D354" s="39"/>
-      <c r="E354" s="39"/>
-      <c r="F354" s="39"/>
+        <v>599</v>
+      </c>
+      <c r="C354" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D354" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E354" s="38"/>
+      <c r="F354" s="38" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C355" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D355" s="39"/>
+      <c r="E355" s="39"/>
+      <c r="F355" s="39"/>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B356" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="C355" s="41" t="s">
+      <c r="C356" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="D355" s="38" t="s">
+      <c r="D356" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="E355" s="38"/>
-      <c r="F355" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="30">
-      <c r="A356" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B356" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="C356" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="D356" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E356" s="42"/>
+      <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="30">
@@ -14234,117 +14235,117 @@
         <v>56</v>
       </c>
       <c r="B357" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="C357" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D357" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E357" s="42"/>
+      <c r="F357" s="38" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="30">
+      <c r="A358" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B358" s="38" t="s">
         <v>606</v>
       </c>
-      <c r="C357" s="41" t="s">
+      <c r="C358" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="D357" s="38" t="s">
+      <c r="D358" s="38" t="s">
         <v>573</v>
-      </c>
-      <c r="E357" s="38"/>
-      <c r="F357" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
-      <c r="A358" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B358" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C358" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D358" s="38" t="s">
-        <v>1062</v>
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C359" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
+      </c>
+      <c r="C359" s="41" t="s">
+        <v>609</v>
       </c>
       <c r="D359" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="30">
       <c r="A360" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B360" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C360" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D360" s="39"/>
-      <c r="E360" s="39"/>
-      <c r="F360" s="39"/>
+      <c r="B360" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="C360" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="D360" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E360" s="38"/>
+      <c r="F360" s="38" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B361" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C361" s="39" t="s">
-        <v>42</v>
+      <c r="B361" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C361" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D361" s="39"/>
       <c r="E361" s="39"/>
       <c r="F361" s="39"/>
     </row>
-    <row r="362" spans="1:6" ht="120">
+    <row r="362" spans="1:6">
       <c r="A362" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C362" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D362" s="39"/>
+      <c r="E362" s="39"/>
+      <c r="F362" s="39"/>
+    </row>
+    <row r="363" spans="1:6" ht="120">
+      <c r="A363" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B363" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="C362" s="41" t="s">
+      <c r="C363" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="D362" s="38" t="s">
+      <c r="D363" s="38" t="s">
         <v>998</v>
-      </c>
-      <c r="E362" s="38"/>
-      <c r="F362" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" ht="30">
-      <c r="A363" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B363" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="C363" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="D363" s="38" t="s">
-        <v>993</v>
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="30">
@@ -14352,42 +14353,46 @@
         <v>56</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C364" s="41" t="s">
-        <v>549</v>
-      </c>
-      <c r="D364" s="38">
-        <v>78.099999999999994</v>
+        <v>615</v>
+      </c>
+      <c r="D364" s="38" t="s">
+        <v>993</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="30">
       <c r="A365" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="C365" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D365" s="39"/>
-      <c r="E365" s="39"/>
-      <c r="F365" s="39"/>
+        <v>616</v>
+      </c>
+      <c r="C365" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="D365" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E365" s="38"/>
+      <c r="F365" s="38" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C366" s="39" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D366" s="39"/>
       <c r="E366" s="39"/>
@@ -14398,53 +14403,49 @@
         <v>56</v>
       </c>
       <c r="B367" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="C367" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D367" s="39"/>
+      <c r="E367" s="39"/>
+      <c r="F367" s="39"/>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B368" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="C367" s="38" t="s">
+      <c r="C368" s="38" t="s">
         <v>621</v>
       </c>
-      <c r="D367" s="38" t="s">
+      <c r="D368" s="38" t="s">
         <v>622</v>
-      </c>
-      <c r="E367" s="38"/>
-      <c r="F367" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" ht="30">
-      <c r="A368" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B368" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="C368" s="41" t="s">
-        <v>624</v>
-      </c>
-      <c r="D368" s="38" t="s">
-        <v>625</v>
       </c>
       <c r="E368" s="38"/>
       <c r="F368" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" ht="45">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="30">
       <c r="A369" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C369" s="41" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="E369" s="38"/>
       <c r="F369" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="45">
@@ -14452,103 +14453,103 @@
         <v>56</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E370" s="38"/>
       <c r="F370" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="30">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="45">
       <c r="A371" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E371" s="38"/>
       <c r="F371" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" ht="45">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="30">
       <c r="A372" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D372" s="38" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="E372" s="38"/>
       <c r="F372" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="45">
       <c r="A373" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C373" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D373" s="39"/>
-      <c r="E373" s="39"/>
-      <c r="F373" s="39"/>
+        <v>632</v>
+      </c>
+      <c r="C373" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="D373" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E373" s="38"/>
+      <c r="F373" s="38" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C374" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D374" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E374" s="38"/>
-      <c r="F374" s="38" t="s">
-        <v>1137</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="C374" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D374" s="39"/>
+      <c r="E374" s="39"/>
+      <c r="F374" s="39"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C375" s="38" t="s">
-        <v>600</v>
+        <v>635</v>
+      </c>
+      <c r="C375" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="D375" s="38" t="s">
-        <v>1059</v>
+        <v>573</v>
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14556,49 +14557,49 @@
         <v>56</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C376" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D376" s="39"/>
-      <c r="E376" s="39"/>
-      <c r="F376" s="39"/>
+        <v>636</v>
+      </c>
+      <c r="C376" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D376" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E376" s="38"/>
+      <c r="F376" s="38" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="C377" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D377" s="39"/>
+      <c r="E377" s="39"/>
+      <c r="F377" s="39"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B378" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="C377" s="41" t="s">
+      <c r="C378" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="D377" s="38" t="s">
+      <c r="D378" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="E377" s="38"/>
-      <c r="F377" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="30">
-      <c r="A378" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B378" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="C378" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="D378" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E378" s="42"/>
+      <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="30">
@@ -14606,117 +14607,117 @@
         <v>56</v>
       </c>
       <c r="B379" s="38" t="s">
+        <v>639</v>
+      </c>
+      <c r="C379" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="D379" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E379" s="42"/>
+      <c r="F379" s="38" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="30">
+      <c r="A380" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B380" s="38" t="s">
         <v>641</v>
       </c>
-      <c r="C379" s="41" t="s">
+      <c r="C380" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="D379" s="38" t="s">
+      <c r="D380" s="38" t="s">
         <v>573</v>
-      </c>
-      <c r="E379" s="38"/>
-      <c r="F379" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B380" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C380" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D380" s="38" t="s">
-        <v>1062</v>
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="30">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="C381" s="38" t="s">
-        <v>611</v>
+        <v>642</v>
+      </c>
+      <c r="C381" s="41" t="s">
+        <v>609</v>
       </c>
       <c r="D381" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="30">
       <c r="A382" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B382" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C382" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D382" s="39"/>
-      <c r="E382" s="39"/>
-      <c r="F382" s="39"/>
+      <c r="B382" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="C382" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="D382" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E382" s="38"/>
+      <c r="F382" s="38" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B383" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C383" s="39" t="s">
-        <v>42</v>
+      <c r="B383" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C383" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="D383" s="39"/>
       <c r="E383" s="39"/>
       <c r="F383" s="39"/>
     </row>
-    <row r="384" spans="1:6" ht="105">
+    <row r="384" spans="1:6">
       <c r="A384" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C384" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D384" s="39"/>
+      <c r="E384" s="39"/>
+      <c r="F384" s="39"/>
+    </row>
+    <row r="385" spans="1:6" ht="105">
+      <c r="A385" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B385" s="38" t="s">
         <v>645</v>
       </c>
-      <c r="C384" s="41" t="s">
+      <c r="C385" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="D384" s="38">
+      <c r="D385" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E384" s="38"/>
-      <c r="F384" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" ht="30">
-      <c r="A385" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B385" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C385" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="D385" s="38" t="s">
-        <v>993</v>
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="30">
@@ -14724,203 +14725,203 @@
         <v>56</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C386" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="D386" s="38">
-        <v>78.099999999999994</v>
+        <v>647</v>
+      </c>
+      <c r="C386" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>993</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="30">
       <c r="A387" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="C387" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D387" s="39"/>
-      <c r="E387" s="39"/>
-      <c r="F387" s="39"/>
+        <v>649</v>
+      </c>
+      <c r="C387" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="D387" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E387" s="38"/>
+      <c r="F387" s="38" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C388" s="39" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D388" s="39"/>
       <c r="E388" s="39"/>
       <c r="F388" s="39"/>
     </row>
-    <row r="389" spans="1:6" ht="45">
+    <row r="389" spans="1:6">
       <c r="A389" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="C389" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="D389" s="38" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E389" s="38"/>
-      <c r="F389" s="38" t="s">
-        <v>1140</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C389" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D389" s="39"/>
+      <c r="E389" s="39"/>
+      <c r="F389" s="39"/>
     </row>
     <row r="390" spans="1:6" ht="45">
       <c r="A390" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C390" s="41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>657</v>
+        <v>1030</v>
       </c>
       <c r="E390" s="38"/>
       <c r="F390" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="45">
       <c r="A391" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C391" s="41" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>556</v>
+        <v>657</v>
       </c>
       <c r="E391" s="38"/>
       <c r="F391" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" ht="45">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D392" s="38" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="E392" s="38"/>
       <c r="F392" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" ht="30">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="45">
       <c r="A393" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B393" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D393" s="38" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="E393" s="38"/>
       <c r="F393" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" ht="45">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="30">
       <c r="A394" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B394" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C394" s="41" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="D394" s="38" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="E394" s="38"/>
       <c r="F394" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="45">
       <c r="A395" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C395" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D395" s="39"/>
-      <c r="E395" s="39"/>
-      <c r="F395" s="39"/>
+        <v>664</v>
+      </c>
+      <c r="C395" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="D395" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E395" s="38"/>
+      <c r="F395" s="38" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C396" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D396" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E396" s="38"/>
-      <c r="F396" s="38" t="s">
-        <v>1140</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C396" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D396" s="39"/>
+      <c r="E396" s="39"/>
+      <c r="F396" s="39"/>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="C397" s="38" t="s">
-        <v>600</v>
+        <v>666</v>
+      </c>
+      <c r="C397" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="D397" s="38" t="s">
-        <v>1059</v>
+        <v>573</v>
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14928,49 +14929,49 @@
         <v>56</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C398" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D398" s="39"/>
-      <c r="E398" s="39"/>
-      <c r="F398" s="39"/>
+        <v>667</v>
+      </c>
+      <c r="C398" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D398" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E398" s="38"/>
+      <c r="F398" s="38" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C399" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D399" s="39"/>
+      <c r="E399" s="39"/>
+      <c r="F399" s="39"/>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B400" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="C399" s="41" t="s">
+      <c r="C400" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="D399" s="38" t="s">
+      <c r="D400" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="E399" s="38"/>
-      <c r="F399" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" ht="30">
-      <c r="A400" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B400" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C400" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="D400" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E400" s="42"/>
+      <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="30">
@@ -14978,117 +14979,117 @@
         <v>56</v>
       </c>
       <c r="B401" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C401" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="D401" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E401" s="42"/>
+      <c r="F401" s="38" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="30">
+      <c r="A402" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B402" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="C401" s="41" t="s">
+      <c r="C402" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="D401" s="38" t="s">
+      <c r="D402" s="38" t="s">
         <v>573</v>
-      </c>
-      <c r="E401" s="38"/>
-      <c r="F401" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
-      <c r="A402" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B402" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C402" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="D402" s="38" t="s">
-        <v>1062</v>
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" ht="30">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C403" s="38" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D403" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="30">
       <c r="A404" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B404" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C404" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D404" s="39"/>
-      <c r="E404" s="39"/>
-      <c r="F404" s="39"/>
+      <c r="B404" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="C404" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="D404" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E404" s="38"/>
+      <c r="F404" s="38" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B405" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="C405" s="39" t="s">
-        <v>42</v>
+      <c r="B405" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C405" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="D405" s="39"/>
       <c r="E405" s="39"/>
       <c r="F405" s="39"/>
     </row>
-    <row r="406" spans="1:6" ht="105">
+    <row r="406" spans="1:6">
       <c r="A406" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C406" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D406" s="39"/>
+      <c r="E406" s="39"/>
+      <c r="F406" s="39"/>
+    </row>
+    <row r="407" spans="1:6" ht="105">
+      <c r="A407" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B407" s="38" t="s">
         <v>675</v>
       </c>
-      <c r="C406" s="41" t="s">
+      <c r="C407" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="D406" s="38">
+      <c r="D407" s="38">
         <v>78.3</v>
       </c>
-      <c r="E406" s="6"/>
-      <c r="F406" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" ht="30">
-      <c r="A407" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B407" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="C407" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="D407" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E407" s="38"/>
+      <c r="E407" s="6"/>
       <c r="F407" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="30">
@@ -15096,42 +15097,46 @@
         <v>56</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C408" s="41" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="D408" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="30">
       <c r="A409" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C409" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D409" s="39"/>
-      <c r="E409" s="39"/>
-      <c r="F409" s="39"/>
+        <v>678</v>
+      </c>
+      <c r="C409" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="D409" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E409" s="38"/>
+      <c r="F409" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C410" s="39" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D410" s="39"/>
       <c r="E410" s="39"/>
@@ -15142,35 +15147,31 @@
         <v>56</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="C411" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="D411" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="E411" s="38"/>
-      <c r="F411" s="38" t="s">
-        <v>1143</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C411" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D411" s="39"/>
+      <c r="E411" s="39"/>
+      <c r="F411" s="39"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="C412" s="41" t="s">
-        <v>683</v>
+        <v>681</v>
+      </c>
+      <c r="C412" s="38" t="s">
+        <v>621</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="E412" s="38"/>
       <c r="F412" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -15178,85 +15179,85 @@
         <v>56</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C413" s="41" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E413" s="38"/>
       <c r="F413" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" ht="30">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>686</v>
-      </c>
-      <c r="C414" s="38" t="s">
-        <v>687</v>
+        <v>684</v>
+      </c>
+      <c r="C414" s="41" t="s">
+        <v>685</v>
       </c>
       <c r="D414" s="38" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E414" s="38"/>
       <c r="F414" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="30">
       <c r="A415" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B415" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="C415" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="D415" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="E415" s="38"/>
+      <c r="F415" s="38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B416" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="C415" s="39" t="s">
+      <c r="C416" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="D415" s="39"/>
-      <c r="E415" s="39"/>
-      <c r="F415" s="39"/>
-    </row>
-    <row r="416" spans="1:6" ht="30">
-      <c r="A416" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B416" s="38" t="s">
-        <v>690</v>
-      </c>
-      <c r="C416" s="38" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D416" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="E416" s="38"/>
-      <c r="F416" s="38" t="s">
-        <v>1143</v>
-      </c>
+      <c r="D416" s="39"/>
+      <c r="E416" s="39"/>
+      <c r="F416" s="39"/>
     </row>
     <row r="417" spans="1:6" ht="30">
       <c r="A417" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C417" s="38" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D417" s="38" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="30">
@@ -15264,171 +15265,171 @@
         <v>56</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C418" s="38" t="s">
-        <v>697</v>
+        <v>1238</v>
       </c>
       <c r="D418" s="38" t="s">
         <v>695</v>
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="30">
       <c r="A419" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="C419" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D419" s="39"/>
-      <c r="E419" s="39"/>
-      <c r="F419" s="39"/>
+        <v>696</v>
+      </c>
+      <c r="C419" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="D419" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="E419" s="38"/>
+      <c r="F419" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="C420" s="41" t="s">
-        <v>566</v>
-      </c>
-      <c r="D420" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="E420" s="38"/>
-      <c r="F420" s="38" t="s">
-        <v>1143</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C420" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D420" s="39"/>
+      <c r="E420" s="39"/>
+      <c r="F420" s="39"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C421" s="41" t="s">
-        <v>701</v>
+        <v>566</v>
       </c>
       <c r="D421" s="38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E421" s="38"/>
       <c r="F421" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" ht="30">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C422" s="41" t="s">
-        <v>607</v>
+        <v>701</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="30">
       <c r="A423" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C423" s="38" t="s">
-        <v>609</v>
+        <v>702</v>
+      </c>
+      <c r="C423" s="41" t="s">
+        <v>607</v>
       </c>
       <c r="D423" s="38" t="s">
         <v>573</v>
       </c>
       <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" ht="45">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>705</v>
-      </c>
-      <c r="C424" s="41" t="s">
-        <v>661</v>
+        <v>703</v>
+      </c>
+      <c r="C424" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E424" s="38"/>
       <c r="F424" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="45">
       <c r="A425" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B425" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C425" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="D425" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="E425" s="38"/>
+      <c r="F425" s="38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B426" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="C425" s="39" t="s">
+      <c r="C426" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="D425" s="39"/>
-      <c r="E425" s="39"/>
-      <c r="F425" s="39"/>
-    </row>
-    <row r="426" spans="1:6" ht="60">
-      <c r="A426" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B426" s="38" t="s">
+      <c r="D426" s="39"/>
+      <c r="E426" s="39"/>
+      <c r="F426" s="39"/>
+    </row>
+    <row r="427" spans="1:6" ht="60">
+      <c r="A427" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B427" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="C426" s="41" t="s">
+      <c r="C427" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D426" s="38" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E426" s="38"/>
-      <c r="F426" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" ht="30">
-      <c r="A427" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B427" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="C427" s="41" t="s">
-        <v>710</v>
-      </c>
       <c r="D427" s="38" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="E427" s="38"/>
       <c r="F427" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="30">
@@ -15436,67 +15437,67 @@
         <v>56</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C428" s="41" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="D428" s="38" t="s">
-        <v>594</v>
+        <v>1256</v>
       </c>
       <c r="E428" s="38"/>
       <c r="F428" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="30">
       <c r="A429" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>712</v>
-      </c>
-      <c r="C429" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D429" s="39"/>
-      <c r="E429" s="39"/>
-      <c r="F429" s="39"/>
+        <v>711</v>
+      </c>
+      <c r="C429" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="D429" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="E429" s="38"/>
+      <c r="F429" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="C430" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D430" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E430" s="38"/>
-      <c r="F430" s="38" t="s">
-        <v>1143</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C430" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D430" s="39"/>
+      <c r="E430" s="39"/>
+      <c r="F430" s="39"/>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C431" s="38" t="s">
-        <v>600</v>
+        <v>713</v>
+      </c>
+      <c r="C431" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="D431" s="38" t="s">
-        <v>1059</v>
+        <v>573</v>
       </c>
       <c r="E431" s="38"/>
       <c r="F431" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15504,77 +15505,79 @@
         <v>56</v>
       </c>
       <c r="B432" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C432" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D432" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E432" s="38"/>
+      <c r="F432" s="38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B433" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="C432" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D432" s="39"/>
-      <c r="E432" s="39"/>
-      <c r="F432" s="39"/>
-    </row>
-    <row r="433" spans="1:6" ht="30">
-      <c r="A433" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B433" s="38" t="s">
+      <c r="C433" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D433" s="39"/>
+      <c r="E433" s="39"/>
+      <c r="F433" s="39"/>
+    </row>
+    <row r="434" spans="1:6" ht="30">
+      <c r="A434" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B434" s="38" t="s">
         <v>720</v>
       </c>
-      <c r="C433" s="38" t="s">
+      <c r="C434" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="D433" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E433" s="38"/>
-      <c r="F433" s="38" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6">
-      <c r="A434" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B434" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C434" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D434" s="39"/>
-      <c r="E434" s="39"/>
-      <c r="F434" s="39"/>
+      <c r="D434" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E434" s="38"/>
+      <c r="F434" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B435" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="C435" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D435" s="38"/>
-      <c r="E435" s="41"/>
-      <c r="F435" s="38" t="s">
-        <v>1143</v>
-      </c>
+      <c r="B435" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C435" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D435" s="39"/>
+      <c r="E435" s="39"/>
+      <c r="F435" s="39"/>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C436" s="41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D436" s="38"/>
       <c r="E436" s="41"/>
       <c r="F436" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -15582,125 +15585,123 @@
         <v>56</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C437" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D437" s="38"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B438" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C438" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D438" s="39"/>
-      <c r="E438" s="37"/>
-      <c r="F438" s="39"/>
+      <c r="B438" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="C438" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D438" s="38"/>
+      <c r="E438" s="41"/>
+      <c r="F438" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B439" s="38" t="s">
-        <v>724</v>
-      </c>
-      <c r="C439" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D439" s="38"/>
-      <c r="E439" s="41"/>
-      <c r="F439" s="38" t="s">
-        <v>1143</v>
-      </c>
+      <c r="B439" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C439" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D439" s="39"/>
+      <c r="E439" s="37"/>
+      <c r="F439" s="39"/>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D440" s="38"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B441" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C441" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D441" s="39"/>
-      <c r="E441" s="39"/>
-      <c r="F441" s="39"/>
+      <c r="B441" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="C441" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D441" s="38"/>
+      <c r="E441" s="41"/>
+      <c r="F441" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B442" s="38" t="s">
-        <v>726</v>
-      </c>
-      <c r="C442" s="39" t="s">
-        <v>42</v>
+      <c r="B442" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C442" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D442" s="39"/>
       <c r="E442" s="39"/>
       <c r="F442" s="39"/>
     </row>
-    <row r="443" spans="1:6" ht="105">
+    <row r="443" spans="1:6">
       <c r="A443" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="C443" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D443" s="39"/>
+      <c r="E443" s="39"/>
+      <c r="F443" s="39"/>
+    </row>
+    <row r="444" spans="1:6" ht="105">
+      <c r="A444" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B444" s="38" t="s">
         <v>727</v>
       </c>
-      <c r="C443" s="41" t="s">
+      <c r="C444" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="D443" s="38">
+      <c r="D444" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E443" s="38"/>
-      <c r="F443" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" ht="30">
-      <c r="A444" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B444" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="C444" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="D444" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E444" s="38"/>
       <c r="F444" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="30">
@@ -15708,219 +15709,219 @@
         <v>56</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C445" s="41" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="D445" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E445" s="38"/>
       <c r="F445" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="30">
       <c r="A446" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="C446" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D446" s="39"/>
-      <c r="E446" s="39"/>
-      <c r="F446" s="39"/>
+        <v>729</v>
+      </c>
+      <c r="C446" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="D446" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E446" s="38"/>
+      <c r="F446" s="38" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="447" spans="1:6">
       <c r="A447" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C447" s="39" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D447" s="39"/>
       <c r="E447" s="39"/>
       <c r="F447" s="39"/>
     </row>
-    <row r="448" spans="1:6" ht="30">
+    <row r="448" spans="1:6">
       <c r="A448" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="38" t="s">
+        <v>731</v>
+      </c>
+      <c r="C448" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D448" s="39"/>
+      <c r="E448" s="39"/>
+      <c r="F448" s="39"/>
+    </row>
+    <row r="449" spans="1:6" ht="30">
+      <c r="A449" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B449" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="C448" s="41" t="s">
+      <c r="C449" s="41" t="s">
         <v>733</v>
       </c>
-      <c r="D448" s="38" t="s">
+      <c r="D449" s="38" t="s">
         <v>553</v>
-      </c>
-      <c r="E448" s="38"/>
-      <c r="F448" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
-      <c r="A449" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B449" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="C449" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="D449" s="38" t="s">
-        <v>556</v>
       </c>
       <c r="E449" s="38"/>
       <c r="F449" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" ht="30">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>735</v>
-      </c>
-      <c r="C450" s="38" t="s">
-        <v>736</v>
+        <v>734</v>
+      </c>
+      <c r="C450" s="41" t="s">
+        <v>685</v>
       </c>
       <c r="D450" s="38" t="s">
-        <v>1061</v>
+        <v>556</v>
       </c>
       <c r="E450" s="38"/>
       <c r="F450" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" ht="45">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="30">
       <c r="A451" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="38" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C451" s="38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D451" s="38" t="s">
-        <v>594</v>
+        <v>1059</v>
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="45">
       <c r="A452" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="38" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C452" s="38" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D452" s="38"/>
+        <v>738</v>
+      </c>
+      <c r="D452" s="38" t="s">
+        <v>594</v>
+      </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" ht="60">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
       <c r="A453" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>1077</v>
+        <v>739</v>
       </c>
       <c r="C453" s="38" t="s">
-        <v>740</v>
-      </c>
-      <c r="D453" s="38" t="s">
-        <v>562</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="D453" s="38"/>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="30">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="60">
       <c r="A454" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C454" s="38" t="s">
-        <v>1075</v>
+        <v>740</v>
       </c>
       <c r="D454" s="38" t="s">
-        <v>695</v>
+        <v>562</v>
       </c>
       <c r="E454" s="38"/>
       <c r="F454" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="30">
       <c r="A455" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="C455" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D455" s="39"/>
-      <c r="E455" s="39"/>
-      <c r="F455" s="39"/>
+        <v>1076</v>
+      </c>
+      <c r="C455" s="38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D455" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="E455" s="38"/>
+      <c r="F455" s="38" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C456" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D456" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="E456" s="38"/>
-      <c r="F456" s="38" t="s">
-        <v>1087</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C456" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="D456" s="39"/>
+      <c r="E456" s="39"/>
+      <c r="F456" s="39"/>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C457" s="38" t="s">
-        <v>600</v>
+        <v>743</v>
+      </c>
+      <c r="C457" s="41" t="s">
+        <v>598</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>1059</v>
+        <v>573</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -15928,49 +15929,49 @@
         <v>56</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C458" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D458" s="39"/>
-      <c r="E458" s="39"/>
-      <c r="F458" s="39"/>
+        <v>744</v>
+      </c>
+      <c r="C458" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D458" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E458" s="38"/>
+      <c r="F458" s="38" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B459" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="C459" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D459" s="39"/>
+      <c r="E459" s="39"/>
+      <c r="F459" s="39"/>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B460" s="38" t="s">
         <v>746</v>
       </c>
-      <c r="C459" s="41" t="s">
+      <c r="C460" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="D459" s="38" t="s">
+      <c r="D460" s="38" t="s">
         <v>567</v>
-      </c>
-      <c r="E459" s="38"/>
-      <c r="F459" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" ht="30">
-      <c r="A460" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B460" s="38" t="s">
-        <v>747</v>
-      </c>
-      <c r="C460" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="D460" s="38" t="s">
-        <v>570</v>
       </c>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="30">
@@ -15978,53 +15979,71 @@
         <v>56</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C461" s="41" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="30">
       <c r="A462" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>749</v>
-      </c>
-      <c r="C462" s="38" t="s">
-        <v>609</v>
+        <v>748</v>
+      </c>
+      <c r="C462" s="41" t="s">
+        <v>607</v>
       </c>
       <c r="D462" s="38" t="s">
-        <v>1062</v>
+        <v>573</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" ht="30">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>1259</v>
+        <v>749</v>
       </c>
       <c r="C463" s="38" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D463" s="38" t="s">
         <v>1060</v>
       </c>
       <c r="E463" s="38"/>
       <c r="F463" s="38" t="s">
-        <v>1087</v>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="30">
+      <c r="A464" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B464" s="38" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C464" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="D464" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E464" s="38"/>
+      <c r="F464" s="38" t="s">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -16081,7 +16100,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>758</v>
@@ -16100,7 +16119,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>760</v>
@@ -16119,7 +16138,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>761</v>
@@ -16138,7 +16157,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>762</v>
@@ -16157,7 +16176,7 @@
         <v>765</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>766</v>
@@ -16523,7 +16542,7 @@
         <v>120</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>759</v>
@@ -16936,7 +16955,7 @@
         <v>266</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>823</v>
@@ -16955,13 +16974,13 @@
         <v>257</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>824</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -16974,13 +16993,13 @@
         <v>254</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>825</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -16993,7 +17012,7 @@
         <v>262</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>826</v>
@@ -17009,16 +17028,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="50" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E43" s="50"/>
       <c r="F43" s="50" t="s">
@@ -17028,16 +17047,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="50" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E44" s="50"/>
       <c r="F44" s="50" t="s">
@@ -17047,16 +17066,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="50" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="50" t="s">
@@ -17066,16 +17085,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="50" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E46" s="50"/>
       <c r="F46" s="50" t="s">
@@ -17085,16 +17104,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="50" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="50" t="s">
@@ -17104,16 +17123,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="50" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B48" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E48" s="50"/>
       <c r="F48" s="50" t="s">
@@ -17123,16 +17142,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="50" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B49" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="50" t="s">
@@ -17142,16 +17161,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="50" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B50" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="50" t="s">
@@ -17161,16 +17180,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="50" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B51" s="50" t="s">
         <v>782</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="50" t="s">
@@ -17180,16 +17199,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="50" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>808</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="50" t="s">
@@ -17199,16 +17218,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="50" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>808</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E53" s="50"/>
       <c r="F53" s="50" t="s">
@@ -17218,16 +17237,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="50" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B54" s="50" t="s">
         <v>816</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="50" t="s">
@@ -17237,16 +17256,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="50" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="50" t="s">
@@ -17586,7 +17605,7 @@
         <v>832</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -17824,16 +17843,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>829</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -17843,16 +17862,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>829</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
@@ -17871,7 +17890,7 @@
         <v>863</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -18450,7 +18469,7 @@
         <v>950</v>
       </c>
       <c r="D49" s="56" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -18707,16 +18726,16 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="49" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>829</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -18733,7 +18752,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -18777,7 +18798,7 @@
         <v>415</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>951</v>
@@ -18796,7 +18817,7 @@
         <v>418</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>953</v>
@@ -18815,7 +18836,7 @@
         <v>421</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>955</v>
@@ -18834,7 +18855,7 @@
         <v>436</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>957</v>
@@ -18853,7 +18874,7 @@
         <v>424</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>959</v>
@@ -18872,7 +18893,7 @@
         <v>427</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>961</v>
@@ -18891,7 +18912,7 @@
         <v>430</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>963</v>
@@ -18910,7 +18931,7 @@
         <v>433</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>965</v>
@@ -18929,7 +18950,7 @@
         <v>439</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>967</v>
@@ -18948,7 +18969,7 @@
         <v>969</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>970</v>
@@ -18967,7 +18988,7 @@
         <v>442</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>972</v>
@@ -18986,7 +19007,7 @@
         <v>445</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>974</v>
@@ -18998,16 +19019,14 @@
       <c r="F13" s="49" t="s">
         <v>759</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1249</v>
-      </c>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
       <c r="A14" s="49" t="s">
         <v>448</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>976</v>
@@ -19026,7 +19045,7 @@
         <v>481</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>978</v>
@@ -19035,13 +19054,13 @@
         <v>979</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>1043</v>
+        <v>1261</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>759</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -19049,7 +19068,7 @@
         <v>472</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>980</v>
@@ -19068,7 +19087,7 @@
         <v>484</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>982</v>
@@ -19077,13 +19096,13 @@
         <v>983</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>759</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>1251</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -19091,7 +19110,7 @@
         <v>511</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>984</v>
@@ -19110,7 +19129,7 @@
         <v>514</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>985</v>
@@ -19129,7 +19148,7 @@
         <v>517</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>986</v>
@@ -19148,7 +19167,7 @@
         <v>520</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>988</v>
@@ -19167,7 +19186,7 @@
         <v>525</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>990</v>
@@ -19186,7 +19205,7 @@
         <v>467</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>992</v>
@@ -19200,16 +19219,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="59" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>1203</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="D24" s="59" t="s">
         <v>1204</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>1206</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="59"/>
@@ -19217,16 +19236,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="59" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -19234,16 +19253,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="59" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D26" s="59" t="s">
         <v>1209</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>1211</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -19251,16 +19270,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="59" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D27" s="59" t="s">
         <v>1212</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>1214</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -19268,16 +19287,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="59" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D28" s="59" t="s">
         <v>1215</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>1217</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="59"/>
@@ -19285,16 +19304,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>1218</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>1220</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
@@ -19302,16 +19321,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="59" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D30" s="59" t="s">
         <v>1221</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>1223</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="59"/>
@@ -19381,7 +19400,7 @@
         <v>995</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="49" t="s">
@@ -19400,7 +19419,7 @@
         <v>997</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="6" t="s">
@@ -19419,7 +19438,7 @@
         <v>999</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="6" t="s">
@@ -19441,8 +19460,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19826,7 +19845,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="315">
+    <row r="7" spans="1:256" ht="173.25">
       <c r="A7" s="6" t="s">
         <v>562</v>
       </c>
@@ -19837,16 +19856,16 @@
         <v>1012</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1013</v>
+        <v>1263</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5">
@@ -19857,10 +19876,10 @@
         <v>1001</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>1014</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1015</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="6" t="s">
@@ -19876,10 +19895,10 @@
         <v>1001</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1017</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="6" t="s">
@@ -19895,10 +19914,10 @@
         <v>1001</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1018</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1019</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="6" t="s">
@@ -19914,10 +19933,10 @@
         <v>1001</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>1020</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1021</v>
       </c>
       <c r="E11" s="52"/>
       <c r="F11" s="6" t="s">
@@ -19933,7 +19952,7 @@
         <v>1001</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>578</v>
@@ -19952,19 +19971,19 @@
         <v>1001</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1024</v>
-      </c>
       <c r="E13" s="52" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -19975,17 +19994,17 @@
         <v>1001</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1025</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1026</v>
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -19996,10 +20015,10 @@
         <v>1001</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1027</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1028</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="6" t="s">
@@ -20015,10 +20034,10 @@
         <v>1001</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1029</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1030</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="6" t="s">
@@ -20028,16 +20047,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1033</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="6" t="s">
@@ -20053,10 +20072,10 @@
         <v>1001</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1034</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1035</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="6" t="s">
@@ -20066,25 +20085,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>1038</v>
-      </c>
       <c r="E19" s="54" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -20095,10 +20114,10 @@
         <v>1001</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1039</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1040</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="6" t="s">
@@ -20114,53 +20133,53 @@
         <v>1001</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>1042</v>
-      </c>
       <c r="E21" s="49" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>778</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="32" customFormat="1" ht="31.5">
       <c r="A23" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>605</v>
@@ -20420,13 +20439,13 @@
     </row>
     <row r="24" spans="1:256" s="32" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>609</v>
@@ -20686,19 +20705,19 @@
     </row>
     <row r="25" spans="1:256" s="32" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>600</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -20954,13 +20973,13 @@
     </row>
     <row r="26" spans="1:256" s="32" customFormat="1" ht="31.5">
       <c r="A26" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>611</v>
@@ -21220,13 +21239,13 @@
     </row>
     <row r="27" spans="1:256" s="32" customFormat="1">
       <c r="A27" s="53" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>736</v>
@@ -21486,13 +21505,13 @@
     </row>
     <row r="28" spans="1:256" ht="60">
       <c r="A28" s="67" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>1001</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>586</v>
@@ -21503,13 +21522,13 @@
     </row>
     <row r="29" spans="1:256" ht="30">
       <c r="A29" s="53" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>1001</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>588</v>
@@ -21820,40 +21839,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="48" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="48" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1233</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1235</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>778</v>
@@ -21862,19 +21881,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1238</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>778</v>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA333414-BFB0-4ADE-B530-4DD8195575B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84C685-94C3-45CF-91BB-89F64FBC91B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="960" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1650" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -3999,7 +3999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4042,17 +4042,6 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
@@ -4069,7 +4058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4227,16 +4216,13 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4267,12 +4253,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8389,7 +8369,7 @@
       <c r="D1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>1252</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -8773,234 +8753,234 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="32" customFormat="1" ht="30">
-      <c r="A24" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>1087</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="62" t="s">
         <v>1088</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63" t="s">
+      <c r="E24" s="62"/>
+      <c r="F24" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="32" customFormat="1" ht="30">
-      <c r="A25" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="32" customFormat="1">
-      <c r="A26" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="63" t="s">
         <v>1089</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64" t="s">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1">
-      <c r="A27" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>1089</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="62" t="s">
         <v>1090</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63" t="s">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1">
-      <c r="A28" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>1091</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="62" t="s">
         <v>1092</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63" t="s">
+      <c r="E28" s="62"/>
+      <c r="F28" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="32" customFormat="1">
-      <c r="A29" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="62" t="s">
         <v>1093</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="62" t="s">
         <v>1095</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63" t="s">
+      <c r="E29" s="62"/>
+      <c r="F29" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="32" customFormat="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62" t="s">
         <v>1096</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>1097</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="62" t="s">
         <v>1098</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63" t="s">
+      <c r="E30" s="62"/>
+      <c r="F30" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" ht="30">
-      <c r="A31" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="63" t="s">
         <v>1099</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="63" t="s">
         <v>1100</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="63" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="32" customFormat="1" ht="45">
-      <c r="A32" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="63" t="s">
         <v>1101</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64" t="s">
+      <c r="E32" s="63"/>
+      <c r="F32" s="63" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="32" customFormat="1">
-      <c r="A33" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="63" t="s">
+      <c r="A33" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="62" t="s">
         <v>1102</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>1103</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="62" t="s">
         <v>1104</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="32" customFormat="1">
-      <c r="A34" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="62" t="s">
         <v>1105</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>1106</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="62" t="s">
         <v>1107</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="32" customFormat="1">
-      <c r="A35" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="63" t="s">
+      <c r="A35" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>1108</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>1109</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="62" t="s">
         <v>1110</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63" t="s">
+      <c r="E35" s="62"/>
+      <c r="F35" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="32" customFormat="1">
-      <c r="A36" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="63" t="s">
+      <c r="A36" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>1111</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="62" t="s">
         <v>1112</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="62" t="s">
         <v>1113</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63" t="s">
+      <c r="E36" s="62"/>
+      <c r="F36" s="62" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -9647,56 +9627,56 @@
       </c>
     </row>
     <row r="74" spans="1:6" s="32" customFormat="1">
-      <c r="A74" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="63" t="s">
+      <c r="A74" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="63" t="s">
+      <c r="C74" s="62" t="s">
         <v>1123</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="62" t="s">
         <v>1124</v>
       </c>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63" t="s">
+      <c r="E74" s="62"/>
+      <c r="F74" s="62" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="32" customFormat="1">
-      <c r="A75" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="63" t="s">
+      <c r="A75" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="62" t="s">
         <v>1125</v>
       </c>
-      <c r="D75" s="63" t="s">
+      <c r="D75" s="62" t="s">
         <v>1126</v>
       </c>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63" t="s">
+      <c r="E75" s="62"/>
+      <c r="F75" s="62" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="32" customFormat="1" ht="30">
-      <c r="A76" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="64" t="s">
+      <c r="A76" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64" t="s">
+      <c r="E76" s="63"/>
+      <c r="F76" s="63" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -10687,20 +10667,20 @@
       </c>
     </row>
     <row r="134" spans="1:6" s="32" customFormat="1">
-      <c r="A134" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B134" s="63" t="s">
+      <c r="A134" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="C134" s="63" t="s">
+      <c r="C134" s="62" t="s">
         <v>1147</v>
       </c>
-      <c r="D134" s="63" t="s">
+      <c r="D134" s="62" t="s">
         <v>1148</v>
       </c>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63" t="s">
+      <c r="E134" s="62"/>
+      <c r="F134" s="62" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -10877,20 +10857,20 @@
       </c>
     </row>
     <row r="145" spans="1:6" s="32" customFormat="1" ht="30">
-      <c r="A145" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B145" s="63" t="s">
+      <c r="A145" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C145" s="63" t="s">
+      <c r="C145" s="62" t="s">
         <v>1154</v>
       </c>
-      <c r="D145" s="63" t="s">
+      <c r="D145" s="62" t="s">
         <v>1155</v>
       </c>
-      <c r="E145" s="63"/>
-      <c r="F145" s="63" t="s">
+      <c r="E145" s="62"/>
+      <c r="F145" s="62" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -11085,92 +11065,92 @@
       <c r="F157" s="37"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B158" s="55">
+      <c r="A158" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="54">
         <v>9.1</v>
       </c>
-      <c r="C158" s="57" t="s">
+      <c r="C158" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="57"/>
+      <c r="D158" s="56"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B159" s="55" t="s">
+      <c r="A159" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="C159" s="58" t="s">
+      <c r="C159" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D159" s="57"/>
+      <c r="D159" s="56"/>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B160" s="55" t="s">
+      <c r="A160" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C160" s="55" t="s">
+      <c r="C160" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="D160" s="55">
+      <c r="D160" s="54">
         <v>76.099999999999994</v>
       </c>
       <c r="E160" s="42"/>
       <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B161" s="55" t="s">
+      <c r="A161" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="C161" s="55" t="s">
+      <c r="C161" s="54" t="s">
         <v>1239</v>
       </c>
-      <c r="D161" s="55">
+      <c r="D161" s="54">
         <v>76.2</v>
       </c>
       <c r="E161" s="38"/>
       <c r="F161" s="38"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B162" s="55" t="s">
+      <c r="A162" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C162" s="55" t="s">
+      <c r="C162" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="D162" s="55" t="s">
+      <c r="D162" s="54" t="s">
         <v>833</v>
       </c>
       <c r="E162" s="38"/>
       <c r="F162" s="38"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B163" s="55" t="s">
+      <c r="A163" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C163" s="55" t="s">
+      <c r="C163" s="54" t="s">
         <v>1242</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="54" t="s">
         <v>1240</v>
       </c>
       <c r="E163" s="38"/>
@@ -11207,20 +11187,20 @@
       <c r="F165" s="39"/>
     </row>
     <row r="166" spans="1:6" ht="30">
-      <c r="A166" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B166" s="55" t="s">
+      <c r="A166" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="C166" s="55" t="s">
+      <c r="C166" s="54" t="s">
         <v>1244</v>
       </c>
-      <c r="D166" s="55" t="s">
+      <c r="D166" s="54" t="s">
         <v>837</v>
       </c>
-      <c r="E166" s="55"/>
-      <c r="F166" s="55"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="54"/>
     </row>
     <row r="167" spans="1:6" ht="30">
       <c r="A167" s="38" t="s">
@@ -12601,7 +12581,7 @@
       <c r="D255" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="E255" s="64"/>
+      <c r="E255" s="63"/>
       <c r="F255" s="38"/>
     </row>
     <row r="256" spans="1:6" ht="45">
@@ -12681,7 +12661,7 @@
       <c r="D260" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="E260" s="64"/>
+      <c r="E260" s="63"/>
       <c r="F260" s="38"/>
     </row>
     <row r="261" spans="1:6" ht="45">
@@ -12745,7 +12725,7 @@
       <c r="D264" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="E264" s="64"/>
+      <c r="E264" s="63"/>
       <c r="F264" s="38"/>
     </row>
     <row r="265" spans="1:6" ht="30">
@@ -13350,7 +13330,7 @@
         <v>484</v>
       </c>
       <c r="E302" s="38"/>
-      <c r="F302" s="55" t="s">
+      <c r="F302" s="54" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -13808,7 +13788,7 @@
         <v>484</v>
       </c>
       <c r="E331" s="38"/>
-      <c r="F331" s="55" t="s">
+      <c r="F331" s="54" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -18465,10 +18445,10 @@
       <c r="B49" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>950</v>
       </c>
-      <c r="D49" s="56" t="s">
+      <c r="D49" s="55" t="s">
         <v>1051</v>
       </c>
       <c r="E49" s="6"/>
@@ -19218,123 +19198,123 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>1201</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>1203</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>1204</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="45">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>1165</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>1205</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>1206</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>1207</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>1208</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>1209</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>1210</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>1211</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>1212</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="58" t="s">
         <v>1213</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>1214</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>1215</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>1216</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>1217</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>1218</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>1219</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="58" t="s">
         <v>1202</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>1220</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>1221</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19402,7 +19382,7 @@
       <c r="D2" s="46" t="s">
         <v>1222</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="49" t="s">
         <v>759</v>
       </c>
@@ -19421,7 +19401,7 @@
       <c r="D3" s="47" t="s">
         <v>1223</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="6" t="s">
         <v>759</v>
       </c>
@@ -19440,7 +19420,7 @@
       <c r="D4" s="46" t="s">
         <v>1224</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="6" t="s">
         <v>759</v>
       </c>
@@ -19460,8 +19440,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19858,7 +19838,7 @@
       <c r="D7" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>1264</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -19976,9 +19956,6 @@
       <c r="D13" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>1078</v>
-      </c>
       <c r="F13" s="6" t="s">
         <v>759</v>
       </c>
@@ -20096,7 +20073,7 @@
       <c r="D19" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="53" t="s">
         <v>1079</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -20161,7 +20138,7 @@
       <c r="D22" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="60" t="s">
         <v>1250</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -21238,13 +21215,13 @@
       <c r="IV26" s="31"/>
     </row>
     <row r="27" spans="1:256" s="32" customFormat="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="6" t="s">
         <v>1059</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="6" t="s">
         <v>1068</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -21503,39 +21480,41 @@
       <c r="IU27" s="31"/>
       <c r="IV27" s="31"/>
     </row>
-    <row r="28" spans="1:256" ht="60">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:256" ht="63">
+      <c r="A28" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-    </row>
-    <row r="29" spans="1:256" ht="30">
-      <c r="A29" s="53" t="s">
+      <c r="E28" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:256" ht="31.5">
+      <c r="A29" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1289ECD0-6F4C-4C8F-9CEB-B17AAC4ECAFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C87A5EE-0AC8-4666-AA8B-ACB410C39CD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="0" windowWidth="23040" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="255" windowWidth="23040" windowHeight="15555" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -1390,6 +1390,9 @@
     <t>10.3.1.11</t>
   </si>
   <si>
+    <t>10.3.1.12</t>
+  </si>
+  <si>
     <t>10.3.1.13</t>
   </si>
   <si>
@@ -1414,9 +1417,6 @@
     <t>10.4.2.1</t>
   </si>
   <si>
-    <t>Verify that the asymmetric digital field contains a CMS signed data object with no encapsulated content (see issue #52).</t>
-  </si>
-  <si>
     <t>10.4.2.2</t>
   </si>
   <si>
@@ -2734,9 +2734,6 @@
     <t>CMS_Test_11</t>
   </si>
   <si>
-    <t>Validate that message digest from signed attributes bag matches the digest over CHUID (excluding contents of digital signature field)</t>
-  </si>
-  <si>
     <t>CMS_Test_12</t>
   </si>
   <si>
@@ -2750,9 +2747,6 @@
   </si>
   <si>
     <t>CMS_Test_14</t>
-  </si>
-  <si>
-    <t>Confirm that the certificate from the cert bag succesfully validates the CMS signature</t>
   </si>
   <si>
     <t>CMS_Test_15</t>
@@ -3701,9 +3695,6 @@
     <t>10.3 Facial Image</t>
   </si>
   <si>
-    <t>10.2 OCC Biometric Fingerprint</t>
-  </si>
-  <si>
     <t>10.1 CHUID</t>
   </si>
   <si>
@@ -3810,13 +3801,28 @@
   </si>
   <si>
     <t>Tag 0x35 follows Tag 0x34</t>
+  </si>
+  <si>
+    <t>10.2 Fingerprint</t>
+  </si>
+  <si>
+    <t>Validate that message digest from signed attributes bag matches the digest over the signed content</t>
+  </si>
+  <si>
+    <t>Verify that the asymmetric digital field contains a CMS signed data object</t>
+  </si>
+  <si>
+    <t>CMS.10</t>
+  </si>
+  <si>
+    <t>CMS_Test_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -3892,6 +3898,19 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4101,7 +4120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4317,6 +4336,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4708,8 +4739,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView topLeftCell="A301" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4738,10 +4769,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,7 +4780,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>0</v>
@@ -4763,7 +4794,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1</v>
@@ -4777,10 +4808,10 @@
         <v>55</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="40"/>
@@ -4794,14 +4825,14 @@
         <v>56</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4819,7 +4850,7 @@
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,7 +4868,7 @@
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4855,7 +4886,7 @@
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4873,7 +4904,7 @@
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4891,7 +4922,7 @@
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4909,7 +4940,7 @@
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4920,14 +4951,14 @@
         <v>76</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,7 +4976,7 @@
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,7 +4994,7 @@
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4974,14 +5005,14 @@
         <v>83</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="47" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>2</v>
@@ -5003,10 +5034,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -5020,14 +5051,14 @@
         <v>86</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D18" s="47" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,7 +5076,7 @@
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5063,7 +5094,7 @@
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5081,7 +5112,7 @@
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5092,14 +5123,14 @@
         <v>90</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D22" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,14 +5141,14 @@
         <v>92</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5128,14 +5159,14 @@
         <v>95</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5153,7 +5184,7 @@
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="53" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5164,14 +5195,14 @@
         <v>101</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="53" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5182,14 +5213,14 @@
         <v>104</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5200,14 +5231,14 @@
         <v>107</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5215,17 +5246,17 @@
         <v>55</v>
       </c>
       <c r="B29" s="52" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>1020</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>1022</v>
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5233,17 +5264,17 @@
         <v>55</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5251,17 +5282,17 @@
         <v>55</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D31" s="53" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="53" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5269,7 +5300,7 @@
         <v>55</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>105</v>
@@ -5279,7 +5310,7 @@
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="53" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5287,17 +5318,17 @@
         <v>55</v>
       </c>
       <c r="B33" s="52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D33" s="52" t="s">
         <v>1028</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>1030</v>
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5305,17 +5336,17 @@
         <v>55</v>
       </c>
       <c r="B34" s="52" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D34" s="52" t="s">
         <v>1031</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>1033</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5323,17 +5354,17 @@
         <v>55</v>
       </c>
       <c r="B35" s="52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D35" s="52" t="s">
         <v>1034</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>1036</v>
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5341,17 +5372,17 @@
         <v>55</v>
       </c>
       <c r="B36" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>1037</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>1039</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5359,7 +5390,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>108</v>
@@ -5369,7 +5400,7 @@
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,7 +5418,7 @@
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5405,7 +5436,7 @@
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5423,7 +5454,7 @@
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5441,7 +5472,7 @@
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5449,7 +5480,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>122</v>
@@ -5459,7 +5490,7 @@
       </c>
       <c r="E42" s="47"/>
       <c r="F42" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5467,10 +5498,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -5481,10 +5512,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -5498,14 +5529,14 @@
         <v>123</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5523,7 +5554,7 @@
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5541,7 +5572,7 @@
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5559,7 +5590,7 @@
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5570,14 +5601,14 @@
         <v>127</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5595,7 +5626,7 @@
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5613,7 +5644,7 @@
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5631,7 +5662,7 @@
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5649,7 +5680,7 @@
       </c>
       <c r="E53" s="47"/>
       <c r="F53" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5657,7 +5688,7 @@
         <v>121</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>122</v>
@@ -5667,7 +5698,7 @@
       </c>
       <c r="E54" s="47"/>
       <c r="F54" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,7 +5706,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>3</v>
@@ -5689,10 +5720,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
@@ -5706,14 +5737,14 @@
         <v>141</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="47"/>
       <c r="F57" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5731,7 +5762,7 @@
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5749,7 +5780,7 @@
       </c>
       <c r="E59" s="47"/>
       <c r="F59" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5767,7 +5798,7 @@
       </c>
       <c r="E60" s="47"/>
       <c r="F60" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5778,14 +5809,14 @@
         <v>145</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>120</v>
       </c>
       <c r="E61" s="47"/>
       <c r="F61" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5803,7 +5834,7 @@
       </c>
       <c r="E62" s="47"/>
       <c r="F62" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5821,7 +5852,7 @@
       </c>
       <c r="E63" s="47"/>
       <c r="F63" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,7 +5870,7 @@
       </c>
       <c r="E64" s="47"/>
       <c r="F64" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5857,7 +5888,7 @@
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,7 +5896,7 @@
         <v>55</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>4</v>
@@ -5879,10 +5910,10 @@
         <v>55</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
@@ -5896,14 +5927,14 @@
         <v>150</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E68" s="47"/>
       <c r="F68" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -5921,7 +5952,7 @@
       </c>
       <c r="E69" s="47"/>
       <c r="F69" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -5939,7 +5970,7 @@
       </c>
       <c r="E70" s="47"/>
       <c r="F70" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5957,7 +5988,7 @@
       </c>
       <c r="E71" s="47"/>
       <c r="F71" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5968,14 +5999,14 @@
         <v>154</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>155</v>
       </c>
       <c r="E72" s="47"/>
       <c r="F72" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,7 +6024,7 @@
       </c>
       <c r="E73" s="47"/>
       <c r="F73" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -6004,14 +6035,14 @@
         <v>159</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E74" s="52"/>
       <c r="F74" s="52" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -6022,14 +6053,14 @@
         <v>162</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E75" s="52"/>
       <c r="F75" s="52" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6047,7 +6078,7 @@
       </c>
       <c r="E76" s="53"/>
       <c r="F76" s="53" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6055,7 +6086,7 @@
         <v>55</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>163</v>
@@ -6065,7 +6096,7 @@
       </c>
       <c r="E77" s="47"/>
       <c r="F77" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6073,7 +6104,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>166</v>
@@ -6083,7 +6114,7 @@
       </c>
       <c r="E78" s="47"/>
       <c r="F78" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6091,7 +6122,7 @@
         <v>121</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>122</v>
@@ -6101,7 +6132,7 @@
       </c>
       <c r="E79" s="47"/>
       <c r="F79" s="47" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6109,7 +6140,7 @@
         <v>55</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>5</v>
@@ -6123,10 +6154,10 @@
         <v>55</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
@@ -6140,14 +6171,14 @@
         <v>168</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E82" s="47"/>
       <c r="F82" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,7 +6196,7 @@
       </c>
       <c r="E83" s="47"/>
       <c r="F83" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6183,7 +6214,7 @@
       </c>
       <c r="E84" s="47"/>
       <c r="F84" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6201,7 +6232,7 @@
       </c>
       <c r="E85" s="47"/>
       <c r="F85" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6212,14 +6243,14 @@
         <v>172</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>173</v>
       </c>
       <c r="E86" s="47"/>
       <c r="F86" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,7 +6268,7 @@
       </c>
       <c r="E87" s="47"/>
       <c r="F87" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6255,7 +6286,7 @@
       </c>
       <c r="E88" s="47"/>
       <c r="F88" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,7 +6294,7 @@
         <v>121</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>122</v>
@@ -6273,7 +6304,7 @@
       </c>
       <c r="E89" s="47"/>
       <c r="F89" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -6281,7 +6312,7 @@
         <v>55</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>6</v>
@@ -6295,10 +6326,10 @@
         <v>55</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
@@ -6312,14 +6343,14 @@
         <v>180</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D92" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E92" s="47"/>
       <c r="F92" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6337,7 +6368,7 @@
       </c>
       <c r="E93" s="47"/>
       <c r="F93" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6355,7 +6386,7 @@
       </c>
       <c r="E94" s="47"/>
       <c r="F94" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6373,7 +6404,7 @@
       </c>
       <c r="E95" s="47"/>
       <c r="F95" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6384,14 +6415,14 @@
         <v>184</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E96" s="47"/>
       <c r="F96" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6409,7 +6440,7 @@
       </c>
       <c r="E97" s="47"/>
       <c r="F97" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -6427,7 +6458,7 @@
       </c>
       <c r="E98" s="47"/>
       <c r="F98" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -6445,7 +6476,7 @@
       </c>
       <c r="E99" s="47"/>
       <c r="F99" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -6463,7 +6494,7 @@
       </c>
       <c r="E100" s="47"/>
       <c r="F100" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6471,7 +6502,7 @@
         <v>121</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>122</v>
@@ -6481,7 +6512,7 @@
       </c>
       <c r="E101" s="47"/>
       <c r="F101" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -6489,7 +6520,7 @@
         <v>55</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>7</v>
@@ -6503,10 +6534,10 @@
         <v>55</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
@@ -6520,14 +6551,14 @@
         <v>189</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D104" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E104" s="47"/>
       <c r="F104" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,7 +6576,7 @@
       </c>
       <c r="E105" s="47"/>
       <c r="F105" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -6563,7 +6594,7 @@
       </c>
       <c r="E106" s="47"/>
       <c r="F106" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6581,7 +6612,7 @@
       </c>
       <c r="E107" s="47"/>
       <c r="F107" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6592,14 +6623,14 @@
         <v>193</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E108" s="47"/>
       <c r="F108" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -6617,7 +6648,7 @@
       </c>
       <c r="E109" s="47"/>
       <c r="F109" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,7 +6666,7 @@
       </c>
       <c r="E110" s="47"/>
       <c r="F110" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -6653,7 +6684,7 @@
       </c>
       <c r="E111" s="47"/>
       <c r="F111" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,7 +6702,7 @@
       </c>
       <c r="E112" s="47"/>
       <c r="F112" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -6679,7 +6710,7 @@
         <v>121</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>122</v>
@@ -6689,7 +6720,7 @@
       </c>
       <c r="E113" s="47"/>
       <c r="F113" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -6697,7 +6728,7 @@
         <v>55</v>
       </c>
       <c r="B114" s="47" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C114" s="40" t="s">
         <v>8</v>
@@ -6711,10 +6742,10 @@
         <v>55</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="40"/>
@@ -6728,14 +6759,14 @@
         <v>198</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="47"/>
       <c r="F116" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -6753,7 +6784,7 @@
       </c>
       <c r="E117" s="47"/>
       <c r="F117" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -6771,7 +6802,7 @@
       </c>
       <c r="E118" s="47"/>
       <c r="F118" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6789,7 +6820,7 @@
       </c>
       <c r="E119" s="47"/>
       <c r="F119" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6800,14 +6831,14 @@
         <v>202</v>
       </c>
       <c r="C120" s="41" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E120" s="47"/>
       <c r="F120" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,7 +6856,7 @@
       </c>
       <c r="E121" s="47"/>
       <c r="F121" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -6843,7 +6874,7 @@
       </c>
       <c r="E122" s="47"/>
       <c r="F122" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -6861,7 +6892,7 @@
       </c>
       <c r="E123" s="47"/>
       <c r="F123" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,7 +6910,7 @@
       </c>
       <c r="E124" s="47"/>
       <c r="F124" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -6887,7 +6918,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C125" s="39" t="s">
         <v>122</v>
@@ -6897,7 +6928,7 @@
       </c>
       <c r="E125" s="47"/>
       <c r="F125" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,7 +6936,7 @@
         <v>55</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>9</v>
@@ -6919,10 +6950,10 @@
         <v>55</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D127" s="40"/>
       <c r="E127" s="40"/>
@@ -6936,14 +6967,14 @@
         <v>207</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D128" s="39" t="s">
         <v>57</v>
       </c>
       <c r="E128" s="47"/>
       <c r="F128" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -6961,7 +6992,7 @@
       </c>
       <c r="E129" s="47"/>
       <c r="F129" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,7 +7010,7 @@
       </c>
       <c r="E130" s="47"/>
       <c r="F130" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6997,7 +7028,7 @@
       </c>
       <c r="E131" s="47"/>
       <c r="F131" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -7008,14 +7039,14 @@
         <v>211</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D132" s="39" t="s">
         <v>212</v>
       </c>
       <c r="E132" s="47"/>
       <c r="F132" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -7026,14 +7057,14 @@
         <v>213</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>215</v>
       </c>
       <c r="E133" s="47"/>
       <c r="F133" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -7044,14 +7075,14 @@
         <v>216</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E134" s="52"/>
       <c r="F134" s="52" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -7069,7 +7100,7 @@
       </c>
       <c r="E135" s="47"/>
       <c r="F135" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7077,7 +7108,7 @@
         <v>55</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C136" s="39" t="s">
         <v>220</v>
@@ -7087,7 +7118,7 @@
       </c>
       <c r="E136" s="47"/>
       <c r="F136" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -7095,7 +7126,7 @@
         <v>55</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>10</v>
@@ -7109,10 +7140,10 @@
         <v>55</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D138" s="48"/>
       <c r="E138" s="40"/>
@@ -7126,14 +7157,14 @@
         <v>222</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D139" s="47" t="s">
         <v>57</v>
       </c>
       <c r="E139" s="50"/>
       <c r="F139" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -7151,7 +7182,7 @@
       </c>
       <c r="E140" s="50"/>
       <c r="F140" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -7169,7 +7200,7 @@
       </c>
       <c r="E141" s="50"/>
       <c r="F141" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7187,7 +7218,7 @@
       </c>
       <c r="E142" s="50"/>
       <c r="F142" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -7198,14 +7229,14 @@
         <v>227</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D143" s="47" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="50"/>
       <c r="F143" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -7216,14 +7247,14 @@
         <v>229</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>226</v>
       </c>
       <c r="E144" s="50"/>
       <c r="F144" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -7234,14 +7265,14 @@
         <v>231</v>
       </c>
       <c r="C145" s="52" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="52" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -7249,17 +7280,17 @@
         <v>55</v>
       </c>
       <c r="B146" s="49" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C146" s="47" t="s">
         <v>230</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E146" s="50"/>
       <c r="F146" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7267,7 +7298,7 @@
         <v>55</v>
       </c>
       <c r="B147" s="49" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C147" s="47" t="s">
         <v>232</v>
@@ -7277,7 +7308,7 @@
       </c>
       <c r="E147" s="50"/>
       <c r="F147" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -7285,17 +7316,17 @@
         <v>121</v>
       </c>
       <c r="B148" s="49" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>234</v>
       </c>
       <c r="E148" s="50"/>
       <c r="F148" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7303,7 +7334,7 @@
         <v>55</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C149" s="51" t="s">
         <v>11</v>
@@ -7317,7 +7348,7 @@
         <v>55</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>12</v>
@@ -7337,7 +7368,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E151" s="47"/>
       <c r="F151" s="47"/>
@@ -7353,7 +7384,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E152" s="47"/>
       <c r="F152" s="47"/>
@@ -7363,13 +7394,13 @@
         <v>55</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C153" s="47" t="s">
         <v>237</v>
       </c>
       <c r="D153" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E153" s="47"/>
       <c r="F153" s="47"/>
@@ -7379,7 +7410,7 @@
         <v>55</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C154" s="56" t="s">
         <v>15</v>
@@ -7393,7 +7424,7 @@
         <v>55</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C155" s="56" t="s">
         <v>16</v>
@@ -7407,7 +7438,7 @@
         <v>55</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C156" s="56" t="s">
         <v>17</v>
@@ -7421,7 +7452,7 @@
         <v>55</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C157" s="46" t="s">
         <v>18</v>
@@ -7435,7 +7466,7 @@
         <v>55</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>19</v>
@@ -7473,7 +7504,7 @@
       </c>
       <c r="E160" s="57"/>
       <c r="F160" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,14 +7515,14 @@
         <v>240</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D161" s="47">
         <v>76.2</v>
       </c>
       <c r="E161" s="47"/>
       <c r="F161" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7509,7 +7540,7 @@
       </c>
       <c r="E162" s="47"/>
       <c r="F162" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7520,14 +7551,14 @@
         <v>243</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D163" s="47" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E163" s="47"/>
       <c r="F163" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7535,7 +7566,7 @@
         <v>55</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C164" s="47" t="s">
         <v>247</v>
@@ -7545,7 +7576,7 @@
       </c>
       <c r="E164" s="47"/>
       <c r="F164" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -7570,14 +7601,14 @@
         <v>246</v>
       </c>
       <c r="C166" s="39" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D166" s="39" t="s">
         <v>767</v>
       </c>
       <c r="E166" s="39"/>
       <c r="F166" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -7595,7 +7626,7 @@
       </c>
       <c r="E167" s="47"/>
       <c r="F167" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7613,7 +7644,7 @@
       </c>
       <c r="E168" s="47"/>
       <c r="F168" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -7624,14 +7655,14 @@
         <v>252</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D169" s="47" t="s">
         <v>847</v>
       </c>
       <c r="E169" s="47"/>
       <c r="F169" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7649,7 +7680,7 @@
       </c>
       <c r="E170" s="47"/>
       <c r="F170" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -7667,7 +7698,7 @@
       </c>
       <c r="E171" s="47"/>
       <c r="F171" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -7685,7 +7716,7 @@
       </c>
       <c r="E172" s="47"/>
       <c r="F172" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7703,7 +7734,7 @@
       </c>
       <c r="E173" s="47"/>
       <c r="F173" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -7721,7 +7752,7 @@
       </c>
       <c r="E174" s="47"/>
       <c r="F174" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7739,7 +7770,7 @@
       </c>
       <c r="E175" s="47"/>
       <c r="F175" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -7757,7 +7788,7 @@
       </c>
       <c r="E176" s="47"/>
       <c r="F176" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -7765,7 +7796,7 @@
         <v>55</v>
       </c>
       <c r="B177" s="47" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C177" s="58" t="s">
         <v>22</v>
@@ -7803,7 +7834,7 @@
       </c>
       <c r="E179" s="47"/>
       <c r="F179" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -7814,14 +7845,14 @@
         <v>268</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D180" s="47">
         <v>76.2</v>
       </c>
       <c r="E180" s="47"/>
       <c r="F180" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -7839,7 +7870,7 @@
       </c>
       <c r="E181" s="47"/>
       <c r="F181" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -7850,14 +7881,14 @@
         <v>270</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E182" s="47"/>
       <c r="F182" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -7889,7 +7920,7 @@
       </c>
       <c r="E184" s="47"/>
       <c r="F184" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -7907,7 +7938,7 @@
       </c>
       <c r="E185" s="47"/>
       <c r="F185" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7925,7 +7956,7 @@
       </c>
       <c r="E186" s="47"/>
       <c r="F186" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -7936,14 +7967,14 @@
         <v>275</v>
       </c>
       <c r="C187" s="47" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D187" s="47" t="s">
         <v>847</v>
       </c>
       <c r="E187" s="47"/>
       <c r="F187" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7961,7 +7992,7 @@
       </c>
       <c r="E188" s="47"/>
       <c r="F188" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -7979,7 +8010,7 @@
       </c>
       <c r="E189" s="47"/>
       <c r="F189" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -7997,7 +8028,7 @@
       </c>
       <c r="E190" s="47"/>
       <c r="F190" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8015,7 +8046,7 @@
       </c>
       <c r="E191" s="47"/>
       <c r="F191" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -8033,7 +8064,7 @@
       </c>
       <c r="E192" s="47"/>
       <c r="F192" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8051,7 +8082,7 @@
       </c>
       <c r="E193" s="47"/>
       <c r="F193" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -8069,7 +8100,7 @@
       </c>
       <c r="E194" s="47"/>
       <c r="F194" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -8077,7 +8108,7 @@
         <v>55</v>
       </c>
       <c r="B195" s="47" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>25</v>
@@ -8115,7 +8146,7 @@
       </c>
       <c r="E197" s="47"/>
       <c r="F197" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,14 +8157,14 @@
         <v>288</v>
       </c>
       <c r="C198" s="47" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D198" s="47">
         <v>76.2</v>
       </c>
       <c r="E198" s="47"/>
       <c r="F198" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -8151,7 +8182,7 @@
       </c>
       <c r="E199" s="47"/>
       <c r="F199" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -8162,14 +8193,14 @@
         <v>290</v>
       </c>
       <c r="C200" s="47" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D200" s="47" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E200" s="47"/>
       <c r="F200" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -8201,7 +8232,7 @@
       </c>
       <c r="E202" s="47"/>
       <c r="F202" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,7 +8250,7 @@
       </c>
       <c r="E203" s="47"/>
       <c r="F203" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,7 +8268,7 @@
       </c>
       <c r="E204" s="47"/>
       <c r="F204" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -8255,7 +8286,7 @@
       </c>
       <c r="E205" s="47"/>
       <c r="F205" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8263,7 +8294,7 @@
         <v>55</v>
       </c>
       <c r="B206" s="47" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C206" s="47" t="s">
         <v>254</v>
@@ -8273,7 +8304,7 @@
       </c>
       <c r="E206" s="47"/>
       <c r="F206" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -8291,7 +8322,7 @@
       </c>
       <c r="E207" s="47"/>
       <c r="F207" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -8309,7 +8340,7 @@
       </c>
       <c r="E208" s="47"/>
       <c r="F208" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8327,7 +8358,7 @@
       </c>
       <c r="E209" s="47"/>
       <c r="F209" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -8345,7 +8376,7 @@
       </c>
       <c r="E210" s="47"/>
       <c r="F210" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8363,7 +8394,7 @@
       </c>
       <c r="E211" s="47"/>
       <c r="F211" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -8381,7 +8412,7 @@
       </c>
       <c r="E212" s="47"/>
       <c r="F212" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -8389,7 +8420,7 @@
         <v>55</v>
       </c>
       <c r="B213" s="47" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C213" s="58" t="s">
         <v>307</v>
@@ -8427,7 +8458,7 @@
       </c>
       <c r="E215" s="47"/>
       <c r="F215" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -8445,7 +8476,7 @@
       </c>
       <c r="E216" s="47"/>
       <c r="F216" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,7 +8494,7 @@
       </c>
       <c r="E217" s="47"/>
       <c r="F217" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8481,7 +8512,7 @@
       </c>
       <c r="E218" s="47"/>
       <c r="F218" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8499,7 +8530,7 @@
       </c>
       <c r="E219" s="47"/>
       <c r="F219" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -8517,7 +8548,7 @@
       </c>
       <c r="E220" s="47"/>
       <c r="F220" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,7 +8566,7 @@
       </c>
       <c r="E221" s="47"/>
       <c r="F221" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8546,14 +8577,14 @@
         <v>323</v>
       </c>
       <c r="C222" s="47" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D222" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E222" s="47"/>
       <c r="F222" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8567,11 +8598,11 @@
         <v>325</v>
       </c>
       <c r="D223" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E223" s="47"/>
       <c r="F223" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -8582,14 +8613,14 @@
         <v>326</v>
       </c>
       <c r="C224" s="47" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D224" s="47">
         <v>76.16</v>
       </c>
       <c r="E224" s="47"/>
       <c r="F224" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,7 +8638,7 @@
       </c>
       <c r="E225" s="47"/>
       <c r="F225" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -8625,7 +8656,7 @@
       </c>
       <c r="E226" s="47"/>
       <c r="F226" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -8657,7 +8688,7 @@
       </c>
       <c r="E228" s="47"/>
       <c r="F228" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,7 +8706,7 @@
       </c>
       <c r="E229" s="47"/>
       <c r="F229" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -8693,7 +8724,7 @@
       </c>
       <c r="E230" s="47"/>
       <c r="F230" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -8711,7 +8742,7 @@
       </c>
       <c r="E231" s="47"/>
       <c r="F231" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -8729,7 +8760,7 @@
       </c>
       <c r="E232" s="47"/>
       <c r="F232" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -8747,7 +8778,7 @@
       </c>
       <c r="E233" s="47"/>
       <c r="F233" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -8765,7 +8796,7 @@
       </c>
       <c r="E234" s="47"/>
       <c r="F234" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8783,7 +8814,7 @@
       </c>
       <c r="E235" s="47"/>
       <c r="F235" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -8801,7 +8832,7 @@
       </c>
       <c r="E236" s="47"/>
       <c r="F236" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -8819,7 +8850,7 @@
       </c>
       <c r="E237" s="47"/>
       <c r="F237" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -8837,7 +8868,7 @@
       </c>
       <c r="E238" s="47"/>
       <c r="F238" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -8869,7 +8900,7 @@
       </c>
       <c r="E240" s="47"/>
       <c r="F240" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -8887,7 +8918,7 @@
       </c>
       <c r="E241" s="47"/>
       <c r="F241" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,7 +8946,7 @@
         <v>363</v>
       </c>
       <c r="D243" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E243" s="47"/>
       <c r="F243" s="47"/>
@@ -8925,7 +8956,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C244" s="56" t="s">
         <v>28</v>
@@ -8953,17 +8984,17 @@
         <v>55</v>
       </c>
       <c r="B246" s="47" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C246" s="59" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D246" s="47" t="s">
         <v>821</v>
       </c>
       <c r="E246" s="47"/>
       <c r="F246" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -8971,17 +9002,17 @@
         <v>55</v>
       </c>
       <c r="B247" s="47" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C247" s="59" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D247" s="47" t="s">
         <v>824</v>
       </c>
       <c r="E247" s="47"/>
       <c r="F247" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -8989,17 +9020,17 @@
         <v>55</v>
       </c>
       <c r="B248" s="47" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C248" s="59" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D248" s="47" t="s">
         <v>827</v>
       </c>
       <c r="E248" s="47"/>
       <c r="F248" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -9007,17 +9038,17 @@
         <v>55</v>
       </c>
       <c r="B249" s="47" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C249" s="59" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D249" s="47" t="s">
         <v>830</v>
       </c>
       <c r="E249" s="47"/>
       <c r="F249" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -9039,17 +9070,17 @@
         <v>55</v>
       </c>
       <c r="B251" s="53" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D251" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E251" s="53"/>
       <c r="F251" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9057,17 +9088,17 @@
         <v>55</v>
       </c>
       <c r="B252" s="53" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D252" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E252" s="53"/>
       <c r="F252" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9075,17 +9106,17 @@
         <v>55</v>
       </c>
       <c r="B253" s="53" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C253" s="53" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E253" s="53"/>
       <c r="F253" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -9093,17 +9124,17 @@
         <v>55</v>
       </c>
       <c r="B254" s="53" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C254" s="53" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D254" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E254" s="53"/>
       <c r="F254" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -9111,7 +9142,7 @@
         <v>55</v>
       </c>
       <c r="B255" s="47" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>31</v>
@@ -9131,7 +9162,7 @@
         <v>32</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E256" s="47"/>
       <c r="F256" s="47"/>
@@ -9147,7 +9178,7 @@
         <v>33</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E257" s="47"/>
       <c r="F257" s="47"/>
@@ -9157,7 +9188,7 @@
         <v>55</v>
       </c>
       <c r="B258" s="45" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C258" s="46" t="s">
         <v>34</v>
@@ -9171,7 +9202,7 @@
         <v>55</v>
       </c>
       <c r="B259" s="47" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C259" s="40" t="s">
         <v>2</v>
@@ -9209,7 +9240,7 @@
       </c>
       <c r="E261" s="47"/>
       <c r="F261" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -9227,7 +9258,7 @@
       </c>
       <c r="E262" s="47"/>
       <c r="F262" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9245,7 +9276,7 @@
       </c>
       <c r="E263" s="53"/>
       <c r="F263" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9263,7 +9294,7 @@
       </c>
       <c r="E264" s="47"/>
       <c r="F264" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -9281,7 +9312,7 @@
       </c>
       <c r="E265" s="47"/>
       <c r="F265" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -9299,7 +9330,7 @@
       </c>
       <c r="E266" s="47"/>
       <c r="F266" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9317,7 +9348,7 @@
       </c>
       <c r="E267" s="47"/>
       <c r="F267" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9328,14 +9359,14 @@
         <v>390</v>
       </c>
       <c r="C268" s="59" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D268" s="47" t="s">
         <v>391</v>
       </c>
       <c r="E268" s="53"/>
       <c r="F268" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9343,17 +9374,17 @@
         <v>55</v>
       </c>
       <c r="B269" s="47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C269" s="59" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D269" s="47" t="s">
         <v>1085</v>
-      </c>
-      <c r="C269" s="59" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D269" s="47" t="s">
-        <v>1087</v>
       </c>
       <c r="E269" s="47"/>
       <c r="F269" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9371,7 +9402,7 @@
       </c>
       <c r="E270" s="47"/>
       <c r="F270" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9389,7 +9420,7 @@
       </c>
       <c r="E271" s="47"/>
       <c r="F271" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9407,7 +9438,7 @@
       </c>
       <c r="E272" s="53"/>
       <c r="F272" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,7 +9446,7 @@
         <v>55</v>
       </c>
       <c r="B273" s="47" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C273" s="59" t="s">
         <v>401</v>
@@ -9425,7 +9456,7 @@
       </c>
       <c r="E273" s="47"/>
       <c r="F273" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -9433,7 +9464,7 @@
         <v>55</v>
       </c>
       <c r="B274" s="47" t="s">
-        <v>1222</v>
+        <v>1256</v>
       </c>
       <c r="C274" s="40" t="s">
         <v>403</v>
@@ -9471,7 +9502,7 @@
       </c>
       <c r="E276" s="47"/>
       <c r="F276" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -9489,7 +9520,7 @@
       </c>
       <c r="E277" s="47"/>
       <c r="F277" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9507,7 +9538,7 @@
       </c>
       <c r="E278" s="47"/>
       <c r="F278" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9525,7 +9556,7 @@
       </c>
       <c r="E279" s="47"/>
       <c r="F279" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -9543,7 +9574,7 @@
       </c>
       <c r="E280" s="47"/>
       <c r="F280" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -9561,7 +9592,7 @@
       </c>
       <c r="E281" s="47"/>
       <c r="F281" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -9579,7 +9610,7 @@
       </c>
       <c r="E282" s="47"/>
       <c r="F282" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9597,7 +9628,7 @@
       </c>
       <c r="E283" s="47"/>
       <c r="F283" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -9605,10 +9636,10 @@
         <v>55</v>
       </c>
       <c r="B284" s="47" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C284" s="56" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D284" s="56"/>
       <c r="E284" s="56"/>
@@ -9629,7 +9660,7 @@
       </c>
       <c r="E285" s="53"/>
       <c r="F285" s="53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9643,11 +9674,11 @@
         <v>423</v>
       </c>
       <c r="D286" s="53" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E286" s="53"/>
       <c r="F286" s="53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9665,7 +9696,7 @@
       </c>
       <c r="E287" s="53"/>
       <c r="F287" s="53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9683,7 +9714,7 @@
       </c>
       <c r="E288" s="53"/>
       <c r="F288" s="53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9701,7 +9732,7 @@
       </c>
       <c r="E289" s="53"/>
       <c r="F289" s="53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9719,7 +9750,7 @@
       </c>
       <c r="E290" s="65"/>
       <c r="F290" s="65" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9730,14 +9761,14 @@
         <v>432</v>
       </c>
       <c r="C291" s="65" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D291" s="65" t="s">
         <v>434</v>
       </c>
       <c r="E291" s="65"/>
       <c r="F291" s="65" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9755,7 +9786,7 @@
       </c>
       <c r="E292" s="47"/>
       <c r="F292" s="47" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -9763,7 +9794,7 @@
         <v>55</v>
       </c>
       <c r="B293" s="47" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>36</v>
@@ -9801,7 +9832,7 @@
       </c>
       <c r="E295" s="47"/>
       <c r="F295" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -9819,7 +9850,7 @@
       </c>
       <c r="E296" s="47"/>
       <c r="F296" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9837,7 +9868,7 @@
       </c>
       <c r="E297" s="47"/>
       <c r="F297" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9855,7 +9886,7 @@
       </c>
       <c r="E298" s="47"/>
       <c r="F298" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -9873,7 +9904,7 @@
       </c>
       <c r="E299" s="47"/>
       <c r="F299" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -9891,7 +9922,7 @@
       </c>
       <c r="E300" s="47"/>
       <c r="F300" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -9909,7 +9940,7 @@
       </c>
       <c r="E301" s="47"/>
       <c r="F301" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9927,7 +9958,7 @@
       </c>
       <c r="E302" s="47"/>
       <c r="F302" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9945,7 +9976,7 @@
       </c>
       <c r="E303" s="47"/>
       <c r="F303" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9959,11 +9990,11 @@
         <v>423</v>
       </c>
       <c r="D304" s="47" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E304" s="47"/>
       <c r="F304" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9981,14 +10012,14 @@
       </c>
       <c r="E305" s="47"/>
       <c r="F305" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B306" s="47" t="s">
+      <c r="B306" s="65" t="s">
         <v>450</v>
       </c>
       <c r="C306" s="47" t="s">
@@ -9999,7 +10030,7 @@
       </c>
       <c r="E306" s="47"/>
       <c r="F306" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -10017,7 +10048,7 @@
       </c>
       <c r="E307" s="47"/>
       <c r="F307" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -10035,7 +10066,7 @@
       </c>
       <c r="E308" s="47"/>
       <c r="F308" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10043,17 +10074,17 @@
         <v>55</v>
       </c>
       <c r="B309" s="65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C309" s="65" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D309" s="65" t="s">
         <v>434</v>
       </c>
       <c r="E309" s="65"/>
       <c r="F309" s="65" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -10061,7 +10092,7 @@
         <v>55</v>
       </c>
       <c r="B310" s="47" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C310" s="59" t="s">
         <v>436</v>
@@ -10071,7 +10102,7 @@
       </c>
       <c r="E310" s="47"/>
       <c r="F310" s="47" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -10079,7 +10110,7 @@
         <v>55</v>
       </c>
       <c r="B311" s="47" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>9</v>
@@ -10093,7 +10124,7 @@
         <v>55</v>
       </c>
       <c r="B312" s="47" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C312" s="56" t="s">
         <v>37</v>
@@ -10107,17 +10138,17 @@
         <v>55</v>
       </c>
       <c r="B313" s="47" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C313" s="59" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D313" s="47" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E313" s="47"/>
       <c r="F313" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -10125,7 +10156,7 @@
         <v>55</v>
       </c>
       <c r="B314" s="47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C314" s="56" t="s">
         <v>35</v>
@@ -10134,22 +10165,22 @@
       <c r="E314" s="56"/>
       <c r="F314" s="56"/>
     </row>
-    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B315" s="47" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C315" s="47" t="s">
-        <v>460</v>
+        <v>1258</v>
       </c>
       <c r="D315" s="47" t="s">
-        <v>371</v>
+        <v>1259</v>
       </c>
       <c r="E315" s="57"/>
       <c r="F315" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -10167,7 +10198,7 @@
       </c>
       <c r="E316" s="47"/>
       <c r="F316" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -10185,7 +10216,7 @@
       </c>
       <c r="E317" s="47"/>
       <c r="F317" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10203,7 +10234,7 @@
       </c>
       <c r="E318" s="47"/>
       <c r="F318" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -10221,7 +10252,7 @@
       </c>
       <c r="E319" s="47"/>
       <c r="F319" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -10239,7 +10270,7 @@
       </c>
       <c r="E320" s="47"/>
       <c r="F320" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -10257,7 +10288,7 @@
       </c>
       <c r="E321" s="47"/>
       <c r="F321" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -10265,7 +10296,7 @@
         <v>55</v>
       </c>
       <c r="B322" s="47" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C322" s="60" t="s">
         <v>38</v>
@@ -10303,7 +10334,7 @@
       </c>
       <c r="E324" s="47"/>
       <c r="F324" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -10321,7 +10352,7 @@
       </c>
       <c r="E325" s="47"/>
       <c r="F325" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10339,7 +10370,7 @@
       </c>
       <c r="E326" s="47"/>
       <c r="F326" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10357,7 +10388,7 @@
       </c>
       <c r="E327" s="47"/>
       <c r="F327" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -10375,7 +10406,7 @@
       </c>
       <c r="E328" s="47"/>
       <c r="F328" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -10393,7 +10424,7 @@
       </c>
       <c r="E329" s="47"/>
       <c r="F329" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -10401,7 +10432,7 @@
         <v>55</v>
       </c>
       <c r="B330" s="47" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C330" s="47" t="s">
         <v>416</v>
@@ -10411,7 +10442,7 @@
       </c>
       <c r="E330" s="47"/>
       <c r="F330" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10419,7 +10450,7 @@
         <v>55</v>
       </c>
       <c r="B331" s="47" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C331" s="47" t="s">
         <v>418</v>
@@ -10429,7 +10460,7 @@
       </c>
       <c r="E331" s="47"/>
       <c r="F331" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10447,7 +10478,7 @@
       </c>
       <c r="E332" s="47"/>
       <c r="F332" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10461,11 +10492,11 @@
         <v>423</v>
       </c>
       <c r="D333" s="47" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E333" s="47"/>
       <c r="F333" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10483,7 +10514,7 @@
       </c>
       <c r="E334" s="47"/>
       <c r="F334" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -10501,7 +10532,7 @@
       </c>
       <c r="E335" s="47"/>
       <c r="F335" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -10519,7 +10550,7 @@
       </c>
       <c r="E336" s="47"/>
       <c r="F336" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -10537,7 +10568,7 @@
       </c>
       <c r="E337" s="47"/>
       <c r="F337" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10545,17 +10576,17 @@
         <v>55</v>
       </c>
       <c r="B338" s="47" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C338" s="65" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D338" s="65" t="s">
         <v>434</v>
       </c>
       <c r="E338" s="47"/>
       <c r="F338" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -10563,7 +10594,7 @@
         <v>55</v>
       </c>
       <c r="B339" s="47" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C339" s="59" t="s">
         <v>436</v>
@@ -10573,7 +10604,7 @@
       </c>
       <c r="E339" s="47"/>
       <c r="F339" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -10581,7 +10612,7 @@
         <v>55</v>
       </c>
       <c r="B340" s="45" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C340" s="62" t="s">
         <v>39</v>
@@ -10633,7 +10664,7 @@
       </c>
       <c r="E343" s="47"/>
       <c r="F343" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10651,7 +10682,7 @@
       </c>
       <c r="E344" s="47"/>
       <c r="F344" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10662,14 +10693,14 @@
         <v>496</v>
       </c>
       <c r="C345" s="59" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D345" s="47">
         <v>78.099999999999994</v>
       </c>
       <c r="E345" s="47"/>
       <c r="F345" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -10701,7 +10732,7 @@
       </c>
       <c r="E347" s="47"/>
       <c r="F347" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -10719,7 +10750,7 @@
       </c>
       <c r="E348" s="47"/>
       <c r="F348" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -10737,7 +10768,7 @@
       </c>
       <c r="E349" s="47"/>
       <c r="F349" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10755,7 +10786,7 @@
       </c>
       <c r="E350" s="47"/>
       <c r="F350" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -10787,7 +10818,7 @@
       </c>
       <c r="E352" s="47"/>
       <c r="F352" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -10805,7 +10836,7 @@
       </c>
       <c r="E353" s="47"/>
       <c r="F353" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -10816,14 +10847,14 @@
         <v>519</v>
       </c>
       <c r="C354" s="59" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D354" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E354" s="47"/>
       <c r="F354" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10841,7 +10872,7 @@
       </c>
       <c r="E355" s="47"/>
       <c r="F355" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -10869,11 +10900,11 @@
         <v>529</v>
       </c>
       <c r="D357" s="47" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E357" s="47"/>
       <c r="F357" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10891,7 +10922,7 @@
       </c>
       <c r="E358" s="47"/>
       <c r="F358" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10909,7 +10940,7 @@
       </c>
       <c r="E359" s="47"/>
       <c r="F359" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -10941,7 +10972,7 @@
       </c>
       <c r="E361" s="47"/>
       <c r="F361" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -10955,11 +10986,11 @@
         <v>542</v>
       </c>
       <c r="D362" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E362" s="47"/>
       <c r="F362" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -10991,7 +11022,7 @@
       </c>
       <c r="E364" s="47"/>
       <c r="F364" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -11005,11 +11036,11 @@
         <v>547</v>
       </c>
       <c r="D365" s="47" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E365" s="57"/>
       <c r="F365" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11027,7 +11058,7 @@
       </c>
       <c r="E366" s="47"/>
       <c r="F366" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -11041,11 +11072,11 @@
         <v>551</v>
       </c>
       <c r="D367" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E367" s="47"/>
       <c r="F367" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -11059,11 +11090,11 @@
         <v>553</v>
       </c>
       <c r="D368" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E368" s="47"/>
       <c r="F368" s="47" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -11105,11 +11136,11 @@
         <v>493</v>
       </c>
       <c r="D371" s="47" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E371" s="47"/>
       <c r="F371" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11123,11 +11154,11 @@
         <v>557</v>
       </c>
       <c r="D372" s="47" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E372" s="47"/>
       <c r="F372" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -11145,7 +11176,7 @@
       </c>
       <c r="E373" s="47"/>
       <c r="F373" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -11191,7 +11222,7 @@
       </c>
       <c r="E376" s="47"/>
       <c r="F376" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -11209,7 +11240,7 @@
       </c>
       <c r="E377" s="47"/>
       <c r="F377" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11227,7 +11258,7 @@
       </c>
       <c r="E378" s="47"/>
       <c r="F378" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11245,7 +11276,7 @@
       </c>
       <c r="E379" s="47"/>
       <c r="F379" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -11263,7 +11294,7 @@
       </c>
       <c r="E380" s="47"/>
       <c r="F380" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11281,7 +11312,7 @@
       </c>
       <c r="E381" s="47"/>
       <c r="F381" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -11313,7 +11344,7 @@
       </c>
       <c r="E383" s="47"/>
       <c r="F383" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -11327,11 +11358,11 @@
         <v>542</v>
       </c>
       <c r="D384" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E384" s="47"/>
       <c r="F384" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -11363,7 +11394,7 @@
       </c>
       <c r="E386" s="47"/>
       <c r="F386" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -11377,11 +11408,11 @@
         <v>582</v>
       </c>
       <c r="D387" s="47" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E387" s="57"/>
       <c r="F387" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11399,7 +11430,7 @@
       </c>
       <c r="E388" s="47"/>
       <c r="F388" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -11413,11 +11444,11 @@
         <v>551</v>
       </c>
       <c r="D389" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E389" s="47"/>
       <c r="F389" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -11431,11 +11462,11 @@
         <v>553</v>
       </c>
       <c r="D390" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E390" s="47"/>
       <c r="F390" s="47" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -11481,7 +11512,7 @@
       </c>
       <c r="E393" s="47"/>
       <c r="F393" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11495,11 +11526,11 @@
         <v>590</v>
       </c>
       <c r="D394" s="47" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E394" s="47"/>
       <c r="F394" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -11517,7 +11548,7 @@
       </c>
       <c r="E395" s="47"/>
       <c r="F395" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -11559,11 +11590,11 @@
         <v>596</v>
       </c>
       <c r="D398" s="47" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E398" s="47"/>
       <c r="F398" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11581,7 +11612,7 @@
       </c>
       <c r="E399" s="47"/>
       <c r="F399" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -11599,7 +11630,7 @@
       </c>
       <c r="E400" s="47"/>
       <c r="F400" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11617,7 +11648,7 @@
       </c>
       <c r="E401" s="47"/>
       <c r="F401" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11635,7 +11666,7 @@
       </c>
       <c r="E402" s="47"/>
       <c r="F402" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11653,7 +11684,7 @@
       </c>
       <c r="E403" s="47"/>
       <c r="F403" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -11685,7 +11716,7 @@
       </c>
       <c r="E405" s="47"/>
       <c r="F405" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -11699,11 +11730,11 @@
         <v>542</v>
       </c>
       <c r="D406" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E406" s="47"/>
       <c r="F406" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,7 +11766,7 @@
       </c>
       <c r="E408" s="47"/>
       <c r="F408" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -11749,11 +11780,11 @@
         <v>582</v>
       </c>
       <c r="D409" s="47" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E409" s="57"/>
       <c r="F409" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11771,7 +11802,7 @@
       </c>
       <c r="E410" s="47"/>
       <c r="F410" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -11785,11 +11816,11 @@
         <v>551</v>
       </c>
       <c r="D411" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E411" s="47"/>
       <c r="F411" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -11803,11 +11834,11 @@
         <v>553</v>
       </c>
       <c r="D412" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E412" s="47"/>
       <c r="F412" s="47" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -11853,7 +11884,7 @@
       </c>
       <c r="E415" s="4"/>
       <c r="F415" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11871,7 +11902,7 @@
       </c>
       <c r="E416" s="47"/>
       <c r="F416" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -11889,7 +11920,7 @@
       </c>
       <c r="E417" s="47"/>
       <c r="F417" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -11935,7 +11966,7 @@
       </c>
       <c r="E420" s="47"/>
       <c r="F420" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -11953,7 +11984,7 @@
       </c>
       <c r="E421" s="47"/>
       <c r="F421" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -11971,7 +12002,7 @@
       </c>
       <c r="E422" s="47"/>
       <c r="F422" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11989,7 +12020,7 @@
       </c>
       <c r="E423" s="47"/>
       <c r="F423" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -12014,14 +12045,14 @@
         <v>632</v>
       </c>
       <c r="C425" s="47" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D425" s="47" t="s">
         <v>633</v>
       </c>
       <c r="E425" s="47"/>
       <c r="F425" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -12032,14 +12063,14 @@
         <v>634</v>
       </c>
       <c r="C426" s="47" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D426" s="47" t="s">
         <v>635</v>
       </c>
       <c r="E426" s="47"/>
       <c r="F426" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -12057,7 +12088,7 @@
       </c>
       <c r="E427" s="47"/>
       <c r="F427" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -12089,7 +12120,7 @@
       </c>
       <c r="E429" s="47"/>
       <c r="F429" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -12107,7 +12138,7 @@
       </c>
       <c r="E430" s="47"/>
       <c r="F430" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12125,7 +12156,7 @@
       </c>
       <c r="E431" s="47"/>
       <c r="F431" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -12143,7 +12174,7 @@
       </c>
       <c r="E432" s="47"/>
       <c r="F432" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12161,7 +12192,7 @@
       </c>
       <c r="E433" s="47"/>
       <c r="F433" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -12189,11 +12220,11 @@
         <v>529</v>
       </c>
       <c r="D435" s="47" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E435" s="47"/>
       <c r="F435" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -12207,11 +12238,11 @@
         <v>648</v>
       </c>
       <c r="D436" s="47" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E436" s="47"/>
       <c r="F436" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12229,7 +12260,7 @@
       </c>
       <c r="E437" s="47"/>
       <c r="F437" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -12261,7 +12292,7 @@
       </c>
       <c r="E439" s="47"/>
       <c r="F439" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -12275,11 +12306,11 @@
         <v>542</v>
       </c>
       <c r="D440" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E440" s="47"/>
       <c r="F440" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -12290,7 +12321,7 @@
         <v>653</v>
       </c>
       <c r="C441" s="56" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D441" s="56"/>
       <c r="E441" s="56"/>
@@ -12307,11 +12338,11 @@
         <v>553</v>
       </c>
       <c r="D442" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E442" s="47"/>
       <c r="F442" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -12341,7 +12372,7 @@
       <c r="D444" s="47"/>
       <c r="E444" s="59"/>
       <c r="F444" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -12357,7 +12388,7 @@
       <c r="D445" s="47"/>
       <c r="E445" s="59"/>
       <c r="F445" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -12373,7 +12404,7 @@
       <c r="D446" s="47"/>
       <c r="E446" s="59"/>
       <c r="F446" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -12403,7 +12434,7 @@
       <c r="D448" s="47"/>
       <c r="E448" s="59"/>
       <c r="F448" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -12419,7 +12450,7 @@
       <c r="D449" s="47"/>
       <c r="E449" s="59"/>
       <c r="F449" s="47" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -12465,7 +12496,7 @@
       </c>
       <c r="E452" s="47"/>
       <c r="F452" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12483,7 +12514,7 @@
       </c>
       <c r="E453" s="47"/>
       <c r="F453" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -12501,7 +12532,7 @@
       </c>
       <c r="E454" s="47"/>
       <c r="F454" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -12547,7 +12578,7 @@
       </c>
       <c r="E457" s="47"/>
       <c r="F457" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -12565,7 +12596,7 @@
       </c>
       <c r="E458" s="47"/>
       <c r="F458" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -12579,11 +12610,11 @@
         <v>670</v>
       </c>
       <c r="D459" s="47" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E459" s="47"/>
       <c r="F459" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12601,7 +12632,7 @@
       </c>
       <c r="E460" s="47"/>
       <c r="F460" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -12612,12 +12643,12 @@
         <v>673</v>
       </c>
       <c r="C461" s="47" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D461" s="47"/>
       <c r="E461" s="47"/>
       <c r="F461" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -12625,7 +12656,7 @@
         <v>55</v>
       </c>
       <c r="B462" s="47" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C462" s="47" t="s">
         <v>674</v>
@@ -12635,7 +12666,7 @@
       </c>
       <c r="E462" s="47"/>
       <c r="F462" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,17 +12674,17 @@
         <v>55</v>
       </c>
       <c r="B463" s="47" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C463" s="64" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D463" s="64" t="s">
         <v>635</v>
       </c>
       <c r="E463" s="47"/>
       <c r="F463" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -12685,7 +12716,7 @@
       </c>
       <c r="E465" s="47"/>
       <c r="F465" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -12699,11 +12730,11 @@
         <v>542</v>
       </c>
       <c r="D466" s="47" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E466" s="47"/>
       <c r="F466" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -12735,7 +12766,7 @@
       </c>
       <c r="E468" s="47"/>
       <c r="F468" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -12753,7 +12784,7 @@
       </c>
       <c r="E469" s="47"/>
       <c r="F469" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12771,7 +12802,7 @@
       </c>
       <c r="E470" s="47"/>
       <c r="F470" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -12785,11 +12816,11 @@
         <v>551</v>
       </c>
       <c r="D471" s="47" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E471" s="47"/>
       <c r="F471" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -12797,17 +12828,17 @@
         <v>55</v>
       </c>
       <c r="B472" s="47" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C472" s="47" t="s">
         <v>553</v>
       </c>
       <c r="D472" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E472" s="47"/>
       <c r="F472" s="47" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -12864,7 +12895,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>690</v>
@@ -12883,7 +12914,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>692</v>
@@ -12902,7 +12933,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>693</v>
@@ -12921,7 +12952,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>694</v>
@@ -12940,7 +12971,7 @@
         <v>697</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>698</v>
@@ -13076,7 +13107,7 @@
         <v>705</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
@@ -13114,7 +13145,7 @@
         <v>708</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
@@ -13152,7 +13183,7 @@
         <v>714</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
@@ -13307,7 +13338,7 @@
         <v>114</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>691</v>
@@ -13344,7 +13375,7 @@
         <v>727</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
@@ -13458,7 +13489,7 @@
         <v>734</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
@@ -13515,7 +13546,7 @@
         <v>739</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32" t="s">
@@ -13610,7 +13641,7 @@
         <v>745</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32" t="s">
@@ -13629,7 +13660,7 @@
         <v>747</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32" t="s">
@@ -13698,7 +13729,7 @@
     </row>
     <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>746</v>
@@ -13707,7 +13738,7 @@
         <v>752</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="s">
@@ -13720,13 +13751,13 @@
         <v>234</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>753</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32" t="s">
@@ -13739,13 +13770,13 @@
         <v>228</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>754</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32" t="s">
@@ -13758,13 +13789,13 @@
         <v>226</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>755</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="32" t="s">
@@ -13777,7 +13808,7 @@
         <v>233</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>756</v>
@@ -13793,16 +13824,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29" t="s">
@@ -13812,16 +13843,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29" t="s">
@@ -13831,16 +13862,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29" t="s">
@@ -13850,16 +13881,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29" t="s">
@@ -13869,16 +13900,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29" t="s">
@@ -13888,16 +13919,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29" t="s">
@@ -13907,16 +13938,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29" t="s">
@@ -13926,16 +13957,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
@@ -13945,16 +13976,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>713</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
@@ -13964,16 +13995,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>738</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="29" t="s">
@@ -13983,16 +14014,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>738</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
@@ -14002,16 +14033,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>746</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
@@ -14021,16 +14052,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="29" t="s">
@@ -14040,16 +14071,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C56" s="37" t="s">
         <v>1193</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="D56" s="34" t="s">
         <v>1194</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>1196</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="38" t="s">
@@ -14389,7 +14420,7 @@
         <v>762</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
@@ -14627,16 +14658,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>759</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -14646,16 +14677,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>759</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
@@ -14674,7 +14705,7 @@
         <v>793</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -14997,7 +15028,7 @@
         <v>834</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -15253,7 +15284,7 @@
         <v>879</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -15510,16 +15541,16 @@
     </row>
     <row r="50" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>759</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -15534,10 +15565,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15554,7 +15585,7 @@
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>683</v>
       </c>
@@ -15577,12 +15608,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>371</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>880</v>
@@ -15596,12 +15627,12 @@
       </c>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>882</v>
@@ -15615,12 +15646,12 @@
       </c>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>377</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>884</v>
@@ -15634,12 +15665,12 @@
       </c>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>391</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>886</v>
@@ -15653,12 +15684,12 @@
       </c>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>380</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>888</v>
@@ -15672,12 +15703,12 @@
       </c>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>383</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>890</v>
@@ -15691,12 +15722,12 @@
       </c>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>386</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>892</v>
@@ -15710,12 +15741,12 @@
       </c>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>389</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>894</v>
@@ -15729,12 +15760,12 @@
       </c>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
         <v>394</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>896</v>
@@ -15748,37 +15779,37 @@
       </c>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>881</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>898</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="72" t="s">
+      <c r="B12" s="72" t="s">
+        <v>998</v>
+      </c>
+      <c r="C12" s="72" t="s">
         <v>899</v>
       </c>
-      <c r="D11" s="72" t="s">
-        <v>900</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>691</v>
-      </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>901</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>902</v>
+      <c r="D12" s="72" t="s">
+        <v>1257</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
@@ -15786,18 +15817,18 @@
       </c>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
@@ -15805,18 +15836,18 @@
       </c>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
@@ -15824,102 +15855,351 @@
       </c>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>1181</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>909</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>1227</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>1179</v>
+      </c>
       <c r="F16" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="G16" s="23" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256" s="75" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>998</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>906</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>907</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73" t="s">
+        <v>691</v>
+      </c>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="74"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="74"/>
+      <c r="BJ17" s="74"/>
+      <c r="BK17" s="74"/>
+      <c r="BL17" s="74"/>
+      <c r="BM17" s="74"/>
+      <c r="BN17" s="74"/>
+      <c r="BO17" s="74"/>
+      <c r="BP17" s="74"/>
+      <c r="BQ17" s="74"/>
+      <c r="BR17" s="74"/>
+      <c r="BS17" s="74"/>
+      <c r="BT17" s="74"/>
+      <c r="BU17" s="74"/>
+      <c r="BV17" s="74"/>
+      <c r="BW17" s="74"/>
+      <c r="BX17" s="74"/>
+      <c r="BY17" s="74"/>
+      <c r="BZ17" s="74"/>
+      <c r="CA17" s="74"/>
+      <c r="CB17" s="74"/>
+      <c r="CC17" s="74"/>
+      <c r="CD17" s="74"/>
+      <c r="CE17" s="74"/>
+      <c r="CF17" s="74"/>
+      <c r="CG17" s="74"/>
+      <c r="CH17" s="74"/>
+      <c r="CI17" s="74"/>
+      <c r="CJ17" s="74"/>
+      <c r="CK17" s="74"/>
+      <c r="CL17" s="74"/>
+      <c r="CM17" s="74"/>
+      <c r="CN17" s="74"/>
+      <c r="CO17" s="74"/>
+      <c r="CP17" s="74"/>
+      <c r="CQ17" s="74"/>
+      <c r="CR17" s="74"/>
+      <c r="CS17" s="74"/>
+      <c r="CT17" s="74"/>
+      <c r="CU17" s="74"/>
+      <c r="CV17" s="74"/>
+      <c r="CW17" s="74"/>
+      <c r="CX17" s="74"/>
+      <c r="CY17" s="74"/>
+      <c r="CZ17" s="74"/>
+      <c r="DA17" s="74"/>
+      <c r="DB17" s="74"/>
+      <c r="DC17" s="74"/>
+      <c r="DD17" s="74"/>
+      <c r="DE17" s="74"/>
+      <c r="DF17" s="74"/>
+      <c r="DG17" s="74"/>
+      <c r="DH17" s="74"/>
+      <c r="DI17" s="74"/>
+      <c r="DJ17" s="74"/>
+      <c r="DK17" s="74"/>
+      <c r="DL17" s="74"/>
+      <c r="DM17" s="74"/>
+      <c r="DN17" s="74"/>
+      <c r="DO17" s="74"/>
+      <c r="DP17" s="74"/>
+      <c r="DQ17" s="74"/>
+      <c r="DR17" s="74"/>
+      <c r="DS17" s="74"/>
+      <c r="DT17" s="74"/>
+      <c r="DU17" s="74"/>
+      <c r="DV17" s="74"/>
+      <c r="DW17" s="74"/>
+      <c r="DX17" s="74"/>
+      <c r="DY17" s="74"/>
+      <c r="DZ17" s="74"/>
+      <c r="EA17" s="74"/>
+      <c r="EB17" s="74"/>
+      <c r="EC17" s="74"/>
+      <c r="ED17" s="74"/>
+      <c r="EE17" s="74"/>
+      <c r="EF17" s="74"/>
+      <c r="EG17" s="74"/>
+      <c r="EH17" s="74"/>
+      <c r="EI17" s="74"/>
+      <c r="EJ17" s="74"/>
+      <c r="EK17" s="74"/>
+      <c r="EL17" s="74"/>
+      <c r="EM17" s="74"/>
+      <c r="EN17" s="74"/>
+      <c r="EO17" s="74"/>
+      <c r="EP17" s="74"/>
+      <c r="EQ17" s="74"/>
+      <c r="ER17" s="74"/>
+      <c r="ES17" s="74"/>
+      <c r="ET17" s="74"/>
+      <c r="EU17" s="74"/>
+      <c r="EV17" s="74"/>
+      <c r="EW17" s="74"/>
+      <c r="EX17" s="74"/>
+      <c r="EY17" s="74"/>
+      <c r="EZ17" s="74"/>
+      <c r="FA17" s="74"/>
+      <c r="FB17" s="74"/>
+      <c r="FC17" s="74"/>
+      <c r="FD17" s="74"/>
+      <c r="FE17" s="74"/>
+      <c r="FF17" s="74"/>
+      <c r="FG17" s="74"/>
+      <c r="FH17" s="74"/>
+      <c r="FI17" s="74"/>
+      <c r="FJ17" s="74"/>
+      <c r="FK17" s="74"/>
+      <c r="FL17" s="74"/>
+      <c r="FM17" s="74"/>
+      <c r="FN17" s="74"/>
+      <c r="FO17" s="74"/>
+      <c r="FP17" s="74"/>
+      <c r="FQ17" s="74"/>
+      <c r="FR17" s="74"/>
+      <c r="FS17" s="74"/>
+      <c r="FT17" s="74"/>
+      <c r="FU17" s="74"/>
+      <c r="FV17" s="74"/>
+      <c r="FW17" s="74"/>
+      <c r="FX17" s="74"/>
+      <c r="FY17" s="74"/>
+      <c r="FZ17" s="74"/>
+      <c r="GA17" s="74"/>
+      <c r="GB17" s="74"/>
+      <c r="GC17" s="74"/>
+      <c r="GD17" s="74"/>
+      <c r="GE17" s="74"/>
+      <c r="GF17" s="74"/>
+      <c r="GG17" s="74"/>
+      <c r="GH17" s="74"/>
+      <c r="GI17" s="74"/>
+      <c r="GJ17" s="74"/>
+      <c r="GK17" s="74"/>
+      <c r="GL17" s="74"/>
+      <c r="GM17" s="74"/>
+      <c r="GN17" s="74"/>
+      <c r="GO17" s="74"/>
+      <c r="GP17" s="74"/>
+      <c r="GQ17" s="74"/>
+      <c r="GR17" s="74"/>
+      <c r="GS17" s="74"/>
+      <c r="GT17" s="74"/>
+      <c r="GU17" s="74"/>
+      <c r="GV17" s="74"/>
+      <c r="GW17" s="74"/>
+      <c r="GX17" s="74"/>
+      <c r="GY17" s="74"/>
+      <c r="GZ17" s="74"/>
+      <c r="HA17" s="74"/>
+      <c r="HB17" s="74"/>
+      <c r="HC17" s="74"/>
+      <c r="HD17" s="74"/>
+      <c r="HE17" s="74"/>
+      <c r="HF17" s="74"/>
+      <c r="HG17" s="74"/>
+      <c r="HH17" s="74"/>
+      <c r="HI17" s="74"/>
+      <c r="HJ17" s="74"/>
+      <c r="HK17" s="74"/>
+      <c r="HL17" s="74"/>
+      <c r="HM17" s="74"/>
+      <c r="HN17" s="74"/>
+      <c r="HO17" s="74"/>
+      <c r="HP17" s="74"/>
+      <c r="HQ17" s="74"/>
+      <c r="HR17" s="74"/>
+      <c r="HS17" s="74"/>
+      <c r="HT17" s="74"/>
+      <c r="HU17" s="74"/>
+      <c r="HV17" s="74"/>
+      <c r="HW17" s="74"/>
+      <c r="HX17" s="74"/>
+      <c r="HY17" s="74"/>
+      <c r="HZ17" s="74"/>
+      <c r="IA17" s="74"/>
+      <c r="IB17" s="74"/>
+      <c r="IC17" s="74"/>
+      <c r="ID17" s="74"/>
+      <c r="IE17" s="74"/>
+      <c r="IF17" s="74"/>
+      <c r="IG17" s="74"/>
+      <c r="IH17" s="74"/>
+      <c r="II17" s="74"/>
+      <c r="IJ17" s="74"/>
+      <c r="IK17" s="74"/>
+      <c r="IL17" s="74"/>
+      <c r="IM17" s="74"/>
+      <c r="IN17" s="74"/>
+      <c r="IO17" s="74"/>
+      <c r="IP17" s="74"/>
+      <c r="IQ17" s="74"/>
+      <c r="IR17" s="74"/>
+      <c r="IS17" s="74"/>
+      <c r="IT17" s="74"/>
+      <c r="IU17" s="74"/>
+      <c r="IV17" s="74"/>
+    </row>
+    <row r="18" spans="1:256" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>910</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>691</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>463</v>
-      </c>
       <c r="B18" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="E18" s="23"/>
+        <v>909</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>1003</v>
+      </c>
       <c r="F18" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="23" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -15927,18 +16207,18 @@
       </c>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>915</v>
+        <v>465</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -15946,18 +16226,18 @@
       </c>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -15965,18 +16245,18 @@
       </c>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -15984,141 +16264,160 @@
       </c>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>920</v>
-      </c>
-      <c r="D23" s="23" t="s">
+      <c r="B24" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>1122</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="D25" s="29" t="s">
         <v>1123</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>1127</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>1128</v>
+        <v>1085</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:256" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:256" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16175,16 +16474,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>923</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="23" t="s">
@@ -16194,16 +16493,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="4" t="s">
@@ -16213,16 +16512,16 @@
     </row>
     <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="4" t="s">
@@ -16534,16 +16833,16 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>931</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="4" t="s">
@@ -16556,13 +16855,13 @@
         <v>564</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="4" t="s">
@@ -16575,13 +16874,13 @@
         <v>501</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="4" t="s">
@@ -16594,13 +16893,13 @@
         <v>504</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="4" t="s">
@@ -16613,13 +16912,13 @@
         <v>507</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="4" t="s">
@@ -16632,22 +16931,22 @@
         <v>510</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>691</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
@@ -16655,13 +16954,13 @@
         <v>515</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="4" t="s">
@@ -16674,13 +16973,13 @@
         <v>518</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="4" t="s">
@@ -16693,13 +16992,13 @@
         <v>520</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="4" t="s">
@@ -16712,13 +17011,13 @@
         <v>521</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="4" t="s">
@@ -16731,10 +17030,10 @@
         <v>524</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>523</v>
@@ -16750,13 +17049,13 @@
         <v>527</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>691</v>
@@ -16768,20 +17067,20 @@
         <v>533</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="4" t="s">
         <v>691</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16789,13 +17088,13 @@
         <v>536</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="4" t="s">
@@ -16808,13 +17107,13 @@
         <v>567</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="4" t="s">
@@ -16824,16 +17123,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>960</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="4" t="s">
@@ -16846,13 +17145,13 @@
         <v>599</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="4" t="s">
@@ -16862,25 +17161,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>965</v>
-      </c>
       <c r="E19" s="27" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>691</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16888,13 +17187,13 @@
         <v>633</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="4" t="s">
@@ -16907,56 +17206,56 @@
         <v>635</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>691</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>973</v>
-      </c>
       <c r="E22" s="31" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>709</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>547</v>
@@ -17216,13 +17515,13 @@
     </row>
     <row r="24" spans="1:256" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>551</v>
@@ -17482,19 +17781,19 @@
     </row>
     <row r="25" spans="1:256" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -17750,13 +18049,13 @@
     </row>
     <row r="26" spans="1:256" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>553</v>
@@ -18016,13 +18315,13 @@
     </row>
     <row r="27" spans="1:256" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>670</v>
@@ -18282,34 +18581,34 @@
     </row>
     <row r="28" spans="1:256" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>529</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="23" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="29" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>530</v>
@@ -18620,40 +18919,40 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>691</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1154</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>709</v>
@@ -18662,19 +18961,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>1155</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1157</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>709</v>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EF3A1-3FDB-4954-9FCC-4BE538364187}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64902D84-F366-44B0-A7DA-AB6581BBCAD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16830" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4602,23 +4602,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="84.59765625" style="2" customWidth="1"/>
     <col min="7" max="1025" width="8.5" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>50</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>54</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>54</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>54</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>54</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>54</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>54</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>54</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>54</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>54</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>54</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>54</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>54</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>54</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>54</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>54</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>54</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>54</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>54</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>54</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>54</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>54</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>54</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
         <v>54</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
         <v>54</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>54</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>54</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>54</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>54</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>54</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>54</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>54</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>54</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>54</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>54</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>54</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
         <v>54</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>54</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="38" t="s">
         <v>119</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
         <v>54</v>
       </c>
@@ -5388,7 +5388,7 @@
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>54</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>54</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>54</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>54</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>54</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>54</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>54</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>54</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>54</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
         <v>119</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
         <v>54</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
         <v>54</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
         <v>54</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>54</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>54</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>54</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>54</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>54</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
         <v>54</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
         <v>54</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>54</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
         <v>54</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>54</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>54</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>54</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>54</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
         <v>54</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
         <v>54</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>54</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>54</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>54</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>54</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>54</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>54</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>119</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>54</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>54</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>54</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>54</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>54</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>54</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>54</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>54</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>54</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>119</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="38" t="s">
         <v>54</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>54</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
         <v>54</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="38" t="s">
         <v>54</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="38" t="s">
         <v>54</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>54</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" s="38" t="s">
         <v>119</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="38" t="s">
         <v>54</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
         <v>54</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>54</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
         <v>54</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>119</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="38" t="s">
         <v>54</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="38" t="s">
         <v>54</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
         <v>54</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
         <v>54</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
         <v>54</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
         <v>54</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A109" s="38" t="s">
         <v>54</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="38" t="s">
         <v>54</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
         <v>54</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="38" t="s">
         <v>54</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="38" t="s">
         <v>54</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="38" t="s">
         <v>119</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="38" t="s">
         <v>54</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="38" t="s">
         <v>54</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="38" t="s">
         <v>54</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
         <v>54</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
         <v>54</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
         <v>54</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>54</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
         <v>54</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="38" t="s">
         <v>54</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="38" t="s">
         <v>54</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="38" t="s">
         <v>54</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="38" t="s">
         <v>119</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="38" t="s">
         <v>54</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="E127" s="32"/>
       <c r="F127" s="32"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="38" t="s">
         <v>54</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="38" t="s">
         <v>54</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="38" t="s">
         <v>54</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="38" t="s">
         <v>54</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" s="38" t="s">
         <v>54</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
         <v>54</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="38" t="s">
         <v>54</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="40" t="s">
         <v>54</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="38" t="s">
         <v>54</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>54</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
         <v>54</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="E138" s="32"/>
       <c r="F138" s="32"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>54</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="E139" s="32"/>
       <c r="F139" s="32"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="38" t="s">
         <v>54</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>54</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="38" t="s">
         <v>54</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A143" s="38" t="s">
         <v>54</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
         <v>54</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>54</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="40" t="s">
         <v>54</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="38" t="s">
         <v>54</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A148" s="38" t="s">
         <v>54</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="38" t="s">
         <v>119</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="38" t="s">
         <v>54</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="E150" s="41"/>
       <c r="F150" s="32"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>54</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="E151" s="41"/>
       <c r="F151" s="32"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="38" t="s">
         <v>54</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
         <v>54</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="38" t="s">
         <v>54</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="38" t="s">
         <v>54</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="E155" s="41"/>
       <c r="F155" s="41"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>54</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="E156" s="41"/>
       <c r="F156" s="41"/>
     </row>
-    <row r="157" spans="1:6" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="38" t="s">
         <v>54</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="E157" s="41"/>
       <c r="F157" s="41"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="38" t="s">
         <v>54</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="E158" s="51"/>
       <c r="F158" s="41"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="31" t="s">
         <v>54</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="31" t="s">
         <v>54</v>
       </c>
@@ -7370,7 +7370,7 @@
       <c r="E160" s="41"/>
       <c r="F160" s="41"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="31" t="s">
         <v>54</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="31" t="s">
         <v>54</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="31" t="s">
         <v>54</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="31" t="s">
         <v>54</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A165" s="38" t="s">
         <v>54</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="38" t="s">
         <v>54</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="E166" s="41"/>
       <c r="F166" s="41"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="31" t="s">
         <v>54</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="38" t="s">
         <v>54</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" s="38" t="s">
         <v>54</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="38" t="s">
         <v>54</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="38" t="s">
         <v>54</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="38" t="s">
         <v>54</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="38" t="s">
         <v>54</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A174" s="38" t="s">
         <v>54</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="38" t="s">
         <v>54</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="38" t="s">
         <v>54</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="38" t="s">
         <v>54</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="38" t="s">
         <v>54</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="E178" s="41"/>
       <c r="F178" s="41"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="38" t="s">
         <v>54</v>
       </c>
@@ -7700,7 +7700,7 @@
       <c r="E179" s="41"/>
       <c r="F179" s="41"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="38" t="s">
         <v>54</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="38" t="s">
         <v>54</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="38" t="s">
         <v>54</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="38" t="s">
         <v>54</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="38" t="s">
         <v>54</v>
       </c>
@@ -7786,7 +7786,7 @@
       <c r="E184" s="41"/>
       <c r="F184" s="41"/>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
         <v>54</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="38" t="s">
         <v>54</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A187" s="38" t="s">
         <v>54</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="38" t="s">
         <v>54</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A189" s="38" t="s">
         <v>54</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="38" t="s">
         <v>54</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="38" t="s">
         <v>54</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A192" s="38" t="s">
         <v>54</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="38" t="s">
         <v>54</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A194" s="38" t="s">
         <v>54</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="38" t="s">
         <v>54</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="38" t="s">
         <v>54</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="E196" s="41"/>
       <c r="F196" s="41"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="38" t="s">
         <v>54</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="E197" s="41"/>
       <c r="F197" s="41"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="38" t="s">
         <v>54</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
         <v>54</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="38" t="s">
         <v>54</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="38" t="s">
         <v>54</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="38" t="s">
         <v>54</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="E202" s="41"/>
       <c r="F202" s="41"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="38" t="s">
         <v>54</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="38" t="s">
         <v>54</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="38" t="s">
         <v>54</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
         <v>54</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A207" s="38" t="s">
         <v>54</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="38" t="s">
         <v>54</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="38" t="s">
         <v>54</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A210" s="38" t="s">
         <v>54</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="38" t="s">
         <v>54</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
         <v>54</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="38" t="s">
         <v>54</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="38" t="s">
         <v>54</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="E214" s="41"/>
       <c r="F214" s="41"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="38" t="s">
         <v>54</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="E215" s="41"/>
       <c r="F215" s="41"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="38" t="s">
         <v>54</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="38" t="s">
         <v>54</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="38" t="s">
         <v>54</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A219" s="38" t="s">
         <v>54</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A220" s="38" t="s">
         <v>54</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="38" t="s">
         <v>54</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="38" t="s">
         <v>54</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
         <v>54</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A224" s="38" t="s">
         <v>54</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="38" t="s">
         <v>54</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="38" t="s">
         <v>54</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="38" t="s">
         <v>54</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="38" t="s">
         <v>54</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="E228" s="41"/>
       <c r="F228" s="41"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="38" t="s">
         <v>54</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="38" t="s">
         <v>54</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="38" t="s">
         <v>54</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="38" t="s">
         <v>54</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="38" t="s">
         <v>54</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="38" t="s">
         <v>54</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="38" t="s">
         <v>54</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A236" s="38" t="s">
         <v>54</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="38" t="s">
         <v>54</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="38" t="s">
         <v>54</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="38" t="s">
         <v>54</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="38" t="s">
         <v>54</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="E240" s="41"/>
       <c r="F240" s="41"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="38" t="s">
         <v>54</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="38" t="s">
         <v>54</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="38" t="s">
         <v>54</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="E243" s="41"/>
       <c r="F243" s="41"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="38" t="s">
         <v>54</v>
       </c>
@@ -8832,7 +8832,7 @@
       <c r="E244" s="37"/>
       <c r="F244" s="37"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="38" t="s">
         <v>54</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="E245" s="41"/>
       <c r="F245" s="41"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="38" t="s">
         <v>54</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="E246" s="41"/>
       <c r="F246" s="41"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="38" t="s">
         <v>54</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="38" t="s">
         <v>54</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="38" t="s">
         <v>54</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="38" t="s">
         <v>54</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="38" t="s">
         <v>54</v>
       </c>
@@ -8946,7 +8946,7 @@
       <c r="E251" s="50"/>
       <c r="F251" s="50"/>
     </row>
-    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="38" t="s">
         <v>54</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="38" t="s">
         <v>54</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="38" t="s">
         <v>54</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="38" t="s">
         <v>54</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="38" t="s">
         <v>54</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="E256" s="41"/>
       <c r="F256" s="41"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="38" t="s">
         <v>54</v>
       </c>
@@ -9048,7 +9048,7 @@
       <c r="E257" s="37"/>
       <c r="F257" s="37"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="38" t="s">
         <v>54</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="E258" s="37"/>
       <c r="F258" s="37"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="38" t="s">
         <v>54</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="E259" s="41"/>
       <c r="F259" s="41"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="38" t="s">
         <v>54</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="E260" s="41"/>
       <c r="F260" s="41"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="38" t="s">
         <v>54</v>
       </c>
@@ -9106,7 +9106,7 @@
       <c r="E261" s="41"/>
       <c r="F261" s="41"/>
     </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A262" s="38" t="s">
         <v>54</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="38" t="s">
         <v>54</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A264" s="38" t="s">
         <v>54</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A265" s="38" t="s">
         <v>54</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="38" t="s">
         <v>54</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
         <v>54</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A268" s="38" t="s">
         <v>54</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A269" s="38" t="s">
         <v>54</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A270" s="38" t="s">
         <v>54</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A271" s="38" t="s">
         <v>54</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A272" s="38" t="s">
         <v>54</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="38" t="s">
         <v>54</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="38" t="s">
         <v>54</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="38" t="s">
         <v>54</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="E275" s="41"/>
       <c r="F275" s="41"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="38" t="s">
         <v>54</v>
       </c>
@@ -9368,7 +9368,7 @@
       <c r="E276" s="41"/>
       <c r="F276" s="41"/>
     </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="38" t="s">
         <v>54</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="38" t="s">
         <v>54</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A279" s="38" t="s">
         <v>54</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A280" s="38" t="s">
         <v>54</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="38" t="s">
         <v>54</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="38" t="s">
         <v>54</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="38" t="s">
         <v>54</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A284" s="38" t="s">
         <v>54</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="38" t="s">
         <v>54</v>
       </c>
@@ -9526,7 +9526,7 @@
       <c r="E285" s="41"/>
       <c r="F285" s="41"/>
     </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A286" s="38" t="s">
         <v>54</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A287" s="38" t="s">
         <v>54</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A288" s="38" t="s">
         <v>54</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A289" s="38" t="s">
         <v>54</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A290" s="38" t="s">
         <v>54</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A291" s="38" t="s">
         <v>54</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="38" t="s">
         <v>54</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A293" s="38" t="s">
         <v>54</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="38" t="s">
         <v>54</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="E294" s="41"/>
       <c r="F294" s="41"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="38" t="s">
         <v>54</v>
       </c>
@@ -9698,7 +9698,7 @@
       <c r="E295" s="41"/>
       <c r="F295" s="41"/>
     </row>
-    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A296" s="38" t="s">
         <v>54</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="38" t="s">
         <v>54</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A298" s="38" t="s">
         <v>54</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A299" s="38" t="s">
         <v>54</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="38" t="s">
         <v>54</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="38" t="s">
         <v>54</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="38" t="s">
         <v>54</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A303" s="38" t="s">
         <v>54</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A304" s="38" t="s">
         <v>54</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A305" s="38" t="s">
         <v>54</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A306" s="38" t="s">
         <v>54</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A307" s="38" t="s">
         <v>54</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A308" s="38" t="s">
         <v>54</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A309" s="38" t="s">
         <v>54</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A310" s="38" t="s">
         <v>54</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A311" s="38" t="s">
         <v>54</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="38" t="s">
         <v>54</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="E312" s="41"/>
       <c r="F312" s="41"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="38" t="s">
         <v>54</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="E313" s="41"/>
       <c r="F313" s="41"/>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A314" s="38" t="s">
         <v>54</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="38" t="s">
         <v>54</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="E315" s="41"/>
       <c r="F315" s="41"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="38" t="s">
         <v>54</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="38" t="s">
         <v>54</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="38" t="s">
         <v>54</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A319" s="38" t="s">
         <v>54</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="38" t="s">
         <v>54</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="38" t="s">
         <v>54</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
         <v>54</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="38" t="s">
         <v>54</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="E323" s="41"/>
       <c r="F323" s="41"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>54</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="E324" s="41"/>
       <c r="F324" s="41"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A325" s="38" t="s">
         <v>54</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="38" t="s">
         <v>54</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A327" s="38" t="s">
         <v>54</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A328" s="38" t="s">
         <v>54</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="38" t="s">
         <v>54</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="38" t="s">
         <v>54</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="38" t="s">
         <v>54</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>54</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A333" s="38" t="s">
         <v>54</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A334" s="38" t="s">
         <v>54</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A335" s="38" t="s">
         <v>54</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A336" s="38" t="s">
         <v>54</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A337" s="38" t="s">
         <v>54</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A338" s="38" t="s">
         <v>54</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A339" s="38" t="s">
         <v>54</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A340" s="38" t="s">
         <v>54</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="38" t="s">
         <v>54</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="E341" s="41"/>
       <c r="F341" s="41"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>54</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="E342" s="41"/>
       <c r="F342" s="41"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="38" t="s">
         <v>54</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="E343" s="41"/>
       <c r="F343" s="41"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
         <v>54</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A345" s="38" t="s">
         <v>54</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A346" s="38" t="s">
         <v>54</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="38" t="s">
         <v>54</v>
       </c>
@@ -10598,7 +10598,7 @@
       <c r="E347" s="41"/>
       <c r="F347" s="41"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="38" t="s">
         <v>54</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="38" t="s">
         <v>54</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="38" t="s">
         <v>54</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A351" s="38" t="s">
         <v>54</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>54</v>
       </c>
@@ -10684,7 +10684,7 @@
       <c r="E352" s="41"/>
       <c r="F352" s="41"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="38" t="s">
         <v>54</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>54</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="38" t="s">
         <v>54</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>54</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>517</v>
       </c>
       <c r="C356" s="44" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="D356" s="37" t="s">
         <v>519</v>
@@ -10756,7 +10756,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="38" t="s">
         <v>54</v>
       </c>
@@ -10770,7 +10770,7 @@
       <c r="E357" s="41"/>
       <c r="F357" s="41"/>
     </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A358" s="38" t="s">
         <v>54</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A359" s="38" t="s">
         <v>54</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>54</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>54</v>
       </c>
@@ -10838,7 +10838,7 @@
       <c r="E361" s="41"/>
       <c r="F361" s="41"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>54</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>54</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="38" t="s">
         <v>54</v>
       </c>
@@ -10888,7 +10888,7 @@
       <c r="E364" s="41"/>
       <c r="F364" s="41"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>54</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>54</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>54</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>54</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>54</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="38" t="s">
         <v>54</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="E370" s="41"/>
       <c r="F370" s="41"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>54</v>
       </c>
@@ -11006,7 +11006,7 @@
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>54</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A373" s="38" t="s">
         <v>54</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>54</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="38" t="s">
         <v>54</v>
       </c>
@@ -11074,7 +11074,7 @@
       <c r="E375" s="41"/>
       <c r="F375" s="41"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>54</v>
       </c>
@@ -11088,7 +11088,7 @@
       <c r="E376" s="41"/>
       <c r="F376" s="41"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="38" t="s">
         <v>54</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>54</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>54</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A380" s="38" t="s">
         <v>54</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>54</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A382" s="38" t="s">
         <v>54</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>54</v>
       </c>
@@ -11210,7 +11210,7 @@
       <c r="E383" s="41"/>
       <c r="F383" s="41"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>54</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>54</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="38" t="s">
         <v>54</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="E386" s="41"/>
       <c r="F386" s="41"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="38" t="s">
         <v>54</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>54</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>54</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>54</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="38" t="s">
         <v>54</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="38" t="s">
         <v>54</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="E392" s="41"/>
       <c r="F392" s="41"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>54</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>54</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A395" s="38" t="s">
         <v>54</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>54</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="38" t="s">
         <v>54</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="E397" s="41"/>
       <c r="F397" s="41"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>54</v>
       </c>
@@ -11460,7 +11460,7 @@
       <c r="E398" s="41"/>
       <c r="F398" s="41"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>54</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>54</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>54</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>54</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A403" s="38" t="s">
         <v>54</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A404" s="38" t="s">
         <v>54</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>54</v>
       </c>
@@ -11582,7 +11582,7 @@
       <c r="E405" s="41"/>
       <c r="F405" s="41"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>54</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>54</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="38" t="s">
         <v>54</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="E408" s="41"/>
       <c r="F408" s="41"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>54</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>54</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>54</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>54</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="38" t="s">
         <v>54</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="38" t="s">
         <v>54</v>
       </c>
@@ -11736,7 +11736,7 @@
       <c r="E414" s="41"/>
       <c r="F414" s="41"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="38" t="s">
         <v>54</v>
       </c>
@@ -11750,7 +11750,7 @@
       <c r="E415" s="41"/>
       <c r="F415" s="41"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A416" s="38" t="s">
         <v>54</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A417" s="38" t="s">
         <v>54</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>54</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="38" t="s">
         <v>54</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="E419" s="41"/>
       <c r="F419" s="41"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>54</v>
       </c>
@@ -11832,7 +11832,7 @@
       <c r="E420" s="41"/>
       <c r="F420" s="41"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="38" t="s">
         <v>54</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>54</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="38" t="s">
         <v>54</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A424" s="38" t="s">
         <v>54</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="38" t="s">
         <v>54</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="E425" s="41"/>
       <c r="F425" s="41"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>54</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>54</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="38" t="s">
         <v>54</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="38" t="s">
         <v>54</v>
       </c>
@@ -11986,7 +11986,7 @@
       <c r="E429" s="41"/>
       <c r="F429" s="41"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>54</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="38" t="s">
         <v>54</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>54</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>54</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>54</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>54</v>
       </c>
@@ -12090,7 +12090,7 @@
       <c r="E435" s="41"/>
       <c r="F435" s="41"/>
     </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A436" s="38" t="s">
         <v>54</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="38" t="s">
         <v>54</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>54</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="38" t="s">
         <v>54</v>
       </c>
@@ -12158,7 +12158,7 @@
       <c r="E439" s="41"/>
       <c r="F439" s="41"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>54</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="38" t="s">
         <v>54</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="38" t="s">
         <v>54</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="E442" s="41"/>
       <c r="F442" s="41"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>54</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>54</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="E444" s="41"/>
       <c r="F444" s="41"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="38" t="s">
         <v>54</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="38" t="s">
         <v>54</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="38" t="s">
         <v>54</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="38" t="s">
         <v>54</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="E448" s="32"/>
       <c r="F448" s="41"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>54</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>54</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="38" t="s">
         <v>54</v>
       </c>
@@ -12348,7 +12348,7 @@
       <c r="E451" s="41"/>
       <c r="F451" s="41"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>54</v>
       </c>
@@ -12362,7 +12362,7 @@
       <c r="E452" s="41"/>
       <c r="F452" s="41"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A453" s="38" t="s">
         <v>54</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A454" s="38" t="s">
         <v>54</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="38" t="s">
         <v>54</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="38" t="s">
         <v>54</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="E456" s="41"/>
       <c r="F456" s="41"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="38" t="s">
         <v>54</v>
       </c>
@@ -12444,7 +12444,7 @@
       <c r="E457" s="41"/>
       <c r="F457" s="41"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="38" t="s">
         <v>54</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="38" t="s">
         <v>54</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="38" t="s">
         <v>54</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A461" s="38" t="s">
         <v>54</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="38" t="s">
         <v>54</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A463" s="38" t="s">
         <v>54</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="38" t="s">
         <v>54</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="38" t="s">
         <v>54</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="E465" s="41"/>
       <c r="F465" s="41"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="38" t="s">
         <v>54</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="38" t="s">
         <v>54</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="38" t="s">
         <v>54</v>
       </c>
@@ -12632,7 +12632,7 @@
       <c r="E468" s="41"/>
       <c r="F468" s="41"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>54</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="38" t="s">
         <v>54</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>54</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>54</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="38" t="s">
         <v>54</v>
       </c>
@@ -12737,18 +12737,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>692</v>
       </c>
@@ -12880,24 +12880,24 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="100" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>678</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>704</v>
       </c>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>107</v>
       </c>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -13129,7 +13129,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>110</v>
       </c>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>113</v>
       </c>
@@ -13226,7 +13226,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>717</v>
       </c>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>126</v>
       </c>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>129</v>
       </c>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>132</v>
       </c>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>135</v>
       </c>
@@ -13321,7 +13321,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>138</v>
       </c>
@@ -13340,7 +13340,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>174</v>
       </c>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>153</v>
       </c>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>156</v>
       </c>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>159</v>
       </c>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>162</v>
       </c>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>165</v>
       </c>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>171</v>
       </c>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>210</v>
       </c>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>213</v>
       </c>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>216</v>
       </c>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>219</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>454</v>
       </c>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>232</v>
       </c>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>226</v>
       </c>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>224</v>
       </c>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>231</v>
       </c>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>1005</v>
       </c>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>1007</v>
       </c>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1009</v>
       </c>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>1012</v>
       </c>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>1014</v>
       </c>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>1020</v>
       </c>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>1023</v>
       </c>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>1026</v>
       </c>
@@ -13855,7 +13855,7 @@
       </c>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>1029</v>
       </c>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>1039</v>
       </c>
@@ -13893,7 +13893,7 @@
       </c>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>1040</v>
       </c>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>1060</v>
       </c>
@@ -13931,7 +13931,7 @@
       </c>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1067</v>
       </c>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>1167</v>
       </c>
@@ -13987,19 +13987,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -14271,7 +14271,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>752</v>
       </c>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>755</v>
       </c>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>757</v>
       </c>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>759</v>
       </c>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>761</v>
       </c>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>764</v>
       </c>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>767</v>
       </c>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>770</v>
       </c>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>773</v>
       </c>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>775</v>
       </c>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>777</v>
       </c>
@@ -14480,7 +14480,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>780</v>
       </c>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>782</v>
       </c>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>784</v>
       </c>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>973</v>
       </c>
@@ -14556,7 +14556,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>967</v>
       </c>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>786</v>
       </c>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>788</v>
       </c>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>790</v>
       </c>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>792</v>
       </c>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>795</v>
       </c>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>797</v>
       </c>
@@ -14689,7 +14689,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>799</v>
       </c>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>801</v>
       </c>
@@ -14727,7 +14727,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>804</v>
       </c>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>806</v>
       </c>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>809</v>
       </c>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>811</v>
       </c>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>813</v>
       </c>
@@ -14822,7 +14822,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>815</v>
       </c>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>818</v>
       </c>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>821</v>
       </c>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>824</v>
       </c>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>827</v>
       </c>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>829</v>
       </c>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>832</v>
       </c>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>835</v>
       </c>
@@ -14974,7 +14974,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>838</v>
       </c>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>841</v>
       </c>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>845</v>
       </c>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>848</v>
       </c>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>851</v>
       </c>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>855</v>
       </c>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>859</v>
       </c>
@@ -15115,7 +15115,7 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>863</v>
       </c>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>866</v>
       </c>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>869</v>
       </c>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>872</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="IU49" s="16"/>
       <c r="IV49" s="16"/>
     </row>
-    <row r="50" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>1136</v>
       </c>
@@ -15473,21 +15473,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>678</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>369</v>
       </c>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>372</v>
       </c>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>375</v>
       </c>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>389</v>
       </c>
@@ -15586,7 +15586,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>378</v>
       </c>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>381</v>
       </c>
@@ -15624,7 +15624,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>384</v>
       </c>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>387</v>
       </c>
@@ -15662,7 +15662,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>392</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1235</v>
       </c>
@@ -15700,7 +15700,7 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>892</v>
       </c>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>395</v>
       </c>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>397</v>
       </c>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>400</v>
       </c>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>430</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>433</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>459</v>
       </c>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>462</v>
       </c>
@@ -15860,7 +15860,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>465</v>
       </c>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>468</v>
       </c>
@@ -15898,7 +15898,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>472</v>
       </c>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>418</v>
       </c>
@@ -15936,7 +15936,7 @@
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>1097</v>
       </c>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>1075</v>
       </c>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1103</v>
       </c>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>1106</v>
       </c>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>1109</v>
       </c>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>1112</v>
       </c>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>1115</v>
       </c>
@@ -16087,19 +16087,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="75.59765625" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>678</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>911</v>
       </c>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>914</v>
       </c>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>916</v>
       </c>
@@ -16195,21 +16195,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="6" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="6" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -16481,7 +16481,7 @@
       <c r="IU1" s="12"/>
       <c r="IV1" s="12"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>918</v>
       </c>
@@ -16500,7 +16500,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>559</v>
       </c>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>496</v>
       </c>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>499</v>
       </c>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>502</v>
       </c>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>505</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>510</v>
       </c>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>513</v>
       </c>
@@ -16637,7 +16637,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>515</v>
       </c>
@@ -16656,7 +16656,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>516</v>
       </c>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>519</v>
       </c>
@@ -16694,7 +16694,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>522</v>
       </c>
@@ -16712,7 +16712,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>528</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>531</v>
       </c>
@@ -16752,7 +16752,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>562</v>
       </c>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>948</v>
       </c>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>594</v>
       </c>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>953</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>628</v>
       </c>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>630</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>961</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>980</v>
       </c>
@@ -17163,7 +17163,7 @@
       <c r="IU23" s="16"/>
       <c r="IV23" s="16"/>
     </row>
-    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>978</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="IU24" s="16"/>
       <c r="IV24" s="16"/>
     </row>
-    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>975</v>
       </c>
@@ -17697,7 +17697,7 @@
       <c r="IU25" s="16"/>
       <c r="IV25" s="16"/>
     </row>
-    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>976</v>
       </c>
@@ -17963,7 +17963,7 @@
       <c r="IU26" s="16"/>
       <c r="IV26" s="16"/>
     </row>
-    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>977</v>
       </c>
@@ -18229,7 +18229,7 @@
       <c r="IU27" s="16"/>
       <c r="IV27" s="16"/>
     </row>
-    <row r="28" spans="1:256" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1149</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="29" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1151</v>
       </c>
@@ -18283,19 +18283,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="5" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>678</v>
       </c>
@@ -18567,7 +18567,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1069</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>1127</v>
       </c>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1130</v>
       </c>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293FD8A-7E8A-4061-BA3C-3EA5BC333DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECA1DD-8E9F-481C-916D-2FE53F89E3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="0" windowWidth="20904" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3460,9 +3460,6 @@
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>2.5.29.31</t>
   </si>
   <si>
@@ -3813,6 +3810,9 @@
   </si>
   <si>
     <t>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -4629,7 +4629,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>996</v>
@@ -4640,10 +4640,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -4654,7 +4654,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>56</v>
@@ -4811,7 +4811,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>76</v>
@@ -4829,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>78</v>
@@ -4865,7 +4865,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -4880,7 +4880,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>1</v>
@@ -4911,7 +4911,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>56</v>
@@ -4983,7 +4983,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>89</v>
@@ -5127,7 +5127,7 @@
         <v>1012</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>1013</v>
@@ -5268,7 +5268,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>718</v>
@@ -5376,10 +5376,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>1180</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>1181</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -5407,7 +5407,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>56</v>
@@ -5479,10 +5479,10 @@
         <v>125</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="37" t="s">
@@ -5584,7 +5584,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>2</v>
@@ -5615,7 +5615,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>56</v>
@@ -5687,7 +5687,7 @@
         <v>143</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>118</v>
@@ -5774,7 +5774,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>3</v>
@@ -5805,7 +5805,7 @@
         <v>148</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>56</v>
@@ -5877,7 +5877,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D73" s="37" t="s">
         <v>153</v>
@@ -5895,7 +5895,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>156</v>
@@ -5913,7 +5913,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>1038</v>
@@ -5931,7 +5931,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>1039</v>
@@ -5949,7 +5949,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>159</v>
@@ -5967,7 +5967,7 @@
         <v>1040</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>162</v>
@@ -5985,7 +5985,7 @@
         <v>1041</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>165</v>
@@ -6018,7 +6018,7 @@
         <v>54</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C81" s="32" t="s">
         <v>4</v>
@@ -6049,7 +6049,7 @@
         <v>166</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>56</v>
@@ -6121,7 +6121,7 @@
         <v>170</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D87" s="37" t="s">
         <v>171</v>
@@ -6190,7 +6190,7 @@
         <v>54</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>5</v>
@@ -6221,7 +6221,7 @@
         <v>178</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>56</v>
@@ -6293,10 +6293,10 @@
         <v>182</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="37" t="s">
@@ -6398,7 +6398,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C103" s="32" t="s">
         <v>6</v>
@@ -6429,7 +6429,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>56</v>
@@ -6501,10 +6501,10 @@
         <v>191</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E109" s="37"/>
       <c r="F109" s="37" t="s">
@@ -6606,7 +6606,7 @@
         <v>54</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>7</v>
@@ -6637,7 +6637,7 @@
         <v>196</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>56</v>
@@ -6709,10 +6709,10 @@
         <v>200</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D121" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="37" t="s">
@@ -6814,7 +6814,7 @@
         <v>54</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>8</v>
@@ -6845,7 +6845,7 @@
         <v>205</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D129" s="37" t="s">
         <v>56</v>
@@ -6917,7 +6917,7 @@
         <v>209</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>210</v>
@@ -7004,7 +7004,7 @@
         <v>54</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>9</v>
@@ -7035,7 +7035,7 @@
         <v>220</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D140" s="37" t="s">
         <v>56</v>
@@ -7197,7 +7197,7 @@
         <v>1070</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D149" s="37" t="s">
         <v>232</v>
@@ -7212,7 +7212,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>10</v>
@@ -7226,7 +7226,7 @@
         <v>54</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>11</v>
@@ -7272,7 +7272,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C154" s="37" t="s">
         <v>235</v>
@@ -7288,7 +7288,7 @@
         <v>54</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>14</v>
@@ -7302,7 +7302,7 @@
         <v>54</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>15</v>
@@ -7316,7 +7316,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C157" s="41" t="s">
         <v>16</v>
@@ -7330,7 +7330,7 @@
         <v>54</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>17</v>
@@ -7344,7 +7344,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>18</v>
@@ -7674,7 +7674,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C178" s="43" t="s">
         <v>21</v>
@@ -7986,7 +7986,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="37" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C196" s="32" t="s">
         <v>24</v>
@@ -8298,7 +8298,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C214" s="43" t="s">
         <v>305</v>
@@ -8834,7 +8834,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C245" s="41" t="s">
         <v>27</v>
@@ -8862,10 +8862,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C247" s="44" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D247" s="37" t="s">
         <v>814</v>
@@ -8880,10 +8880,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C248" s="44" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D248" s="37" t="s">
         <v>817</v>
@@ -8898,10 +8898,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C249" s="44" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D249" s="37" t="s">
         <v>820</v>
@@ -8916,10 +8916,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C250" s="44" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D250" s="37" t="s">
         <v>823</v>
@@ -8948,10 +8948,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="37" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D252" s="37" t="s">
         <v>1068</v>
@@ -8966,10 +8966,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D253" s="37" t="s">
         <v>1068</v>
@@ -8984,10 +8984,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D254" s="37" t="s">
         <v>1068</v>
@@ -9002,10 +9002,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D255" s="37" t="s">
         <v>1068</v>
@@ -9020,7 +9020,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C256" s="32" t="s">
         <v>30</v>
@@ -9066,7 +9066,7 @@
         <v>54</v>
       </c>
       <c r="B259" s="35" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C259" s="36" t="s">
         <v>33</v>
@@ -9080,7 +9080,7 @@
         <v>54</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C260" s="32" t="s">
         <v>1</v>
@@ -9342,7 +9342,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C275" s="32" t="s">
         <v>401</v>
@@ -9409,7 +9409,7 @@
         <v>407</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D279" s="37" t="s">
         <v>375</v>
@@ -9514,10 +9514,10 @@
         <v>54</v>
       </c>
       <c r="B285" s="37" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C285" s="41" t="s">
         <v>1152</v>
-      </c>
-      <c r="C285" s="41" t="s">
-        <v>1153</v>
       </c>
       <c r="D285" s="41"/>
       <c r="E285" s="41"/>
@@ -9531,7 +9531,7 @@
         <v>417</v>
       </c>
       <c r="C286" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D286" s="37" t="s">
         <v>418</v>
@@ -9639,7 +9639,7 @@
         <v>428</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D292" s="37" t="s">
         <v>430</v>
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C294" s="32" t="s">
         <v>35</v>
@@ -9847,7 +9847,7 @@
         <v>443</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D304" s="37" t="s">
         <v>418</v>
@@ -9955,7 +9955,7 @@
         <v>449</v>
       </c>
       <c r="C310" s="37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D310" s="37" t="s">
         <v>430</v>
@@ -9988,7 +9988,7 @@
         <v>54</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C312" s="32" t="s">
         <v>8</v>
@@ -10051,10 +10051,10 @@
         <v>456</v>
       </c>
       <c r="C316" s="37" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D316" s="37" t="s">
         <v>1233</v>
-      </c>
-      <c r="D316" s="37" t="s">
-        <v>1234</v>
       </c>
       <c r="E316" s="42"/>
       <c r="F316" s="37" t="s">
@@ -10141,7 +10141,7 @@
         <v>469</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D321" s="37" t="s">
         <v>418</v>
@@ -10174,7 +10174,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C323" s="45" t="s">
         <v>37</v>
@@ -10349,7 +10349,7 @@
         <v>480</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D333" s="37" t="s">
         <v>418</v>
@@ -10457,7 +10457,7 @@
         <v>1078</v>
       </c>
       <c r="C339" s="37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D339" s="37" t="s">
         <v>430</v>
@@ -10490,7 +10490,7 @@
         <v>54</v>
       </c>
       <c r="B341" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C341" s="47" t="s">
         <v>38</v>
@@ -10778,7 +10778,7 @@
         <v>523</v>
       </c>
       <c r="D358" s="37" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E358" s="37"/>
       <c r="F358" s="37" t="s">
@@ -12098,7 +12098,7 @@
         <v>523</v>
       </c>
       <c r="D436" s="37" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E436" s="37"/>
       <c r="F436" s="37" t="s">
@@ -12116,7 +12116,7 @@
         <v>642</v>
       </c>
       <c r="D437" s="37" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E437" s="37"/>
       <c r="F437" s="37" t="s">
@@ -12706,7 +12706,7 @@
         <v>54</v>
       </c>
       <c r="B473" s="37" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C473" s="37" t="s">
         <v>547</v>
@@ -12985,7 +12985,7 @@
         <v>699</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -13004,7 +13004,7 @@
         <v>700</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -13023,7 +13023,7 @@
         <v>701</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -13061,7 +13061,7 @@
         <v>707</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -13216,7 +13216,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>685</v>
@@ -13253,7 +13253,7 @@
         <v>720</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
@@ -13367,7 +13367,7 @@
         <v>727</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -13424,7 +13424,7 @@
         <v>732</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
@@ -13519,7 +13519,7 @@
         <v>738</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -13538,7 +13538,7 @@
         <v>740</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -13635,7 +13635,7 @@
         <v>746</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
@@ -13711,7 +13711,7 @@
         <v>1083</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
@@ -13730,7 +13730,7 @@
         <v>1084</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
@@ -13749,7 +13749,7 @@
         <v>1085</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
@@ -13768,7 +13768,7 @@
         <v>1086</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
@@ -13787,7 +13787,7 @@
         <v>1087</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
@@ -13806,7 +13806,7 @@
         <v>1088</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
@@ -13825,7 +13825,7 @@
         <v>1089</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
@@ -13844,7 +13844,7 @@
         <v>1090</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
@@ -13863,7 +13863,7 @@
         <v>1091</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
@@ -13882,7 +13882,7 @@
         <v>1092</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
@@ -13901,7 +13901,7 @@
         <v>1093</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26" t="s">
@@ -13920,7 +13920,7 @@
         <v>1094</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26" t="s">
@@ -13949,16 +13949,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>1166</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>1167</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="21" t="s">
         <v>1168</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>1169</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21" t="s">
@@ -14906,7 +14906,7 @@
         <v>827</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -15448,7 +15448,7 @@
         <v>1136</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="1"/>
@@ -15680,13 +15680,13 @@
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>1097</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>874</v>
@@ -15708,7 +15708,7 @@
         <v>892</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -15784,16 +15784,16 @@
         <v>898</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>685</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -15816,7 +15816,7 @@
         <v>685</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -15925,7 +15925,7 @@
         <v>909</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
@@ -16190,17 +16190,17 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.59765625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
     <col min="8" max="256" width="8.8984375" style="6" customWidth="1"/>
@@ -16586,16 +16586,16 @@
         <v>929</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>1156</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>1157</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>685</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -16864,7 +16864,7 @@
         <v>958</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1142</v>
+        <v>1259</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>685</v>
@@ -16887,7 +16887,7 @@
         <v>962</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>702</v>
@@ -17442,7 +17442,7 @@
         <v>536</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -18230,13 +18230,13 @@
     </row>
     <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>523</v>
@@ -18251,13 +18251,13 @@
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>524</v>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECA1DD-8E9F-481C-916D-2FE53F89E3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91436EB8-56C5-408B-983C-CA17013EAC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="0" windowWidth="20904" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1261">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3813,6 +3813,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -4599,8 +4602,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9883,7 +9886,7 @@
         <v>445</v>
       </c>
       <c r="C306" s="37" t="s">
-        <v>422</v>
+        <v>1260</v>
       </c>
       <c r="D306" s="37" t="s">
         <v>891</v>
@@ -11157,7 +11160,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>54</v>
       </c>
@@ -16190,7 +16193,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -16575,7 +16578,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>505</v>
       </c>
@@ -17162,7 +17165,7 @@
       <c r="IU23" s="16"/>
       <c r="IV23" s="16"/>
     </row>
-    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>977</v>
       </c>
@@ -17428,7 +17431,7 @@
       <c r="IU24" s="16"/>
       <c r="IV24" s="16"/>
     </row>
-    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>974</v>
       </c>
@@ -17962,7 +17965,7 @@
       <c r="IU26" s="16"/>
       <c r="IV26" s="16"/>
     </row>
-    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>976</v>
       </c>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91436EB8-56C5-408B-983C-CA17013EAC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F231E7-D2F3-413C-A233-212731283AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="1264">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3816,6 +3816,15 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>digestAlgorithm field value of the SignerInfo is in accordance with Table 3-2 of SP 800-78</t>
+  </si>
+  <si>
+    <t>10.4.2.8</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -3895,7 +3904,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3958,6 +3967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4045,7 +4060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4210,6 +4225,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4600,10 +4624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F473"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10144,7 +10168,7 @@
         <v>469</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>1235</v>
+        <v>1261</v>
       </c>
       <c r="D321" s="37" t="s">
         <v>418</v>
@@ -10172,82 +10196,82 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B323" s="37" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C323" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D323" s="41"/>
-      <c r="E323" s="41"/>
-      <c r="F323" s="41"/>
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A323" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B323" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C323" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D323" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E323" s="57"/>
+      <c r="F323" s="57" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B324" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="C324" s="46" t="s">
-        <v>34</v>
+        <v>1191</v>
+      </c>
+      <c r="C324" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="D324" s="41"/>
       <c r="E324" s="41"/>
       <c r="F324" s="41"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B325" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C325" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D325" s="41"/>
+      <c r="E325" s="41"/>
+      <c r="F325" s="41"/>
+    </row>
+    <row r="326" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A326" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B326" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="C325" s="37" t="s">
+      <c r="C326" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D325" s="37" t="s">
+      <c r="D326" s="37" t="s">
         <v>369</v>
-      </c>
-      <c r="E325" s="37"/>
-      <c r="F325" s="37" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B326" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="C326" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="D326" s="37" t="s">
-        <v>372</v>
       </c>
       <c r="E326" s="37"/>
       <c r="F326" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B327" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C327" s="37" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D327" s="37" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E327" s="37"/>
       <c r="F327" s="37" t="s">
@@ -10259,31 +10283,31 @@
         <v>54</v>
       </c>
       <c r="B328" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C328" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D328" s="37" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E328" s="37"/>
       <c r="F328" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A329" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B329" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C329" s="37" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="D329" s="37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E329" s="37"/>
       <c r="F329" s="37" t="s">
@@ -10295,13 +10319,13 @@
         <v>54</v>
       </c>
       <c r="B330" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C330" s="37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D330" s="37" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E330" s="37"/>
       <c r="F330" s="37" t="s">
@@ -10313,31 +10337,31 @@
         <v>54</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1076</v>
+        <v>479</v>
       </c>
       <c r="C331" s="37" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="D331" s="37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E331" s="37"/>
       <c r="F331" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C332" s="37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D332" s="37" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E332" s="37"/>
       <c r="F332" s="37" t="s">
@@ -10349,13 +10373,13 @@
         <v>54</v>
       </c>
       <c r="B333" s="37" t="s">
-        <v>480</v>
+        <v>1077</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>1235</v>
+        <v>416</v>
       </c>
       <c r="D333" s="37" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="E333" s="37"/>
       <c r="F333" s="37" t="s">
@@ -10367,13 +10391,13 @@
         <v>54</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C334" s="37" t="s">
-        <v>420</v>
+        <v>1235</v>
       </c>
       <c r="D334" s="37" t="s">
-        <v>1074</v>
+        <v>418</v>
       </c>
       <c r="E334" s="37"/>
       <c r="F334" s="37" t="s">
@@ -10385,49 +10409,49 @@
         <v>54</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C335" s="37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D335" s="37" t="s">
-        <v>891</v>
+        <v>1074</v>
       </c>
       <c r="E335" s="37"/>
       <c r="F335" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A336" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C336" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D336" s="37" t="s">
-        <v>395</v>
+        <v>891</v>
       </c>
       <c r="E336" s="37"/>
       <c r="F336" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A337" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="C337" s="44" t="s">
-        <v>426</v>
+        <v>483</v>
+      </c>
+      <c r="C337" s="37" t="s">
+        <v>424</v>
       </c>
       <c r="D337" s="37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E337" s="37"/>
       <c r="F337" s="37" t="s">
@@ -10439,78 +10463,82 @@
         <v>54</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="C338" s="37" t="s">
-        <v>429</v>
+        <v>484</v>
+      </c>
+      <c r="C338" s="44" t="s">
+        <v>426</v>
       </c>
       <c r="D338" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E338" s="37"/>
       <c r="F338" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A339" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B339" s="37" t="s">
-        <v>1078</v>
+        <v>485</v>
       </c>
       <c r="C339" s="37" t="s">
-        <v>1200</v>
+        <v>429</v>
       </c>
       <c r="D339" s="37" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="E339" s="37"/>
       <c r="F339" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A340" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C340" s="44" t="s">
-        <v>432</v>
+        <v>1078</v>
+      </c>
+      <c r="C340" s="37" t="s">
+        <v>1200</v>
       </c>
       <c r="D340" s="37" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E340" s="37"/>
       <c r="F340" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A341" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B341" s="35" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C341" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D341" s="41"/>
-      <c r="E341" s="41"/>
-      <c r="F341" s="41"/>
+      <c r="B341" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C341" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="D341" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="E341" s="37"/>
+      <c r="F341" s="37" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B342" s="37">
-        <v>11.1</v>
-      </c>
-      <c r="C342" s="45" t="s">
-        <v>39</v>
+      <c r="B342" s="35" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C342" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="D342" s="41"/>
       <c r="E342" s="41"/>
@@ -10520,46 +10548,42 @@
       <c r="A343" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B343" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C343" s="46" t="s">
-        <v>40</v>
+      <c r="B343" s="37">
+        <v>11.1</v>
+      </c>
+      <c r="C343" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="D343" s="41"/>
       <c r="E343" s="41"/>
       <c r="F343" s="41"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B344" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C344" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D344" s="41"/>
+      <c r="E344" s="41"/>
+      <c r="F344" s="41"/>
+    </row>
+    <row r="345" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A345" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B345" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="C344" s="44" t="s">
+      <c r="C345" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="D344" s="37">
+      <c r="D345" s="37">
         <v>78.3</v>
-      </c>
-      <c r="E344" s="37"/>
-      <c r="F344" s="37" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A345" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B345" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="C345" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="D345" s="37">
-        <v>78.099999999999994</v>
       </c>
       <c r="E345" s="37"/>
       <c r="F345" s="37" t="s">
@@ -10571,10 +10595,10 @@
         <v>54</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C346" s="44" t="s">
-        <v>1080</v>
+        <v>490</v>
       </c>
       <c r="D346" s="37">
         <v>78.099999999999994</v>
@@ -10584,50 +10608,50 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="C347" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D347" s="41"/>
-      <c r="E347" s="41"/>
-      <c r="F347" s="41"/>
+        <v>491</v>
+      </c>
+      <c r="C347" s="44" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D347" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E347" s="37"/>
+      <c r="F347" s="37" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B348" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="C348" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="D348" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="E348" s="37"/>
-      <c r="F348" s="37" t="s">
-        <v>1032</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C348" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D348" s="41"/>
+      <c r="E348" s="41"/>
+      <c r="F348" s="41"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B349" s="37" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C349" s="44" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D349" s="37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E349" s="37"/>
       <c r="F349" s="37" t="s">
@@ -10639,81 +10663,81 @@
         <v>54</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="C350" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
+      </c>
+      <c r="C350" s="44" t="s">
+        <v>498</v>
       </c>
       <c r="D350" s="37" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E350" s="37"/>
       <c r="F350" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B351" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="C351" s="44" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="C351" s="37" t="s">
+        <v>501</v>
       </c>
       <c r="D351" s="37" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E351" s="37"/>
       <c r="F351" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B352" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C352" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="D352" s="41"/>
-      <c r="E352" s="41"/>
-      <c r="F352" s="41"/>
+        <v>503</v>
+      </c>
+      <c r="C352" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="D352" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="E352" s="37"/>
+      <c r="F352" s="37" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B353" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="C353" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D353" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="E353" s="37"/>
-      <c r="F353" s="37" t="s">
-        <v>1032</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C353" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="D353" s="41"/>
+      <c r="E353" s="41"/>
+      <c r="F353" s="41"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B354" s="37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C354" s="44" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D354" s="37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E354" s="37"/>
       <c r="F354" s="37" t="s">
@@ -10725,81 +10749,81 @@
         <v>54</v>
       </c>
       <c r="B355" s="37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C355" s="44" t="s">
-        <v>978</v>
+        <v>512</v>
       </c>
       <c r="D355" s="37" t="s">
-        <v>977</v>
+        <v>513</v>
       </c>
       <c r="E355" s="37"/>
       <c r="F355" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C356" s="44" t="s">
-        <v>563</v>
+        <v>978</v>
       </c>
       <c r="D356" s="37" t="s">
-        <v>518</v>
+        <v>977</v>
       </c>
       <c r="E356" s="37"/>
       <c r="F356" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A357" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B357" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C357" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="D357" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E357" s="37"/>
+      <c r="F357" s="37" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B358" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="C357" s="41" t="s">
+      <c r="C358" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="D357" s="41"/>
-      <c r="E357" s="41"/>
-      <c r="F357" s="41"/>
-    </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A358" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B358" s="37" t="s">
+      <c r="D358" s="41"/>
+      <c r="E358" s="41"/>
+      <c r="F358" s="41"/>
+    </row>
+    <row r="359" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A359" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B359" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="C358" s="44" t="s">
+      <c r="C359" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="D358" s="37" t="s">
+      <c r="D359" s="37" t="s">
         <v>1147</v>
-      </c>
-      <c r="E358" s="37"/>
-      <c r="F358" s="37" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A359" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B359" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="C359" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="D359" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="E359" s="37"/>
       <c r="F359" s="37" t="s">
@@ -10811,63 +10835,63 @@
         <v>54</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C360" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D360" s="37" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E360" s="37"/>
       <c r="F360" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="C361" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D361" s="41"/>
-      <c r="E361" s="41"/>
-      <c r="F361" s="41"/>
+        <v>528</v>
+      </c>
+      <c r="C361" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="D361" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="E361" s="37"/>
+      <c r="F361" s="37" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="C362" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="D362" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E362" s="37"/>
-      <c r="F362" s="37" t="s">
-        <v>1032</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C362" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D362" s="41"/>
+      <c r="E362" s="41"/>
+      <c r="F362" s="41"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="C363" s="37" t="s">
-        <v>536</v>
+        <v>533</v>
+      </c>
+      <c r="C363" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D363" s="37" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E363" s="37"/>
       <c r="F363" s="37" t="s">
@@ -10879,81 +10903,81 @@
         <v>54</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="C364" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="D364" s="41"/>
-      <c r="E364" s="41"/>
-      <c r="F364" s="41"/>
+        <v>535</v>
+      </c>
+      <c r="C364" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D364" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="E364" s="37"/>
+      <c r="F364" s="37" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="C365" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D365" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="E365" s="37"/>
-      <c r="F365" s="37" t="s">
-        <v>1032</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C365" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="D365" s="41"/>
+      <c r="E365" s="41"/>
+      <c r="F365" s="41"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C366" s="44" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="D366" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E366" s="42"/>
+        <v>510</v>
+      </c>
+      <c r="E366" s="37"/>
       <c r="F366" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C367" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D367" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E367" s="37"/>
+        <v>979</v>
+      </c>
+      <c r="E367" s="42"/>
       <c r="F367" s="37" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C368" s="44" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D368" s="37" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E368" s="37"/>
       <c r="F368" s="37" t="s">
@@ -10965,13 +10989,13 @@
         <v>54</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="C369" s="37" t="s">
-        <v>547</v>
+        <v>544</v>
+      </c>
+      <c r="C369" s="44" t="s">
+        <v>545</v>
       </c>
       <c r="D369" s="37" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E369" s="37"/>
       <c r="F369" s="37" t="s">
@@ -10982,78 +11006,78 @@
       <c r="A370" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B370" s="37">
-        <v>11.2</v>
-      </c>
-      <c r="C370" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D370" s="41"/>
-      <c r="E370" s="41"/>
-      <c r="F370" s="41"/>
+      <c r="B370" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="C370" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D370" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="E370" s="37"/>
+      <c r="F370" s="37" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B371" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="C371" s="41" t="s">
-        <v>40</v>
+      <c r="B371" s="37">
+        <v>11.2</v>
+      </c>
+      <c r="C371" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B372" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="C372" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372" s="41"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="41"/>
+    </row>
+    <row r="373" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A373" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B373" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="C372" s="44" t="s">
+      <c r="C373" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="D372" s="37" t="s">
+      <c r="D373" s="37" t="s">
         <v>915</v>
-      </c>
-      <c r="E372" s="37"/>
-      <c r="F372" s="37" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A373" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B373" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="C373" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="D373" s="37" t="s">
-        <v>910</v>
       </c>
       <c r="E373" s="37"/>
       <c r="F373" s="37" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B374" s="37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C374" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="D374" s="37">
-        <v>78.099999999999994</v>
+        <v>551</v>
+      </c>
+      <c r="D374" s="37" t="s">
+        <v>910</v>
       </c>
       <c r="E374" s="37"/>
       <c r="F374" s="37" t="s">
@@ -11065,24 +11089,28 @@
         <v>54</v>
       </c>
       <c r="B375" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="C375" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D375" s="41"/>
-      <c r="E375" s="41"/>
-      <c r="F375" s="41"/>
+        <v>552</v>
+      </c>
+      <c r="C375" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="D375" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E375" s="37"/>
+      <c r="F375" s="37" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B376" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C376" s="41" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D376" s="41"/>
       <c r="E376" s="41"/>
@@ -11093,49 +11121,45 @@
         <v>54</v>
       </c>
       <c r="B377" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="C377" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="D377" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="E377" s="37"/>
-      <c r="F377" s="37" t="s">
-        <v>1047</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="C377" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="D377" s="41"/>
+      <c r="E377" s="41"/>
+      <c r="F377" s="41"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B378" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="C378" s="44" t="s">
-        <v>560</v>
+        <v>556</v>
+      </c>
+      <c r="C378" s="37" t="s">
+        <v>557</v>
       </c>
       <c r="D378" s="37" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E378" s="37"/>
       <c r="F378" s="37" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B379" s="37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C379" s="44" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D379" s="37" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="E379" s="37"/>
       <c r="F379" s="37" t="s">
@@ -11147,13 +11171,13 @@
         <v>54</v>
       </c>
       <c r="B380" s="37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D380" s="37" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E380" s="37"/>
       <c r="F380" s="37" t="s">
@@ -11165,13 +11189,13 @@
         <v>54</v>
       </c>
       <c r="B381" s="37" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D381" s="37" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E381" s="37"/>
       <c r="F381" s="37" t="s">
@@ -11183,63 +11207,63 @@
         <v>54</v>
       </c>
       <c r="B382" s="37" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D382" s="37" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E382" s="37"/>
       <c r="F382" s="37" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B383" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="C383" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D383" s="41"/>
-      <c r="E383" s="41"/>
-      <c r="F383" s="41"/>
+        <v>568</v>
+      </c>
+      <c r="C383" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="D383" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="E383" s="37"/>
+      <c r="F383" s="37" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B384" s="37" t="s">
-        <v>571</v>
-      </c>
-      <c r="C384" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="D384" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E384" s="37"/>
-      <c r="F384" s="37" t="s">
-        <v>1047</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C384" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D384" s="41"/>
+      <c r="E384" s="41"/>
+      <c r="F384" s="41"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B385" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="C385" s="37" t="s">
-        <v>536</v>
+        <v>571</v>
+      </c>
+      <c r="C385" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D385" s="37" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E385" s="37"/>
       <c r="F385" s="37" t="s">
@@ -11251,81 +11275,81 @@
         <v>54</v>
       </c>
       <c r="B386" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="C386" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="D386" s="41"/>
-      <c r="E386" s="41"/>
-      <c r="F386" s="41"/>
+        <v>572</v>
+      </c>
+      <c r="C386" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D386" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="E386" s="37"/>
+      <c r="F386" s="37" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B387" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="C387" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D387" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="E387" s="37"/>
-      <c r="F387" s="37" t="s">
-        <v>1047</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C387" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="D387" s="41"/>
+      <c r="E387" s="41"/>
+      <c r="F387" s="41"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B388" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C388" s="44" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D388" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E388" s="42"/>
+        <v>510</v>
+      </c>
+      <c r="E388" s="37"/>
       <c r="F388" s="37" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B389" s="37" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C389" s="44" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D389" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E389" s="37"/>
+        <v>979</v>
+      </c>
+      <c r="E389" s="42"/>
       <c r="F389" s="37" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B390" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C390" s="44" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D390" s="37" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E390" s="37"/>
       <c r="F390" s="37" t="s">
@@ -11337,13 +11361,13 @@
         <v>54</v>
       </c>
       <c r="B391" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="C391" s="37" t="s">
-        <v>547</v>
+        <v>578</v>
+      </c>
+      <c r="C391" s="44" t="s">
+        <v>545</v>
       </c>
       <c r="D391" s="37" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E391" s="37"/>
       <c r="F391" s="37" t="s">
@@ -11354,78 +11378,78 @@
       <c r="A392" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B392" s="37">
-        <v>11.3</v>
-      </c>
-      <c r="C392" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="41"/>
-      <c r="E392" s="41"/>
-      <c r="F392" s="41"/>
+      <c r="B392" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="C392" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D392" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="E392" s="37"/>
+      <c r="F392" s="37" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B393" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="C393" s="41" t="s">
-        <v>40</v>
+      <c r="B393" s="37">
+        <v>11.3</v>
+      </c>
+      <c r="C393" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="D393" s="41"/>
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B394" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="C394" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D394" s="41"/>
+      <c r="E394" s="41"/>
+      <c r="F394" s="41"/>
+    </row>
+    <row r="395" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A395" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B395" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="C394" s="44" t="s">
+      <c r="C395" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="D394" s="37">
+      <c r="D395" s="37">
         <v>78.3</v>
-      </c>
-      <c r="E394" s="37"/>
-      <c r="F394" s="37" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A395" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B395" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="C395" s="37" t="s">
-        <v>584</v>
-      </c>
-      <c r="D395" s="37" t="s">
-        <v>910</v>
       </c>
       <c r="E395" s="37"/>
       <c r="F395" s="37" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B396" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="C396" s="44" t="s">
-        <v>586</v>
-      </c>
-      <c r="D396" s="37">
-        <v>78.099999999999994</v>
+        <v>583</v>
+      </c>
+      <c r="C396" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="D396" s="37" t="s">
+        <v>910</v>
       </c>
       <c r="E396" s="37"/>
       <c r="F396" s="37" t="s">
@@ -11437,95 +11461,95 @@
         <v>54</v>
       </c>
       <c r="B397" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="C397" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D397" s="41"/>
-      <c r="E397" s="41"/>
-      <c r="F397" s="41"/>
+        <v>585</v>
+      </c>
+      <c r="C397" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="D397" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E397" s="37"/>
+      <c r="F397" s="37" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B398" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C398" s="41" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D398" s="41"/>
       <c r="E398" s="41"/>
       <c r="F398" s="41"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B399" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="C399" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D399" s="37" t="s">
-        <v>947</v>
-      </c>
-      <c r="E399" s="37"/>
-      <c r="F399" s="37" t="s">
-        <v>1050</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C399" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="D399" s="41"/>
+      <c r="E399" s="41"/>
+      <c r="F399" s="41"/>
     </row>
     <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B400" s="37" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D400" s="37" t="s">
-        <v>593</v>
+        <v>947</v>
       </c>
       <c r="E400" s="37"/>
       <c r="F400" s="37" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B401" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D401" s="37" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="E401" s="37"/>
       <c r="F401" s="37" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B402" s="37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D402" s="37" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E402" s="37"/>
       <c r="F402" s="37" t="s">
@@ -11537,13 +11561,13 @@
         <v>54</v>
       </c>
       <c r="B403" s="37" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D403" s="37" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E403" s="37"/>
       <c r="F403" s="37" t="s">
@@ -11555,63 +11579,63 @@
         <v>54</v>
       </c>
       <c r="B404" s="37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="D404" s="37" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E404" s="37"/>
       <c r="F404" s="37" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B405" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="C405" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D405" s="41"/>
-      <c r="E405" s="41"/>
-      <c r="F405" s="41"/>
+        <v>600</v>
+      </c>
+      <c r="C405" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="D405" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="E405" s="37"/>
+      <c r="F405" s="37" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B406" s="37" t="s">
-        <v>602</v>
-      </c>
-      <c r="C406" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="D406" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E406" s="37"/>
-      <c r="F406" s="37" t="s">
-        <v>1050</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C406" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D406" s="41"/>
+      <c r="E406" s="41"/>
+      <c r="F406" s="41"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B407" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="C407" s="37" t="s">
-        <v>536</v>
+        <v>602</v>
+      </c>
+      <c r="C407" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D407" s="37" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E407" s="37"/>
       <c r="F407" s="37" t="s">
@@ -11623,81 +11647,81 @@
         <v>54</v>
       </c>
       <c r="B408" s="37" t="s">
-        <v>604</v>
-      </c>
-      <c r="C408" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="D408" s="41"/>
-      <c r="E408" s="41"/>
-      <c r="F408" s="41"/>
+        <v>603</v>
+      </c>
+      <c r="C408" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D408" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="E408" s="37"/>
+      <c r="F408" s="37" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B409" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="C409" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D409" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="E409" s="37"/>
-      <c r="F409" s="37" t="s">
-        <v>1050</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C409" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="D409" s="41"/>
+      <c r="E409" s="41"/>
+      <c r="F409" s="41"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B410" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C410" s="44" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D410" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="E410" s="42"/>
+        <v>510</v>
+      </c>
+      <c r="E410" s="37"/>
       <c r="F410" s="37" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B411" s="37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C411" s="44" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D411" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E411" s="37"/>
+        <v>979</v>
+      </c>
+      <c r="E411" s="42"/>
       <c r="F411" s="37" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B412" s="37" t="s">
-        <v>608</v>
-      </c>
-      <c r="C412" s="37" t="s">
-        <v>545</v>
+        <v>607</v>
+      </c>
+      <c r="C412" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D412" s="37" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E412" s="37"/>
       <c r="F412" s="37" t="s">
@@ -11709,13 +11733,13 @@
         <v>54</v>
       </c>
       <c r="B413" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C413" s="37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D413" s="37" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E413" s="37"/>
       <c r="F413" s="37" t="s">
@@ -11726,75 +11750,75 @@
       <c r="A414" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B414" s="37">
-        <v>11.4</v>
-      </c>
-      <c r="C414" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D414" s="41"/>
-      <c r="E414" s="41"/>
-      <c r="F414" s="41"/>
+      <c r="B414" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="C414" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D414" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="E414" s="37"/>
+      <c r="F414" s="37" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B415" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="C415" s="41" t="s">
-        <v>40</v>
+      <c r="B415" s="37">
+        <v>11.4</v>
+      </c>
+      <c r="C415" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="D415" s="41"/>
       <c r="E415" s="41"/>
       <c r="F415" s="41"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B416" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C416" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D416" s="41"/>
+      <c r="E416" s="41"/>
+      <c r="F416" s="41"/>
+    </row>
+    <row r="417" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A417" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B417" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="C416" s="44" t="s">
+      <c r="C417" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="D416" s="37">
+      <c r="D417" s="37">
         <v>78.3</v>
       </c>
-      <c r="E416" s="4"/>
-      <c r="F416" s="37" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A417" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B417" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="C417" s="44" t="s">
-        <v>613</v>
-      </c>
-      <c r="D417" s="37">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E417" s="37"/>
+      <c r="E417" s="4"/>
       <c r="F417" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C418" s="44" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D418" s="37">
         <v>78.099999999999994</v>
@@ -11809,24 +11833,28 @@
         <v>54</v>
       </c>
       <c r="B419" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="C419" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D419" s="41"/>
-      <c r="E419" s="41"/>
-      <c r="F419" s="41"/>
+        <v>614</v>
+      </c>
+      <c r="C419" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="D419" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E419" s="37"/>
+      <c r="F419" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B420" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C420" s="41" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D420" s="41"/>
       <c r="E420" s="41"/>
@@ -11837,31 +11865,27 @@
         <v>54</v>
       </c>
       <c r="B421" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="C421" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="D421" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="E421" s="37"/>
-      <c r="F421" s="37" t="s">
-        <v>1053</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C421" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="D421" s="41"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="41"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B422" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="C422" s="44" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="C422" s="37" t="s">
+        <v>557</v>
       </c>
       <c r="D422" s="37" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="E422" s="37"/>
       <c r="F422" s="37" t="s">
@@ -11873,81 +11897,81 @@
         <v>54</v>
       </c>
       <c r="B423" s="37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C423" s="44" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D423" s="37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E423" s="37"/>
       <c r="F423" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B424" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="C424" s="37" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="C424" s="44" t="s">
+        <v>621</v>
       </c>
       <c r="D424" s="37" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E424" s="37"/>
       <c r="F424" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A425" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B425" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="C425" s="41" t="s">
-        <v>625</v>
-      </c>
-      <c r="D425" s="41"/>
-      <c r="E425" s="41"/>
-      <c r="F425" s="41"/>
+        <v>622</v>
+      </c>
+      <c r="C425" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D425" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="E425" s="37"/>
+      <c r="F425" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B426" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="C426" s="37" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D426" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="E426" s="37"/>
-      <c r="F426" s="37" t="s">
-        <v>1053</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C426" s="41" t="s">
+        <v>625</v>
+      </c>
+      <c r="D426" s="41"/>
+      <c r="E426" s="41"/>
+      <c r="F426" s="41"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B427" s="37" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C427" s="37" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D427" s="37" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E427" s="37"/>
       <c r="F427" s="37" t="s">
@@ -11959,10 +11983,10 @@
         <v>54</v>
       </c>
       <c r="B428" s="37" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C428" s="37" t="s">
-        <v>631</v>
+        <v>1133</v>
       </c>
       <c r="D428" s="37" t="s">
         <v>629</v>
@@ -11977,78 +12001,78 @@
         <v>54</v>
       </c>
       <c r="B429" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="C429" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="D429" s="41"/>
-      <c r="E429" s="41"/>
-      <c r="F429" s="41"/>
+        <v>630</v>
+      </c>
+      <c r="C429" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="D429" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="E429" s="37"/>
+      <c r="F429" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B430" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="C430" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D430" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="E430" s="37"/>
-      <c r="F430" s="37" t="s">
-        <v>1053</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C430" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="D430" s="41"/>
+      <c r="E430" s="41"/>
+      <c r="F430" s="41"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B431" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C431" s="44" t="s">
-        <v>635</v>
+        <v>509</v>
       </c>
       <c r="D431" s="37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E431" s="37"/>
       <c r="F431" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B432" s="37" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C432" s="44" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="D432" s="37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E432" s="37"/>
       <c r="F432" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B433" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="C433" s="37" t="s">
-        <v>545</v>
+        <v>636</v>
+      </c>
+      <c r="C433" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D433" s="37" t="s">
         <v>515</v>
@@ -12058,136 +12082,136 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B434" s="37" t="s">
-        <v>638</v>
-      </c>
-      <c r="C434" s="44" t="s">
-        <v>597</v>
+        <v>637</v>
+      </c>
+      <c r="C434" s="37" t="s">
+        <v>545</v>
       </c>
       <c r="D434" s="37" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E434" s="37"/>
       <c r="F434" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B435" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="C435" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="D435" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E435" s="37"/>
+      <c r="F435" s="37" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B436" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="C435" s="41" t="s">
+      <c r="C436" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="D435" s="41"/>
-      <c r="E435" s="41"/>
-      <c r="F435" s="41"/>
-    </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A436" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B436" s="37" t="s">
+      <c r="D436" s="41"/>
+      <c r="E436" s="41"/>
+      <c r="F436" s="41"/>
+    </row>
+    <row r="437" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A437" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B437" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="C436" s="44" t="s">
+      <c r="C437" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="D436" s="37" t="s">
+      <c r="D437" s="37" t="s">
         <v>1147</v>
-      </c>
-      <c r="E436" s="37"/>
-      <c r="F436" s="37" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B437" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="C437" s="44" t="s">
-        <v>642</v>
-      </c>
-      <c r="D437" s="37" t="s">
-        <v>1149</v>
       </c>
       <c r="E437" s="37"/>
       <c r="F437" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B438" s="37" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C438" s="44" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="D438" s="37" t="s">
-        <v>530</v>
+        <v>1149</v>
       </c>
       <c r="E438" s="37"/>
       <c r="F438" s="37" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A439" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B439" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="C439" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D439" s="41"/>
-      <c r="E439" s="41"/>
-      <c r="F439" s="41"/>
+        <v>643</v>
+      </c>
+      <c r="C439" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="D439" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="E439" s="37"/>
+      <c r="F439" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B440" s="37" t="s">
-        <v>645</v>
-      </c>
-      <c r="C440" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="D440" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E440" s="37"/>
-      <c r="F440" s="37" t="s">
-        <v>1053</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C440" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D440" s="41"/>
+      <c r="E440" s="41"/>
+      <c r="F440" s="41"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B441" s="37" t="s">
-        <v>646</v>
-      </c>
-      <c r="C441" s="37" t="s">
-        <v>536</v>
+        <v>645</v>
+      </c>
+      <c r="C441" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D441" s="37" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E441" s="37"/>
       <c r="F441" s="37" t="s">
@@ -12199,72 +12223,74 @@
         <v>54</v>
       </c>
       <c r="B442" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="C442" s="41" t="s">
-        <v>984</v>
-      </c>
-      <c r="D442" s="41"/>
-      <c r="E442" s="41"/>
-      <c r="F442" s="41"/>
+        <v>646</v>
+      </c>
+      <c r="C442" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D442" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="E442" s="37"/>
+      <c r="F442" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B443" s="37" t="s">
-        <v>648</v>
-      </c>
-      <c r="C443" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="D443" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="E443" s="37"/>
-      <c r="F443" s="37" t="s">
-        <v>1053</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="D443" s="41"/>
+      <c r="E443" s="41"/>
+      <c r="F443" s="41"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B444" s="37">
-        <v>11.5</v>
-      </c>
-      <c r="C444" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D444" s="41"/>
-      <c r="E444" s="41"/>
-      <c r="F444" s="41"/>
+      <c r="B444" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="C444" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D444" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="E444" s="37"/>
+      <c r="F444" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B445" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="C445" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D445" s="37"/>
-      <c r="E445" s="44"/>
-      <c r="F445" s="37" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B445" s="37">
+        <v>11.5</v>
+      </c>
+      <c r="C445" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" s="41"/>
+      <c r="E445" s="41"/>
+      <c r="F445" s="41"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B446" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C446" s="44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D446" s="37"/>
       <c r="E446" s="44"/>
@@ -12277,10 +12303,10 @@
         <v>54</v>
       </c>
       <c r="B447" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C447" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D447" s="37"/>
       <c r="E447" s="44"/>
@@ -12292,41 +12318,41 @@
       <c r="A448" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B448" s="37">
-        <v>11.6</v>
-      </c>
-      <c r="C448" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D448" s="41"/>
-      <c r="E448" s="32"/>
-      <c r="F448" s="41"/>
+      <c r="B448" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C448" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D448" s="37"/>
+      <c r="E448" s="44"/>
+      <c r="F448" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B449" s="37" t="s">
-        <v>652</v>
-      </c>
-      <c r="C449" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D449" s="37"/>
-      <c r="E449" s="44"/>
-      <c r="F449" s="37" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B449" s="37">
+        <v>11.6</v>
+      </c>
+      <c r="C449" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D449" s="41"/>
+      <c r="E449" s="32"/>
+      <c r="F449" s="41"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B450" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C450" s="44" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D450" s="37"/>
       <c r="E450" s="44"/>
@@ -12338,75 +12364,73 @@
       <c r="A451" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B451" s="37">
-        <v>11.7</v>
-      </c>
-      <c r="C451" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D451" s="41"/>
-      <c r="E451" s="41"/>
-      <c r="F451" s="41"/>
+      <c r="B451" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="C451" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D451" s="37"/>
+      <c r="E451" s="44"/>
+      <c r="F451" s="37" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B452" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="C452" s="41" t="s">
-        <v>40</v>
+      <c r="B452" s="37">
+        <v>11.7</v>
+      </c>
+      <c r="C452" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="D452" s="41"/>
       <c r="E452" s="41"/>
       <c r="F452" s="41"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B453" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="C453" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D453" s="41"/>
+      <c r="E453" s="41"/>
+      <c r="F453" s="41"/>
+    </row>
+    <row r="454" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A454" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B454" s="37" t="s">
         <v>655</v>
       </c>
-      <c r="C453" s="44" t="s">
+      <c r="C454" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="D453" s="37">
+      <c r="D454" s="37">
         <v>78.3</v>
-      </c>
-      <c r="E453" s="37"/>
-      <c r="F453" s="37" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A454" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B454" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="C454" s="44" t="s">
-        <v>613</v>
-      </c>
-      <c r="D454" s="37">
-        <v>78.099999999999994</v>
       </c>
       <c r="E454" s="37"/>
       <c r="F454" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A455" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B455" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C455" s="44" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D455" s="37">
         <v>78.099999999999994</v>
@@ -12421,24 +12445,28 @@
         <v>54</v>
       </c>
       <c r="B456" s="37" t="s">
-        <v>658</v>
-      </c>
-      <c r="C456" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D456" s="41"/>
-      <c r="E456" s="41"/>
-      <c r="F456" s="41"/>
+        <v>657</v>
+      </c>
+      <c r="C456" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="D456" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E456" s="37"/>
+      <c r="F456" s="37" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B457" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C457" s="41" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D457" s="41"/>
       <c r="E457" s="41"/>
@@ -12449,31 +12477,27 @@
         <v>54</v>
       </c>
       <c r="B458" s="37" t="s">
-        <v>660</v>
-      </c>
-      <c r="C458" s="44" t="s">
-        <v>661</v>
-      </c>
-      <c r="D458" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="E458" s="37"/>
-      <c r="F458" s="37" t="s">
-        <v>1001</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C458" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="D458" s="41"/>
+      <c r="E458" s="41"/>
+      <c r="F458" s="41"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B459" s="37" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C459" s="44" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="D459" s="37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E459" s="37"/>
       <c r="F459" s="37" t="s">
@@ -12485,83 +12509,83 @@
         <v>54</v>
       </c>
       <c r="B460" s="37" t="s">
-        <v>663</v>
-      </c>
-      <c r="C460" s="37" t="s">
-        <v>664</v>
+        <v>662</v>
+      </c>
+      <c r="C460" s="44" t="s">
+        <v>621</v>
       </c>
       <c r="D460" s="37" t="s">
-        <v>976</v>
+        <v>499</v>
       </c>
       <c r="E460" s="37"/>
       <c r="F460" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B461" s="37" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C461" s="37" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D461" s="37" t="s">
-        <v>530</v>
+        <v>976</v>
       </c>
       <c r="E461" s="37"/>
       <c r="F461" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A462" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B462" s="37" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C462" s="37" t="s">
-        <v>991</v>
-      </c>
-      <c r="D462" s="37"/>
+        <v>666</v>
+      </c>
+      <c r="D462" s="37" t="s">
+        <v>530</v>
+      </c>
       <c r="E462" s="37"/>
       <c r="F462" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B463" s="37" t="s">
-        <v>992</v>
+        <v>667</v>
       </c>
       <c r="C463" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="D463" s="37" t="s">
-        <v>505</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="D463" s="37"/>
       <c r="E463" s="37"/>
       <c r="F463" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A464" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B464" s="37" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C464" s="37" t="s">
-        <v>990</v>
+        <v>668</v>
       </c>
       <c r="D464" s="37" t="s">
-        <v>629</v>
+        <v>505</v>
       </c>
       <c r="E464" s="37"/>
       <c r="F464" s="37" t="s">
@@ -12573,45 +12597,45 @@
         <v>54</v>
       </c>
       <c r="B465" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="C465" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D465" s="41"/>
-      <c r="E465" s="41"/>
-      <c r="F465" s="41"/>
+        <v>993</v>
+      </c>
+      <c r="C465" s="37" t="s">
+        <v>990</v>
+      </c>
+      <c r="D465" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="E465" s="37"/>
+      <c r="F465" s="37" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B466" s="37" t="s">
-        <v>670</v>
-      </c>
-      <c r="C466" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="D466" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="E466" s="37"/>
-      <c r="F466" s="37" t="s">
-        <v>1001</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C466" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D466" s="41"/>
+      <c r="E466" s="41"/>
+      <c r="F466" s="41"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B467" s="37" t="s">
-        <v>671</v>
-      </c>
-      <c r="C467" s="37" t="s">
-        <v>536</v>
+        <v>670</v>
+      </c>
+      <c r="C467" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D467" s="37" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E467" s="37"/>
       <c r="F467" s="37" t="s">
@@ -12623,81 +12647,81 @@
         <v>54</v>
       </c>
       <c r="B468" s="37" t="s">
-        <v>672</v>
-      </c>
-      <c r="C468" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="D468" s="41"/>
-      <c r="E468" s="41"/>
-      <c r="F468" s="41"/>
+        <v>671</v>
+      </c>
+      <c r="C468" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D468" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="E468" s="37"/>
+      <c r="F468" s="37" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B469" s="37" t="s">
-        <v>673</v>
-      </c>
-      <c r="C469" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D469" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="E469" s="37"/>
-      <c r="F469" s="37" t="s">
-        <v>1001</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="C469" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="D469" s="41"/>
+      <c r="E469" s="41"/>
+      <c r="F469" s="41"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B470" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C470" s="44" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D470" s="37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E470" s="37"/>
       <c r="F470" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B471" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C471" s="44" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D471" s="37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E471" s="37"/>
       <c r="F471" s="37" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B472" s="37" t="s">
-        <v>676</v>
-      </c>
-      <c r="C472" s="37" t="s">
-        <v>545</v>
+        <v>675</v>
+      </c>
+      <c r="C472" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D472" s="37" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E472" s="37"/>
       <c r="F472" s="37" t="s">
@@ -12709,16 +12733,34 @@
         <v>54</v>
       </c>
       <c r="B473" s="37" t="s">
-        <v>1146</v>
+        <v>676</v>
       </c>
       <c r="C473" s="37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D473" s="37" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E473" s="37"/>
       <c r="F473" s="37" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B474" s="37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C474" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="D474" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="E474" s="37"/>
+      <c r="F474" s="37" t="s">
         <v>1001</v>
       </c>
     </row>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD9460-0F6B-4731-9359-C83D7E7004FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4133FACA-1478-48C9-9E4E-D5FF7CF11128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="1265">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3825,6 +3825,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840</t>
   </si>
 </sst>
 </file>
@@ -5706,7 +5709,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>54</v>
       </c>
@@ -12922,7 +12925,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -15513,7 +15516,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15641,7 +15646,9 @@
       <c r="D6" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>1264</v>
+      </c>
       <c r="F6" s="21" t="s">
         <v>684</v>
       </c>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD34FE8C-0FDF-48E0-9DED-7D1CE09893B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A45518-D430-4FDC-84C9-0A855B7F4410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="6168" windowWidth="23064" windowHeight="6204" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1267">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3828,6 +3828,12 @@
   </si>
   <si>
     <t>The Agency Code, System Code, and Credential Number of the FASC-N are present. The credential series, individual credential issue, person identifier, organizational category, organizational identifier, and person/organization association category of the FASC-N are populated</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3.6.1.1.16.4</t>
   </si>
 </sst>
 </file>
@@ -4629,7 +4635,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
@@ -12760,7 +12766,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -15494,7 +15500,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16069,7 +16077,9 @@
       <c r="D29" s="26" t="s">
         <v>1111</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="26" t="s">
+        <v>1265</v>
+      </c>
       <c r="F29" s="21" t="s">
         <v>683</v>
       </c>
@@ -16088,7 +16098,9 @@
       <c r="D30" s="26" t="s">
         <v>1114</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>1266</v>
+      </c>
       <c r="F30" s="21" t="s">
         <v>683</v>
       </c>
@@ -16216,7 +16228,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/conformancelib/testdata/PIV-I_Production_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Production_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A45518-D430-4FDC-84C9-0A855B7F4410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89FA02-703A-40D4-9007-B46932E07DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="6168" windowWidth="23064" windowHeight="6204" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2784" yWindow="384" windowWidth="20220" windowHeight="11940" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3821,9 +3821,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840</t>
-  </si>
-  <si>
     <t>Tags 0x3E and 0xFE are present and follow tags  in that order</t>
   </si>
   <si>
@@ -3834,6 +3831,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.3.6.1.1.16.4</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840.1.101.3.6.2</t>
   </si>
 </sst>
 </file>
@@ -5181,7 +5181,7 @@
         <v>1012</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>103</v>
@@ -13171,7 +13171,7 @@
         <v>709</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
@@ -14014,7 +14014,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15500,8 +15500,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15631,7 +15631,7 @@
         <v>880</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>683</v>
@@ -16078,7 +16078,7 @@
         <v>1111</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>683</v>
@@ -16099,7 +16099,7 @@
         <v>1114</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>683</v>
@@ -16228,7 +16228,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
